--- a/Topicos Fundamentais/Top5/TRU/TRU_VA_corrente_2017.xlsx
+++ b/Topicos Fundamentais/Top5/TRU/TRU_VA_corrente_2017.xlsx
@@ -3,340 +3,343 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <workbookPr date1904="false"/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" r:id="rId3" sheetId="1"/>
+    <sheet name="Sheet 1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="82">
-  <si>
-    <t>0191
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="83">
+  <si>
+    <t xml:space="preserve"/>
+  </si>
+  <si>
+    <t xml:space="preserve">0191
 Agricultura, inclusive o apoio à agricultura e a pós-colheita</t>
   </si>
   <si>
-    <t>0192
+    <t xml:space="preserve">0192
 Pecuária, inclusive o apoio à pecuária</t>
   </si>
   <si>
-    <t>0280
+    <t xml:space="preserve">0280
 Produção florestal; pesca e aquicultura</t>
   </si>
   <si>
-    <t>0580
+    <t xml:space="preserve">0580
 Extração de carvão mineral e de minerais não-metálicos</t>
   </si>
   <si>
-    <t>0680
+    <t xml:space="preserve">0680
 Extração de petróleo e gás, inclusive as atividades de apoio</t>
   </si>
   <si>
-    <t>0791
+    <t xml:space="preserve">0791
 Extração de minério de ferro, inclusive beneficiamentos e a aglomeração</t>
   </si>
   <si>
-    <t>0792
+    <t xml:space="preserve">0792
 Extração de minerais metálicos não-ferrosos, inclusive beneficiamentos</t>
   </si>
   <si>
-    <t>1091
+    <t xml:space="preserve">1091
 Abate e produtos de carne, inclusive os produtos do laticínio e da pesca</t>
   </si>
   <si>
-    <t>1092
+    <t xml:space="preserve">1092
 Fabricação e refino de açúcar</t>
   </si>
   <si>
-    <t>1093
+    <t xml:space="preserve">1093
 Outros produtos alimentares</t>
   </si>
   <si>
-    <t>1100
+    <t xml:space="preserve">1100
 Fabricação de bebidas</t>
   </si>
   <si>
-    <t>1200
+    <t xml:space="preserve">1200
 Fabricação de produtos do fumo</t>
   </si>
   <si>
-    <t>1300
+    <t xml:space="preserve">1300
 Fabricação de produtos têxteis</t>
   </si>
   <si>
-    <t>1400
+    <t xml:space="preserve">1400
 Confecção de artefatos do vestuário e acessórios</t>
   </si>
   <si>
-    <t>1500
+    <t xml:space="preserve">1500
 Fabricação de calçados e de artefatos de couro</t>
   </si>
   <si>
-    <t>1600
+    <t xml:space="preserve">1600
 Fabricação de produtos da madeira</t>
   </si>
   <si>
-    <t>1700
+    <t xml:space="preserve">1700
 Fabricação de celulose, papel e produtos de papel</t>
   </si>
   <si>
-    <t>1800
+    <t xml:space="preserve">1800
 Impressão e reprodução de gravações</t>
   </si>
   <si>
-    <t>1991
+    <t xml:space="preserve">1991
 Refino de petróleo e coquerias</t>
   </si>
   <si>
-    <t>1992
+    <t xml:space="preserve">1992
 Fabricação de biocombustíveis</t>
   </si>
   <si>
-    <t>2091
+    <t xml:space="preserve">2091
 Fabricação de químicos orgânicos e inorgânicos, resinas e elastômeros</t>
   </si>
   <si>
-    <t>2092
+    <t xml:space="preserve">2092
 Fabricação de defensivos, desinfestantes, tintas e químicos diversos</t>
   </si>
   <si>
-    <t>2093
+    <t xml:space="preserve">2093
 Fabricação de produtos de limpeza, cosméticos/perfumaria e higiene pessoal</t>
   </si>
   <si>
-    <t>2100
+    <t xml:space="preserve">2100
 Fabricação de produtos farmoquímicos e farmacêuticos</t>
   </si>
   <si>
-    <t>2200
+    <t xml:space="preserve">2200
 Fabricação de produtos de borracha e de material plástico</t>
   </si>
   <si>
-    <t>2300
+    <t xml:space="preserve">2300
 Fabricação de produtos de minerais não-metálicos</t>
   </si>
   <si>
-    <t>2491
+    <t xml:space="preserve">2491
 Produção de ferro-gusa/ferroligas, siderurgia e tubos de aço sem costura</t>
   </si>
   <si>
-    <t>2492
+    <t xml:space="preserve">2492
 Metalurgia de metais não-ferrosos e a fundição de metais</t>
   </si>
   <si>
-    <t>2500
+    <t xml:space="preserve">2500
 Fabricação de produtos de metal, exceto máquinas e equipamentos</t>
   </si>
   <si>
-    <t>2600
+    <t xml:space="preserve">2600
 Fabricação de equipamentos de informática, produtos eletrônicos e ópticos</t>
   </si>
   <si>
-    <t>2700
+    <t xml:space="preserve">2700
 Fabricação de máquinas e equipamentos elétricos</t>
   </si>
   <si>
-    <t>2800
+    <t xml:space="preserve">2800
 Fabricação de máquinas e equipamentos mecânicos</t>
   </si>
   <si>
-    <t>2991
+    <t xml:space="preserve">2991
 Fabricação de automóveis, caminhões e ônibus, exceto peças</t>
   </si>
   <si>
-    <t>2992
+    <t xml:space="preserve">2992
 Fabricação de peças e acessórios para veículos automotores</t>
   </si>
   <si>
-    <t>3000
+    <t xml:space="preserve">3000
 Fabricação de outros equipamentos de transporte, exceto veículos automotores</t>
   </si>
   <si>
-    <t>3180
+    <t xml:space="preserve">3180
 Fabricação de móveis e de produtos de indústrias diversas</t>
   </si>
   <si>
-    <t>3300
+    <t xml:space="preserve">3300
 Manutenção, reparação e instalação de máquinas e equipamentos</t>
   </si>
   <si>
-    <t>3500
+    <t xml:space="preserve">3500
 Energia elétrica, gás natural e outras utilidades</t>
   </si>
   <si>
-    <t>3680
+    <t xml:space="preserve">3680
 Água, esgoto e gestão de resíduos</t>
   </si>
   <si>
-    <t>4180
+    <t xml:space="preserve">4180
 Construção</t>
   </si>
   <si>
-    <t>4500
+    <t xml:space="preserve">4500
 Comércio e reparação de veículos automotores e motocicletas</t>
   </si>
   <si>
-    <t>4680
+    <t xml:space="preserve">4680
 Comércio por atacado e a varejo, exceto veículos automotores</t>
   </si>
   <si>
-    <t>4900
+    <t xml:space="preserve">4900
 Transporte terrestre</t>
   </si>
   <si>
-    <t>5000
+    <t xml:space="preserve">5000
 Transporte aquaviário</t>
   </si>
   <si>
-    <t>5100
+    <t xml:space="preserve">5100
 Transporte aéreo</t>
   </si>
   <si>
-    <t>5280
+    <t xml:space="preserve">5280
 Armazenamento, atividades auxiliares dos transportes e correio</t>
   </si>
   <si>
-    <t>5500
+    <t xml:space="preserve">5500
 Alojamento</t>
   </si>
   <si>
-    <t>5600
+    <t xml:space="preserve">5600
 Alimentação</t>
   </si>
   <si>
-    <t>5800
+    <t xml:space="preserve">5800
 Edição e edição integrada à impressão</t>
   </si>
   <si>
-    <t>5980
+    <t xml:space="preserve">5980
 Atividades de televisão, rádio, cinema e  gravação/edição de som e imagem</t>
   </si>
   <si>
-    <t>6100
+    <t xml:space="preserve">6100
 Telecomunicações</t>
   </si>
   <si>
-    <t>6280
+    <t xml:space="preserve">6280
 Desenvolvimento de sistemas e outros serviços de informação</t>
   </si>
   <si>
-    <t>6480
+    <t xml:space="preserve">6480
 Intermediação financeira, seguros e previdência complementar</t>
   </si>
   <si>
-    <t>6800
+    <t xml:space="preserve">6800
 Atividades imobiliárias</t>
   </si>
   <si>
-    <t>6980
+    <t xml:space="preserve">6980
 Atividades jurídicas, contábeis, consultoria e sedes de empresas</t>
   </si>
   <si>
-    <t>7180
+    <t xml:space="preserve">7180
 Serviços de arquitetura, engenharia, testes/análises técnicas e P &amp; D</t>
   </si>
   <si>
-    <t>7380
+    <t xml:space="preserve">7380
 Outras atividades profissionais, científicas e técnicas</t>
   </si>
   <si>
-    <t>7700
+    <t xml:space="preserve">7700
 Aluguéis não-imobiliários e gestão de ativos de propriedade intelectual</t>
   </si>
   <si>
-    <t>7880
+    <t xml:space="preserve">7880
 Outras atividades administrativas e serviços complementares</t>
   </si>
   <si>
-    <t>8000
+    <t xml:space="preserve">8000
 Atividades de vigilância, segurança e investigação</t>
   </si>
   <si>
-    <t>8400
+    <t xml:space="preserve">8400
 Administração pública, defesa e seguridade social</t>
   </si>
   <si>
-    <t>8591
+    <t xml:space="preserve">8591
 Educação pública</t>
   </si>
   <si>
-    <t>8592
+    <t xml:space="preserve">8592
 Educação privada</t>
   </si>
   <si>
-    <t>8691
+    <t xml:space="preserve">8691
 Saúde pública</t>
   </si>
   <si>
-    <t>8692
+    <t xml:space="preserve">8692
 Saúde privada</t>
   </si>
   <si>
-    <t>9080
+    <t xml:space="preserve">9080
 Atividades artísticas, criativas e de espetáculos</t>
   </si>
   <si>
-    <t>9480
+    <t xml:space="preserve">9480
 Organizações associativas e outros serviços pessoais</t>
   </si>
   <si>
-    <t>9700
+    <t xml:space="preserve">9700
 Serviços domésticos</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>9</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>13</t>
-  </si>
-  <si>
-    <t>14</t>
+    <t xml:space="preserve">Valor adicionado bruto ( PIB )</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Remunerações</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Salários</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Contribuições sociais efetivas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Previdência oficial /FGTS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Previdência privada</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Contribuições sociais imputadas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Excedente operacional bruto e rendimento misto bruto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rendimento misto bruto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Excedente operacional bruto (EOB)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Outros impostos sobre a produção</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Outros subsídios à produção</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Valor da produção</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fator trabalho (ocupações)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="0"/>
   <fonts count="1">
     <font>
-      <sz val="11.0"/>
-      <color indexed="8"/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -347,7 +350,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="darkGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
@@ -365,3151 +368,3435 @@
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  </cellStyles>
+  <dxfs count="0"/>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="1F497D"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="EEECE1"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4F81BD"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="C0504D"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="9BBB59"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8064A2"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4BACC6"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="F79646"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000FF"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="800080"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Cambria"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="true"/>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
     <row r="1">
-      <c r="A1"/>
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
       <c r="B1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="K1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="L1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="M1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="N1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="O1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="P1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="Q1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="R1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="S1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="T1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="U1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="V1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="W1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="X1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="Y1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="Z1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AA1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AB1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AC1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AD1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AE1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AF1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="AG1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="AH1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="AI1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="AJ1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="AK1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="AL1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="AM1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="AN1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AO1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="AP1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="AQ1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="AR1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AS1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AT1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AU1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AV1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AW1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AX1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AY1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AZ1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="BA1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="BB1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="BC1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="BD1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="BE1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="BF1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="BG1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="BH1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="BI1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="BJ1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="BK1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="BL1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="BM1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="BN1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="BO1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="BP1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="BQ1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B2" t="n">
-        <v>200103.0</v>
+        <v>200103</v>
       </c>
       <c r="C2" t="n">
-        <v>75386.0</v>
+        <v>75386</v>
       </c>
       <c r="D2" t="n">
-        <v>27482.0</v>
+        <v>27482</v>
       </c>
       <c r="E2" t="n">
-        <v>7793.0</v>
+        <v>7793</v>
       </c>
       <c r="F2" t="n">
-        <v>41203.0</v>
+        <v>41203</v>
       </c>
       <c r="G2" t="n">
-        <v>36606.0</v>
+        <v>36606</v>
       </c>
       <c r="H2" t="n">
-        <v>4975.0</v>
+        <v>4975</v>
       </c>
       <c r="I2" t="n">
-        <v>45519.0</v>
+        <v>45519</v>
       </c>
       <c r="J2" t="n">
-        <v>12726.0</v>
+        <v>12726</v>
       </c>
       <c r="K2" t="n">
-        <v>64350.0</v>
+        <v>64350</v>
       </c>
       <c r="L2" t="n">
-        <v>20133.0</v>
+        <v>20133</v>
       </c>
       <c r="M2" t="n">
-        <v>3159.0</v>
+        <v>3159</v>
       </c>
       <c r="N2" t="n">
-        <v>15548.0</v>
+        <v>15548</v>
       </c>
       <c r="O2" t="n">
-        <v>27318.0</v>
+        <v>27318</v>
       </c>
       <c r="P2" t="n">
-        <v>15296.0</v>
+        <v>15296</v>
       </c>
       <c r="Q2" t="n">
-        <v>10978.0</v>
+        <v>10978</v>
       </c>
       <c r="R2" t="n">
-        <v>27370.0</v>
+        <v>27370</v>
       </c>
       <c r="S2" t="n">
-        <v>8095.0</v>
+        <v>8095</v>
       </c>
       <c r="T2" t="n">
-        <v>56277.0</v>
+        <v>56277</v>
       </c>
       <c r="U2" t="n">
-        <v>9990.0</v>
+        <v>9990</v>
       </c>
       <c r="V2" t="n">
-        <v>26864.0</v>
+        <v>26864</v>
       </c>
       <c r="W2" t="n">
-        <v>18757.0</v>
+        <v>18757</v>
       </c>
       <c r="X2" t="n">
-        <v>11398.0</v>
+        <v>11398</v>
       </c>
       <c r="Y2" t="n">
-        <v>30399.0</v>
+        <v>30399</v>
       </c>
       <c r="Z2" t="n">
-        <v>29234.0</v>
+        <v>29234</v>
       </c>
       <c r="AA2" t="n">
-        <v>22664.0</v>
+        <v>22664</v>
       </c>
       <c r="AB2" t="n">
-        <v>19294.0</v>
+        <v>19294</v>
       </c>
       <c r="AC2" t="n">
-        <v>12414.0</v>
+        <v>12414</v>
       </c>
       <c r="AD2" t="n">
-        <v>32059.0</v>
+        <v>32059</v>
       </c>
       <c r="AE2" t="n">
-        <v>16999.0</v>
+        <v>16999</v>
       </c>
       <c r="AF2" t="n">
-        <v>16434.0</v>
+        <v>16434</v>
       </c>
       <c r="AG2" t="n">
-        <v>37561.0</v>
+        <v>37561</v>
       </c>
       <c r="AH2" t="n">
-        <v>20032.0</v>
+        <v>20032</v>
       </c>
       <c r="AI2" t="n">
-        <v>23900.0</v>
+        <v>23900</v>
       </c>
       <c r="AJ2" t="n">
-        <v>12849.0</v>
+        <v>12849</v>
       </c>
       <c r="AK2" t="n">
-        <v>31360.0</v>
+        <v>31360</v>
       </c>
       <c r="AL2" t="n">
-        <v>26556.0</v>
+        <v>26556</v>
       </c>
       <c r="AM2" t="n">
-        <v>110371.0</v>
+        <v>110371</v>
       </c>
       <c r="AN2" t="n">
-        <v>45739.0</v>
+        <v>45739</v>
       </c>
       <c r="AO2" t="n">
-        <v>244711.0</v>
+        <v>244711</v>
       </c>
       <c r="AP2" t="n">
-        <v>94794.0</v>
+        <v>94794</v>
       </c>
       <c r="AQ2" t="n">
-        <v>651003.0</v>
+        <v>651003</v>
       </c>
       <c r="AR2" t="n">
-        <v>154160.0</v>
+        <v>154160</v>
       </c>
       <c r="AS2" t="n">
-        <v>9431.0</v>
+        <v>9431</v>
       </c>
       <c r="AT2" t="n">
-        <v>10042.0</v>
+        <v>10042</v>
       </c>
       <c r="AU2" t="n">
-        <v>71898.0</v>
+        <v>71898</v>
       </c>
       <c r="AV2" t="n">
-        <v>13326.0</v>
+        <v>13326</v>
       </c>
       <c r="AW2" t="n">
-        <v>124201.0</v>
+        <v>124201</v>
       </c>
       <c r="AX2" t="n">
-        <v>8301.0</v>
+        <v>8301</v>
       </c>
       <c r="AY2" t="n">
-        <v>17635.0</v>
+        <v>17635</v>
       </c>
       <c r="AZ2" t="n">
-        <v>69191.0</v>
+        <v>69191</v>
       </c>
       <c r="BA2" t="n">
-        <v>99247.0</v>
+        <v>99247</v>
       </c>
       <c r="BB2" t="n">
-        <v>429463.0</v>
+        <v>429463</v>
       </c>
       <c r="BC2" t="n">
-        <v>558042.0</v>
+        <v>558042</v>
       </c>
       <c r="BD2" t="n">
-        <v>146107.0</v>
+        <v>146107</v>
       </c>
       <c r="BE2" t="n">
-        <v>34316.0</v>
+        <v>34316</v>
       </c>
       <c r="BF2" t="n">
-        <v>34966.0</v>
+        <v>34966</v>
       </c>
       <c r="BG2" t="n">
-        <v>27797.0</v>
+        <v>27797</v>
       </c>
       <c r="BH2" t="n">
-        <v>165500.0</v>
+        <v>165500</v>
       </c>
       <c r="BI2" t="n">
-        <v>34328.0</v>
+        <v>34328</v>
       </c>
       <c r="BJ2" t="n">
-        <v>587600.0</v>
+        <v>587600</v>
       </c>
       <c r="BK2" t="n">
-        <v>283544.0</v>
+        <v>283544</v>
       </c>
       <c r="BL2" t="n">
-        <v>93778.0</v>
+        <v>93778</v>
       </c>
       <c r="BM2" t="n">
-        <v>129831.0</v>
+        <v>129831</v>
       </c>
       <c r="BN2" t="n">
-        <v>150658.0</v>
+        <v>150658</v>
       </c>
       <c r="BO2" t="n">
-        <v>21426.0</v>
+        <v>21426</v>
       </c>
       <c r="BP2" t="n">
-        <v>77821.0</v>
+        <v>77821</v>
       </c>
       <c r="BQ2" t="n">
-        <v>71458.0</v>
+        <v>71458</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B3" t="n">
-        <v>32555.0</v>
+        <v>32555</v>
       </c>
       <c r="C3" t="n">
-        <v>23728.0</v>
+        <v>23728</v>
       </c>
       <c r="D3" t="n">
-        <v>2350.0</v>
+        <v>2350</v>
       </c>
       <c r="E3" t="n">
-        <v>4202.0</v>
+        <v>4202</v>
       </c>
       <c r="F3" t="n">
-        <v>17664.0</v>
+        <v>17664</v>
       </c>
       <c r="G3" t="n">
-        <v>3009.0</v>
+        <v>3009</v>
       </c>
       <c r="H3" t="n">
-        <v>2452.0</v>
+        <v>2452</v>
       </c>
       <c r="I3" t="n">
-        <v>28453.0</v>
+        <v>28453</v>
       </c>
       <c r="J3" t="n">
-        <v>9514.0</v>
+        <v>9514</v>
       </c>
       <c r="K3" t="n">
-        <v>34376.0</v>
+        <v>34376</v>
       </c>
       <c r="L3" t="n">
-        <v>9248.0</v>
+        <v>9248</v>
       </c>
       <c r="M3" t="n">
-        <v>1644.0</v>
+        <v>1644</v>
       </c>
       <c r="N3" t="n">
-        <v>10992.0</v>
+        <v>10992</v>
       </c>
       <c r="O3" t="n">
-        <v>18425.0</v>
+        <v>18425</v>
       </c>
       <c r="P3" t="n">
-        <v>10866.0</v>
+        <v>10866</v>
       </c>
       <c r="Q3" t="n">
-        <v>6595.0</v>
+        <v>6595</v>
       </c>
       <c r="R3" t="n">
-        <v>13738.0</v>
+        <v>13738</v>
       </c>
       <c r="S3" t="n">
-        <v>5773.0</v>
+        <v>5773</v>
       </c>
       <c r="T3" t="n">
-        <v>7664.0</v>
+        <v>7664</v>
       </c>
       <c r="U3" t="n">
-        <v>6646.0</v>
+        <v>6646</v>
       </c>
       <c r="V3" t="n">
-        <v>12474.0</v>
+        <v>12474</v>
       </c>
       <c r="W3" t="n">
-        <v>9238.0</v>
+        <v>9238</v>
       </c>
       <c r="X3" t="n">
-        <v>6015.0</v>
+        <v>6015</v>
       </c>
       <c r="Y3" t="n">
-        <v>11415.0</v>
+        <v>11415</v>
       </c>
       <c r="Z3" t="n">
-        <v>21093.0</v>
+        <v>21093</v>
       </c>
       <c r="AA3" t="n">
-        <v>19715.0</v>
+        <v>19715</v>
       </c>
       <c r="AB3" t="n">
-        <v>12557.0</v>
+        <v>12557</v>
       </c>
       <c r="AC3" t="n">
-        <v>5942.0</v>
+        <v>5942</v>
       </c>
       <c r="AD3" t="n">
-        <v>22154.0</v>
+        <v>22154</v>
       </c>
       <c r="AE3" t="n">
-        <v>9380.0</v>
+        <v>9380</v>
       </c>
       <c r="AF3" t="n">
-        <v>14537.0</v>
+        <v>14537</v>
       </c>
       <c r="AG3" t="n">
-        <v>26674.0</v>
+        <v>26674</v>
       </c>
       <c r="AH3" t="n">
-        <v>19711.0</v>
+        <v>19711</v>
       </c>
       <c r="AI3" t="n">
-        <v>20253.0</v>
+        <v>20253</v>
       </c>
       <c r="AJ3" t="n">
-        <v>8479.0</v>
+        <v>8479</v>
       </c>
       <c r="AK3" t="n">
-        <v>16027.0</v>
+        <v>16027</v>
       </c>
       <c r="AL3" t="n">
-        <v>12476.0</v>
+        <v>12476</v>
       </c>
       <c r="AM3" t="n">
-        <v>18809.0</v>
+        <v>18809</v>
       </c>
       <c r="AN3" t="n">
-        <v>21810.0</v>
+        <v>21810</v>
       </c>
       <c r="AO3" t="n">
-        <v>103928.0</v>
+        <v>103928</v>
       </c>
       <c r="AP3" t="n">
-        <v>46262.0</v>
+        <v>46262</v>
       </c>
       <c r="AQ3" t="n">
-        <v>335937.0</v>
+        <v>335937</v>
       </c>
       <c r="AR3" t="n">
-        <v>86939.0</v>
+        <v>86939</v>
       </c>
       <c r="AS3" t="n">
-        <v>5366.0</v>
+        <v>5366</v>
       </c>
       <c r="AT3" t="n">
-        <v>6369.0</v>
+        <v>6369</v>
       </c>
       <c r="AU3" t="n">
-        <v>44069.0</v>
+        <v>44069</v>
       </c>
       <c r="AV3" t="n">
-        <v>10872.0</v>
+        <v>10872</v>
       </c>
       <c r="AW3" t="n">
-        <v>54530.0</v>
+        <v>54530</v>
       </c>
       <c r="AX3" t="n">
-        <v>6552.0</v>
+        <v>6552</v>
       </c>
       <c r="AY3" t="n">
-        <v>11023.0</v>
+        <v>11023</v>
       </c>
       <c r="AZ3" t="n">
-        <v>18506.0</v>
+        <v>18506</v>
       </c>
       <c r="BA3" t="n">
-        <v>53450.0</v>
+        <v>53450</v>
       </c>
       <c r="BB3" t="n">
-        <v>162747.0</v>
+        <v>162747</v>
       </c>
       <c r="BC3" t="n">
-        <v>8174.0</v>
+        <v>8174</v>
       </c>
       <c r="BD3" t="n">
-        <v>58861.0</v>
+        <v>58861</v>
       </c>
       <c r="BE3" t="n">
-        <v>19743.0</v>
+        <v>19743</v>
       </c>
       <c r="BF3" t="n">
-        <v>13894.0</v>
+        <v>13894</v>
       </c>
       <c r="BG3" t="n">
-        <v>11011.0</v>
+        <v>11011</v>
       </c>
       <c r="BH3" t="n">
-        <v>110233.0</v>
+        <v>110233</v>
       </c>
       <c r="BI3" t="n">
-        <v>30416.0</v>
+        <v>30416</v>
       </c>
       <c r="BJ3" t="n">
-        <v>503269.0</v>
+        <v>503269</v>
       </c>
       <c r="BK3" t="n">
-        <v>270847.0</v>
+        <v>270847</v>
       </c>
       <c r="BL3" t="n">
-        <v>80461.0</v>
+        <v>80461</v>
       </c>
       <c r="BM3" t="n">
-        <v>123561.0</v>
+        <v>123561</v>
       </c>
       <c r="BN3" t="n">
-        <v>79425.0</v>
+        <v>79425</v>
       </c>
       <c r="BO3" t="n">
-        <v>12768.0</v>
+        <v>12768</v>
       </c>
       <c r="BP3" t="n">
-        <v>41148.0</v>
+        <v>41148</v>
       </c>
       <c r="BQ3" t="n">
-        <v>71458.0</v>
+        <v>71458</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B4" t="n">
-        <v>27345.0</v>
+        <v>27345</v>
       </c>
       <c r="C4" t="n">
-        <v>20805.0</v>
+        <v>20805</v>
       </c>
       <c r="D4" t="n">
-        <v>2056.0</v>
+        <v>2056</v>
       </c>
       <c r="E4" t="n">
-        <v>3351.0</v>
+        <v>3351</v>
       </c>
       <c r="F4" t="n">
-        <v>12851.0</v>
+        <v>12851</v>
       </c>
       <c r="G4" t="n">
-        <v>2393.0</v>
+        <v>2393</v>
       </c>
       <c r="H4" t="n">
-        <v>1886.0</v>
+        <v>1886</v>
       </c>
       <c r="I4" t="n">
-        <v>22131.0</v>
+        <v>22131</v>
       </c>
       <c r="J4" t="n">
-        <v>6725.0</v>
+        <v>6725</v>
       </c>
       <c r="K4" t="n">
-        <v>27078.0</v>
+        <v>27078</v>
       </c>
       <c r="L4" t="n">
-        <v>7168.0</v>
+        <v>7168</v>
       </c>
       <c r="M4" t="n">
-        <v>1257.0</v>
+        <v>1257</v>
       </c>
       <c r="N4" t="n">
-        <v>8993.0</v>
+        <v>8993</v>
       </c>
       <c r="O4" t="n">
-        <v>14576.0</v>
+        <v>14576</v>
       </c>
       <c r="P4" t="n">
-        <v>8958.0</v>
+        <v>8958</v>
       </c>
       <c r="Q4" t="n">
-        <v>5304.0</v>
+        <v>5304</v>
       </c>
       <c r="R4" t="n">
-        <v>10824.0</v>
+        <v>10824</v>
       </c>
       <c r="S4" t="n">
-        <v>4678.0</v>
+        <v>4678</v>
       </c>
       <c r="T4" t="n">
-        <v>5367.0</v>
+        <v>5367</v>
       </c>
       <c r="U4" t="n">
-        <v>5354.0</v>
+        <v>5354</v>
       </c>
       <c r="V4" t="n">
-        <v>9475.0</v>
+        <v>9475</v>
       </c>
       <c r="W4" t="n">
-        <v>7112.0</v>
+        <v>7112</v>
       </c>
       <c r="X4" t="n">
-        <v>4738.0</v>
+        <v>4738</v>
       </c>
       <c r="Y4" t="n">
-        <v>8719.0</v>
+        <v>8719</v>
       </c>
       <c r="Z4" t="n">
-        <v>16427.0</v>
+        <v>16427</v>
       </c>
       <c r="AA4" t="n">
-        <v>15952.0</v>
+        <v>15952</v>
       </c>
       <c r="AB4" t="n">
-        <v>9757.0</v>
+        <v>9757</v>
       </c>
       <c r="AC4" t="n">
-        <v>4768.0</v>
+        <v>4768</v>
       </c>
       <c r="AD4" t="n">
-        <v>17478.0</v>
+        <v>17478</v>
       </c>
       <c r="AE4" t="n">
-        <v>7415.0</v>
+        <v>7415</v>
       </c>
       <c r="AF4" t="n">
-        <v>11394.0</v>
+        <v>11394</v>
       </c>
       <c r="AG4" t="n">
-        <v>21155.0</v>
+        <v>21155</v>
       </c>
       <c r="AH4" t="n">
-        <v>15215.0</v>
+        <v>15215</v>
       </c>
       <c r="AI4" t="n">
-        <v>16962.0</v>
+        <v>16962</v>
       </c>
       <c r="AJ4" t="n">
-        <v>6844.0</v>
+        <v>6844</v>
       </c>
       <c r="AK4" t="n">
-        <v>13117.0</v>
+        <v>13117</v>
       </c>
       <c r="AL4" t="n">
-        <v>10131.0</v>
+        <v>10131</v>
       </c>
       <c r="AM4" t="n">
-        <v>13471.0</v>
+        <v>13471</v>
       </c>
       <c r="AN4" t="n">
-        <v>16348.0</v>
+        <v>16348</v>
       </c>
       <c r="AO4" t="n">
-        <v>85100.0</v>
+        <v>85100</v>
       </c>
       <c r="AP4" t="n">
-        <v>37643.0</v>
+        <v>37643</v>
       </c>
       <c r="AQ4" t="n">
-        <v>266664.0</v>
+        <v>266664</v>
       </c>
       <c r="AR4" t="n">
-        <v>70673.0</v>
+        <v>70673</v>
       </c>
       <c r="AS4" t="n">
-        <v>4392.0</v>
+        <v>4392</v>
       </c>
       <c r="AT4" t="n">
-        <v>5281.0</v>
+        <v>5281</v>
       </c>
       <c r="AU4" t="n">
-        <v>34063.0</v>
+        <v>34063</v>
       </c>
       <c r="AV4" t="n">
-        <v>9119.0</v>
+        <v>9119</v>
       </c>
       <c r="AW4" t="n">
-        <v>45842.0</v>
+        <v>45842</v>
       </c>
       <c r="AX4" t="n">
-        <v>5315.0</v>
+        <v>5315</v>
       </c>
       <c r="AY4" t="n">
-        <v>9260.0</v>
+        <v>9260</v>
       </c>
       <c r="AZ4" t="n">
-        <v>13793.0</v>
+        <v>13793</v>
       </c>
       <c r="BA4" t="n">
-        <v>42364.0</v>
+        <v>42364</v>
       </c>
       <c r="BB4" t="n">
-        <v>125207.0</v>
+        <v>125207</v>
       </c>
       <c r="BC4" t="n">
-        <v>6441.0</v>
+        <v>6441</v>
       </c>
       <c r="BD4" t="n">
-        <v>47987.0</v>
+        <v>47987</v>
       </c>
       <c r="BE4" t="n">
-        <v>15877.0</v>
+        <v>15877</v>
       </c>
       <c r="BF4" t="n">
-        <v>11047.0</v>
+        <v>11047</v>
       </c>
       <c r="BG4" t="n">
-        <v>8732.0</v>
+        <v>8732</v>
       </c>
       <c r="BH4" t="n">
-        <v>88474.0</v>
+        <v>88474</v>
       </c>
       <c r="BI4" t="n">
-        <v>23819.0</v>
+        <v>23819</v>
       </c>
       <c r="BJ4" t="n">
-        <v>359725.0</v>
+        <v>359725</v>
       </c>
       <c r="BK4" t="n">
-        <v>223078.0</v>
+        <v>223078</v>
       </c>
       <c r="BL4" t="n">
-        <v>66635.0</v>
+        <v>66635</v>
       </c>
       <c r="BM4" t="n">
-        <v>99114.0</v>
+        <v>99114</v>
       </c>
       <c r="BN4" t="n">
-        <v>67938.0</v>
+        <v>67938</v>
       </c>
       <c r="BO4" t="n">
-        <v>10922.0</v>
+        <v>10922</v>
       </c>
       <c r="BP4" t="n">
-        <v>34723.0</v>
+        <v>34723</v>
       </c>
       <c r="BQ4" t="n">
-        <v>67484.0</v>
+        <v>67484</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B5" t="n">
-        <v>5210.0</v>
+        <v>5210</v>
       </c>
       <c r="C5" t="n">
-        <v>2923.0</v>
+        <v>2923</v>
       </c>
       <c r="D5" t="n">
-        <v>294.0</v>
+        <v>294</v>
       </c>
       <c r="E5" t="n">
-        <v>851.0</v>
+        <v>851</v>
       </c>
       <c r="F5" t="n">
-        <v>4813.0</v>
+        <v>4813</v>
       </c>
       <c r="G5" t="n">
-        <v>616.0</v>
+        <v>616</v>
       </c>
       <c r="H5" t="n">
-        <v>566.0</v>
+        <v>566</v>
       </c>
       <c r="I5" t="n">
-        <v>6322.0</v>
+        <v>6322</v>
       </c>
       <c r="J5" t="n">
-        <v>2789.0</v>
+        <v>2789</v>
       </c>
       <c r="K5" t="n">
-        <v>7298.0</v>
+        <v>7298</v>
       </c>
       <c r="L5" t="n">
-        <v>2080.0</v>
+        <v>2080</v>
       </c>
       <c r="M5" t="n">
-        <v>387.0</v>
+        <v>387</v>
       </c>
       <c r="N5" t="n">
-        <v>1999.0</v>
+        <v>1999</v>
       </c>
       <c r="O5" t="n">
-        <v>3849.0</v>
+        <v>3849</v>
       </c>
       <c r="P5" t="n">
-        <v>1908.0</v>
+        <v>1908</v>
       </c>
       <c r="Q5" t="n">
-        <v>1291.0</v>
+        <v>1291</v>
       </c>
       <c r="R5" t="n">
-        <v>2914.0</v>
+        <v>2914</v>
       </c>
       <c r="S5" t="n">
-        <v>1095.0</v>
+        <v>1095</v>
       </c>
       <c r="T5" t="n">
-        <v>2297.0</v>
+        <v>2297</v>
       </c>
       <c r="U5" t="n">
-        <v>1292.0</v>
+        <v>1292</v>
       </c>
       <c r="V5" t="n">
-        <v>2999.0</v>
+        <v>2999</v>
       </c>
       <c r="W5" t="n">
-        <v>2126.0</v>
+        <v>2126</v>
       </c>
       <c r="X5" t="n">
-        <v>1277.0</v>
+        <v>1277</v>
       </c>
       <c r="Y5" t="n">
-        <v>2696.0</v>
+        <v>2696</v>
       </c>
       <c r="Z5" t="n">
-        <v>4666.0</v>
+        <v>4666</v>
       </c>
       <c r="AA5" t="n">
-        <v>3763.0</v>
+        <v>3763</v>
       </c>
       <c r="AB5" t="n">
-        <v>2800.0</v>
+        <v>2800</v>
       </c>
       <c r="AC5" t="n">
-        <v>1174.0</v>
+        <v>1174</v>
       </c>
       <c r="AD5" t="n">
-        <v>4676.0</v>
+        <v>4676</v>
       </c>
       <c r="AE5" t="n">
-        <v>1965.0</v>
+        <v>1965</v>
       </c>
       <c r="AF5" t="n">
-        <v>3143.0</v>
+        <v>3143</v>
       </c>
       <c r="AG5" t="n">
-        <v>5519.0</v>
+        <v>5519</v>
       </c>
       <c r="AH5" t="n">
-        <v>4496.0</v>
+        <v>4496</v>
       </c>
       <c r="AI5" t="n">
-        <v>3291.0</v>
+        <v>3291</v>
       </c>
       <c r="AJ5" t="n">
-        <v>1635.0</v>
+        <v>1635</v>
       </c>
       <c r="AK5" t="n">
-        <v>2910.0</v>
+        <v>2910</v>
       </c>
       <c r="AL5" t="n">
-        <v>2345.0</v>
+        <v>2345</v>
       </c>
       <c r="AM5" t="n">
-        <v>5338.0</v>
+        <v>5338</v>
       </c>
       <c r="AN5" t="n">
-        <v>5462.0</v>
+        <v>5462</v>
       </c>
       <c r="AO5" t="n">
-        <v>18828.0</v>
+        <v>18828</v>
       </c>
       <c r="AP5" t="n">
-        <v>8619.0</v>
+        <v>8619</v>
       </c>
       <c r="AQ5" t="n">
-        <v>69273.0</v>
+        <v>69273</v>
       </c>
       <c r="AR5" t="n">
-        <v>16266.0</v>
+        <v>16266</v>
       </c>
       <c r="AS5" t="n">
-        <v>974.0</v>
+        <v>974</v>
       </c>
       <c r="AT5" t="n">
-        <v>1088.0</v>
+        <v>1088</v>
       </c>
       <c r="AU5" t="n">
-        <v>10006.0</v>
+        <v>10006</v>
       </c>
       <c r="AV5" t="n">
-        <v>1753.0</v>
+        <v>1753</v>
       </c>
       <c r="AW5" t="n">
-        <v>8688.0</v>
+        <v>8688</v>
       </c>
       <c r="AX5" t="n">
-        <v>1237.0</v>
+        <v>1237</v>
       </c>
       <c r="AY5" t="n">
-        <v>1763.0</v>
+        <v>1763</v>
       </c>
       <c r="AZ5" t="n">
-        <v>4713.0</v>
+        <v>4713</v>
       </c>
       <c r="BA5" t="n">
-        <v>11086.0</v>
+        <v>11086</v>
       </c>
       <c r="BB5" t="n">
-        <v>37540.0</v>
+        <v>37540</v>
       </c>
       <c r="BC5" t="n">
-        <v>1733.0</v>
+        <v>1733</v>
       </c>
       <c r="BD5" t="n">
-        <v>10874.0</v>
+        <v>10874</v>
       </c>
       <c r="BE5" t="n">
-        <v>3866.0</v>
+        <v>3866</v>
       </c>
       <c r="BF5" t="n">
-        <v>2847.0</v>
+        <v>2847</v>
       </c>
       <c r="BG5" t="n">
-        <v>2279.0</v>
+        <v>2279</v>
       </c>
       <c r="BH5" t="n">
-        <v>21759.0</v>
+        <v>21759</v>
       </c>
       <c r="BI5" t="n">
-        <v>6597.0</v>
+        <v>6597</v>
       </c>
       <c r="BJ5" t="n">
-        <v>64999.0</v>
+        <v>64999</v>
       </c>
       <c r="BK5" t="n">
-        <v>43815.0</v>
+        <v>43815</v>
       </c>
       <c r="BL5" t="n">
-        <v>13826.0</v>
+        <v>13826</v>
       </c>
       <c r="BM5" t="n">
-        <v>17614.0</v>
+        <v>17614</v>
       </c>
       <c r="BN5" t="n">
-        <v>11487.0</v>
+        <v>11487</v>
       </c>
       <c r="BO5" t="n">
-        <v>1846.0</v>
+        <v>1846</v>
       </c>
       <c r="BP5" t="n">
-        <v>6425.0</v>
+        <v>6425</v>
       </c>
       <c r="BQ5" t="n">
-        <v>3974.0</v>
+        <v>3974</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B6" t="n">
-        <v>5209.0</v>
+        <v>5209</v>
       </c>
       <c r="C6" t="n">
-        <v>2922.0</v>
+        <v>2922</v>
       </c>
       <c r="D6" t="n">
-        <v>293.0</v>
+        <v>293</v>
       </c>
       <c r="E6" t="n">
-        <v>841.0</v>
+        <v>841</v>
       </c>
       <c r="F6" t="n">
-        <v>3774.0</v>
+        <v>3774</v>
       </c>
       <c r="G6" t="n">
-        <v>595.0</v>
+        <v>595</v>
       </c>
       <c r="H6" t="n">
-        <v>541.0</v>
+        <v>541</v>
       </c>
       <c r="I6" t="n">
-        <v>6193.0</v>
+        <v>6193</v>
       </c>
       <c r="J6" t="n">
-        <v>2755.0</v>
+        <v>2755</v>
       </c>
       <c r="K6" t="n">
-        <v>7109.0</v>
+        <v>7109</v>
       </c>
       <c r="L6" t="n">
-        <v>2010.0</v>
+        <v>2010</v>
       </c>
       <c r="M6" t="n">
-        <v>355.0</v>
+        <v>355</v>
       </c>
       <c r="N6" t="n">
-        <v>1969.0</v>
+        <v>1969</v>
       </c>
       <c r="O6" t="n">
-        <v>3802.0</v>
+        <v>3802</v>
       </c>
       <c r="P6" t="n">
-        <v>1881.0</v>
+        <v>1881</v>
       </c>
       <c r="Q6" t="n">
-        <v>1232.0</v>
+        <v>1232</v>
       </c>
       <c r="R6" t="n">
-        <v>2654.0</v>
+        <v>2654</v>
       </c>
       <c r="S6" t="n">
-        <v>1061.0</v>
+        <v>1061</v>
       </c>
       <c r="T6" t="n">
-        <v>1642.0</v>
+        <v>1642</v>
       </c>
       <c r="U6" t="n">
-        <v>1264.0</v>
+        <v>1264</v>
       </c>
       <c r="V6" t="n">
-        <v>2752.0</v>
+        <v>2752</v>
       </c>
       <c r="W6" t="n">
-        <v>1969.0</v>
+        <v>1969</v>
       </c>
       <c r="X6" t="n">
-        <v>1247.0</v>
+        <v>1247</v>
       </c>
       <c r="Y6" t="n">
-        <v>2548.0</v>
+        <v>2548</v>
       </c>
       <c r="Z6" t="n">
-        <v>4553.0</v>
+        <v>4553</v>
       </c>
       <c r="AA6" t="n">
-        <v>3626.0</v>
+        <v>3626</v>
       </c>
       <c r="AB6" t="n">
-        <v>2570.0</v>
+        <v>2570</v>
       </c>
       <c r="AC6" t="n">
-        <v>1120.0</v>
+        <v>1120</v>
       </c>
       <c r="AD6" t="n">
-        <v>4583.0</v>
+        <v>4583</v>
       </c>
       <c r="AE6" t="n">
-        <v>1916.0</v>
+        <v>1916</v>
       </c>
       <c r="AF6" t="n">
-        <v>3043.0</v>
+        <v>3043</v>
       </c>
       <c r="AG6" t="n">
-        <v>5307.0</v>
+        <v>5307</v>
       </c>
       <c r="AH6" t="n">
-        <v>4311.0</v>
+        <v>4311</v>
       </c>
       <c r="AI6" t="n">
-        <v>3189.0</v>
+        <v>3189</v>
       </c>
       <c r="AJ6" t="n">
-        <v>1523.0</v>
+        <v>1523</v>
       </c>
       <c r="AK6" t="n">
-        <v>2848.0</v>
+        <v>2848</v>
       </c>
       <c r="AL6" t="n">
-        <v>2268.0</v>
+        <v>2268</v>
       </c>
       <c r="AM6" t="n">
-        <v>4131.0</v>
+        <v>4131</v>
       </c>
       <c r="AN6" t="n">
-        <v>4949.0</v>
+        <v>4949</v>
       </c>
       <c r="AO6" t="n">
-        <v>18476.0</v>
+        <v>18476</v>
       </c>
       <c r="AP6" t="n">
-        <v>8556.0</v>
+        <v>8556</v>
       </c>
       <c r="AQ6" t="n">
-        <v>68387.0</v>
+        <v>68387</v>
       </c>
       <c r="AR6" t="n">
-        <v>15751.0</v>
+        <v>15751</v>
       </c>
       <c r="AS6" t="n">
-        <v>940.0</v>
+        <v>940</v>
       </c>
       <c r="AT6" t="n">
-        <v>1065.0</v>
+        <v>1065</v>
       </c>
       <c r="AU6" t="n">
-        <v>8918.0</v>
+        <v>8918</v>
       </c>
       <c r="AV6" t="n">
-        <v>1716.0</v>
+        <v>1716</v>
       </c>
       <c r="AW6" t="n">
-        <v>8618.0</v>
+        <v>8618</v>
       </c>
       <c r="AX6" t="n">
-        <v>1207.0</v>
+        <v>1207</v>
       </c>
       <c r="AY6" t="n">
-        <v>1706.0</v>
+        <v>1706</v>
       </c>
       <c r="AZ6" t="n">
-        <v>3886.0</v>
+        <v>3886</v>
       </c>
       <c r="BA6" t="n">
-        <v>10482.0</v>
+        <v>10482</v>
       </c>
       <c r="BB6" t="n">
-        <v>31924.0</v>
+        <v>31924</v>
       </c>
       <c r="BC6" t="n">
-        <v>1685.0</v>
+        <v>1685</v>
       </c>
       <c r="BD6" t="n">
-        <v>9884.0</v>
+        <v>9884</v>
       </c>
       <c r="BE6" t="n">
-        <v>3746.0</v>
+        <v>3746</v>
       </c>
       <c r="BF6" t="n">
-        <v>2813.0</v>
+        <v>2813</v>
       </c>
       <c r="BG6" t="n">
-        <v>2239.0</v>
+        <v>2239</v>
       </c>
       <c r="BH6" t="n">
-        <v>21511.0</v>
+        <v>21511</v>
       </c>
       <c r="BI6" t="n">
-        <v>6536.0</v>
+        <v>6536</v>
       </c>
       <c r="BJ6" t="n">
-        <v>64415.0</v>
+        <v>64415</v>
       </c>
       <c r="BK6" t="n">
-        <v>43648.0</v>
+        <v>43648</v>
       </c>
       <c r="BL6" t="n">
-        <v>13804.0</v>
+        <v>13804</v>
       </c>
       <c r="BM6" t="n">
-        <v>17594.0</v>
+        <v>17594</v>
       </c>
       <c r="BN6" t="n">
-        <v>11425.0</v>
+        <v>11425</v>
       </c>
       <c r="BO6" t="n">
-        <v>1807.0</v>
+        <v>1807</v>
       </c>
       <c r="BP6" t="n">
-        <v>6329.0</v>
+        <v>6329</v>
       </c>
       <c r="BQ6" t="n">
-        <v>3974.0</v>
+        <v>3974</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B7" t="n">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D7" t="n">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="E7" t="n">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="F7" t="n">
-        <v>1039.0</v>
+        <v>1039</v>
       </c>
       <c r="G7" t="n">
-        <v>21.0</v>
+        <v>21</v>
       </c>
       <c r="H7" t="n">
-        <v>25.0</v>
+        <v>25</v>
       </c>
       <c r="I7" t="n">
-        <v>129.0</v>
+        <v>129</v>
       </c>
       <c r="J7" t="n">
-        <v>34.0</v>
+        <v>34</v>
       </c>
       <c r="K7" t="n">
-        <v>189.0</v>
+        <v>189</v>
       </c>
       <c r="L7" t="n">
-        <v>70.0</v>
+        <v>70</v>
       </c>
       <c r="M7" t="n">
-        <v>32.0</v>
+        <v>32</v>
       </c>
       <c r="N7" t="n">
-        <v>30.0</v>
+        <v>30</v>
       </c>
       <c r="O7" t="n">
-        <v>47.0</v>
+        <v>47</v>
       </c>
       <c r="P7" t="n">
-        <v>27.0</v>
+        <v>27</v>
       </c>
       <c r="Q7" t="n">
-        <v>59.0</v>
+        <v>59</v>
       </c>
       <c r="R7" t="n">
-        <v>260.0</v>
+        <v>260</v>
       </c>
       <c r="S7" t="n">
-        <v>34.0</v>
+        <v>34</v>
       </c>
       <c r="T7" t="n">
-        <v>655.0</v>
+        <v>655</v>
       </c>
       <c r="U7" t="n">
-        <v>28.0</v>
+        <v>28</v>
       </c>
       <c r="V7" t="n">
-        <v>247.0</v>
+        <v>247</v>
       </c>
       <c r="W7" t="n">
-        <v>157.0</v>
+        <v>157</v>
       </c>
       <c r="X7" t="n">
-        <v>30.0</v>
+        <v>30</v>
       </c>
       <c r="Y7" t="n">
-        <v>148.0</v>
+        <v>148</v>
       </c>
       <c r="Z7" t="n">
-        <v>113.0</v>
+        <v>113</v>
       </c>
       <c r="AA7" t="n">
-        <v>137.0</v>
+        <v>137</v>
       </c>
       <c r="AB7" t="n">
-        <v>230.0</v>
+        <v>230</v>
       </c>
       <c r="AC7" t="n">
-        <v>54.0</v>
+        <v>54</v>
       </c>
       <c r="AD7" t="n">
-        <v>93.0</v>
+        <v>93</v>
       </c>
       <c r="AE7" t="n">
-        <v>49.0</v>
+        <v>49</v>
       </c>
       <c r="AF7" t="n">
-        <v>100.0</v>
+        <v>100</v>
       </c>
       <c r="AG7" t="n">
-        <v>212.0</v>
+        <v>212</v>
       </c>
       <c r="AH7" t="n">
-        <v>185.0</v>
+        <v>185</v>
       </c>
       <c r="AI7" t="n">
-        <v>102.0</v>
+        <v>102</v>
       </c>
       <c r="AJ7" t="n">
-        <v>112.0</v>
+        <v>112</v>
       </c>
       <c r="AK7" t="n">
-        <v>62.0</v>
+        <v>62</v>
       </c>
       <c r="AL7" t="n">
-        <v>77.0</v>
+        <v>77</v>
       </c>
       <c r="AM7" t="n">
-        <v>1207.0</v>
+        <v>1207</v>
       </c>
       <c r="AN7" t="n">
-        <v>513.0</v>
+        <v>513</v>
       </c>
       <c r="AO7" t="n">
-        <v>352.0</v>
+        <v>352</v>
       </c>
       <c r="AP7" t="n">
-        <v>63.0</v>
+        <v>63</v>
       </c>
       <c r="AQ7" t="n">
-        <v>886.0</v>
+        <v>886</v>
       </c>
       <c r="AR7" t="n">
-        <v>515.0</v>
+        <v>515</v>
       </c>
       <c r="AS7" t="n">
-        <v>34.0</v>
+        <v>34</v>
       </c>
       <c r="AT7" t="n">
-        <v>23.0</v>
+        <v>23</v>
       </c>
       <c r="AU7" t="n">
-        <v>1088.0</v>
+        <v>1088</v>
       </c>
       <c r="AV7" t="n">
-        <v>37.0</v>
+        <v>37</v>
       </c>
       <c r="AW7" t="n">
-        <v>70.0</v>
+        <v>70</v>
       </c>
       <c r="AX7" t="n">
-        <v>30.0</v>
+        <v>30</v>
       </c>
       <c r="AY7" t="n">
-        <v>57.0</v>
+        <v>57</v>
       </c>
       <c r="AZ7" t="n">
-        <v>827.0</v>
+        <v>827</v>
       </c>
       <c r="BA7" t="n">
-        <v>604.0</v>
+        <v>604</v>
       </c>
       <c r="BB7" t="n">
-        <v>5616.0</v>
+        <v>5616</v>
       </c>
       <c r="BC7" t="n">
-        <v>48.0</v>
+        <v>48</v>
       </c>
       <c r="BD7" t="n">
-        <v>990.0</v>
+        <v>990</v>
       </c>
       <c r="BE7" t="n">
-        <v>120.0</v>
+        <v>120</v>
       </c>
       <c r="BF7" t="n">
-        <v>34.0</v>
+        <v>34</v>
       </c>
       <c r="BG7" t="n">
-        <v>40.0</v>
+        <v>40</v>
       </c>
       <c r="BH7" t="n">
-        <v>248.0</v>
+        <v>248</v>
       </c>
       <c r="BI7" t="n">
-        <v>61.0</v>
+        <v>61</v>
       </c>
       <c r="BJ7" t="n">
-        <v>584.0</v>
+        <v>584</v>
       </c>
       <c r="BK7" t="n">
-        <v>167.0</v>
+        <v>167</v>
       </c>
       <c r="BL7" t="n">
-        <v>22.0</v>
+        <v>22</v>
       </c>
       <c r="BM7" t="n">
-        <v>20.0</v>
+        <v>20</v>
       </c>
       <c r="BN7" t="n">
-        <v>62.0</v>
+        <v>62</v>
       </c>
       <c r="BO7" t="n">
-        <v>39.0</v>
+        <v>39</v>
       </c>
       <c r="BP7" t="n">
-        <v>96.0</v>
+        <v>96</v>
       </c>
       <c r="BQ7" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B8" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Z8" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AA8" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AB8" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AC8" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AD8" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AE8" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AF8" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AG8" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AH8" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AI8" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AJ8" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AK8" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AL8" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AM8" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AN8" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AO8" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AP8" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AQ8" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AR8" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AS8" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AT8" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AU8" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AV8" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AW8" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AX8" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AY8" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AZ8" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="BA8" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="BB8" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="BC8" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="BD8" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="BE8" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="BF8" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="BG8" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="BH8" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="BI8" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="BJ8" t="n">
-        <v>78545.0</v>
+        <v>78545</v>
       </c>
       <c r="BK8" t="n">
-        <v>3954.0</v>
+        <v>3954</v>
       </c>
       <c r="BL8" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="BM8" t="n">
-        <v>6833.0</v>
+        <v>6833</v>
       </c>
       <c r="BN8" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="BO8" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="BP8" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="BQ8" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B9" t="n">
-        <v>176120.0</v>
+        <v>176120</v>
       </c>
       <c r="C9" t="n">
-        <v>51182.0</v>
+        <v>51182</v>
       </c>
       <c r="D9" t="n">
-        <v>25027.0</v>
+        <v>25027</v>
       </c>
       <c r="E9" t="n">
-        <v>3483.0</v>
+        <v>3483</v>
       </c>
       <c r="F9" t="n">
-        <v>22399.0</v>
+        <v>22399</v>
       </c>
       <c r="G9" t="n">
-        <v>33159.0</v>
+        <v>33159</v>
       </c>
       <c r="H9" t="n">
-        <v>2367.0</v>
+        <v>2367</v>
       </c>
       <c r="I9" t="n">
-        <v>14905.0</v>
+        <v>14905</v>
       </c>
       <c r="J9" t="n">
-        <v>2579.0</v>
+        <v>2579</v>
       </c>
       <c r="K9" t="n">
-        <v>27414.0</v>
+        <v>27414</v>
       </c>
       <c r="L9" t="n">
-        <v>10073.0</v>
+        <v>10073</v>
       </c>
       <c r="M9" t="n">
-        <v>1394.0</v>
+        <v>1394</v>
       </c>
       <c r="N9" t="n">
-        <v>4085.0</v>
+        <v>4085</v>
       </c>
       <c r="O9" t="n">
-        <v>8258.0</v>
+        <v>8258</v>
       </c>
       <c r="P9" t="n">
-        <v>3948.0</v>
+        <v>3948</v>
       </c>
       <c r="Q9" t="n">
-        <v>4102.0</v>
+        <v>4102</v>
       </c>
       <c r="R9" t="n">
-        <v>12926.0</v>
+        <v>12926</v>
       </c>
       <c r="S9" t="n">
-        <v>2062.0</v>
+        <v>2062</v>
       </c>
       <c r="T9" t="n">
-        <v>47753.0</v>
+        <v>47753</v>
       </c>
       <c r="U9" t="n">
-        <v>3081.0</v>
+        <v>3081</v>
       </c>
       <c r="V9" t="n">
-        <v>13279.0</v>
+        <v>13279</v>
       </c>
       <c r="W9" t="n">
-        <v>8878.0</v>
+        <v>8878</v>
       </c>
       <c r="X9" t="n">
-        <v>4962.0</v>
+        <v>4962</v>
       </c>
       <c r="Y9" t="n">
-        <v>18391.0</v>
+        <v>18391</v>
       </c>
       <c r="Z9" t="n">
-        <v>7237.0</v>
+        <v>7237</v>
       </c>
       <c r="AA9" t="n">
-        <v>2250.0</v>
+        <v>2250</v>
       </c>
       <c r="AB9" t="n">
-        <v>5914.0</v>
+        <v>5914</v>
       </c>
       <c r="AC9" t="n">
-        <v>6051.0</v>
+        <v>6051</v>
       </c>
       <c r="AD9" t="n">
-        <v>9015.0</v>
+        <v>9015</v>
       </c>
       <c r="AE9" t="n">
-        <v>6693.0</v>
+        <v>6693</v>
       </c>
       <c r="AF9" t="n">
-        <v>1281.0</v>
+        <v>1281</v>
       </c>
       <c r="AG9" t="n">
-        <v>9916.0</v>
+        <v>9916</v>
       </c>
       <c r="AH9" t="n">
-        <v>-710.0</v>
+        <v>-710</v>
       </c>
       <c r="AI9" t="n">
-        <v>2914.0</v>
+        <v>2914</v>
       </c>
       <c r="AJ9" t="n">
-        <v>4016.0</v>
+        <v>4016</v>
       </c>
       <c r="AK9" t="n">
-        <v>14687.0</v>
+        <v>14687</v>
       </c>
       <c r="AL9" t="n">
-        <v>13640.0</v>
+        <v>13640</v>
       </c>
       <c r="AM9" t="n">
-        <v>89108.0</v>
+        <v>89108</v>
       </c>
       <c r="AN9" t="n">
-        <v>23108.0</v>
+        <v>23108</v>
       </c>
       <c r="AO9" t="n">
-        <v>137947.0</v>
+        <v>137947</v>
       </c>
       <c r="AP9" t="n">
-        <v>47206.0</v>
+        <v>47206</v>
       </c>
       <c r="AQ9" t="n">
-        <v>304266.0</v>
+        <v>304266</v>
       </c>
       <c r="AR9" t="n">
-        <v>66126.0</v>
+        <v>66126</v>
       </c>
       <c r="AS9" t="n">
-        <v>3665.0</v>
+        <v>3665</v>
       </c>
       <c r="AT9" t="n">
-        <v>3092.0</v>
+        <v>3092</v>
       </c>
       <c r="AU9" t="n">
-        <v>26230.0</v>
+        <v>26230</v>
       </c>
       <c r="AV9" t="n">
-        <v>2083.0</v>
+        <v>2083</v>
       </c>
       <c r="AW9" t="n">
-        <v>68069.0</v>
+        <v>68069</v>
       </c>
       <c r="AX9" t="n">
-        <v>1526.0</v>
+        <v>1526</v>
       </c>
       <c r="AY9" t="n">
-        <v>5594.0</v>
+        <v>5594</v>
       </c>
       <c r="AZ9" t="n">
-        <v>46349.0</v>
+        <v>46349</v>
       </c>
       <c r="BA9" t="n">
-        <v>43907.0</v>
+        <v>43907</v>
       </c>
       <c r="BB9" t="n">
-        <v>258875.0</v>
+        <v>258875</v>
       </c>
       <c r="BC9" t="n">
-        <v>549414.0</v>
+        <v>549414</v>
       </c>
       <c r="BD9" t="n">
-        <v>84788.0</v>
+        <v>84788</v>
       </c>
       <c r="BE9" t="n">
-        <v>14607.0</v>
+        <v>14607</v>
       </c>
       <c r="BF9" t="n">
-        <v>20610.0</v>
+        <v>20610</v>
       </c>
       <c r="BG9" t="n">
-        <v>16523.0</v>
+        <v>16523</v>
       </c>
       <c r="BH9" t="n">
-        <v>52192.0</v>
+        <v>52192</v>
       </c>
       <c r="BI9" t="n">
-        <v>2928.0</v>
+        <v>2928</v>
       </c>
       <c r="BJ9" t="n">
-        <v>84162.0</v>
+        <v>84162</v>
       </c>
       <c r="BK9" t="n">
-        <v>12697.0</v>
+        <v>12697</v>
       </c>
       <c r="BL9" t="n">
-        <v>10773.0</v>
+        <v>10773</v>
       </c>
       <c r="BM9" t="n">
-        <v>6270.0</v>
+        <v>6270</v>
       </c>
       <c r="BN9" t="n">
-        <v>68667.0</v>
+        <v>68667</v>
       </c>
       <c r="BO9" t="n">
-        <v>8370.0</v>
+        <v>8370</v>
       </c>
       <c r="BP9" t="n">
-        <v>35575.0</v>
+        <v>35575</v>
       </c>
       <c r="BQ9" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B10" t="n">
-        <v>95502.0</v>
+        <v>95502</v>
       </c>
       <c r="C10" t="n">
-        <v>39487.0</v>
+        <v>39487</v>
       </c>
       <c r="D10" t="n">
-        <v>12293.0</v>
+        <v>12293</v>
       </c>
       <c r="E10" t="n">
-        <v>234.0</v>
+        <v>234</v>
       </c>
       <c r="F10" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>336.0</v>
+        <v>336</v>
       </c>
       <c r="J10" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>3859.0</v>
+        <v>3859</v>
       </c>
       <c r="L10" t="n">
-        <v>21.0</v>
+        <v>21</v>
       </c>
       <c r="M10" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N10" t="n">
-        <v>1182.0</v>
+        <v>1182</v>
       </c>
       <c r="O10" t="n">
-        <v>6002.0</v>
+        <v>6002</v>
       </c>
       <c r="P10" t="n">
-        <v>580.0</v>
+        <v>580</v>
       </c>
       <c r="Q10" t="n">
-        <v>1516.0</v>
+        <v>1516</v>
       </c>
       <c r="R10" t="n">
-        <v>274.0</v>
+        <v>274</v>
       </c>
       <c r="S10" t="n">
-        <v>438.0</v>
+        <v>438</v>
       </c>
       <c r="T10" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>547.0</v>
+        <v>547</v>
       </c>
       <c r="Y10" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Z10" t="n">
-        <v>342.0</v>
+        <v>342</v>
       </c>
       <c r="AA10" t="n">
-        <v>745.0</v>
+        <v>745</v>
       </c>
       <c r="AB10" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AC10" t="n">
-        <v>-17.0</v>
+        <v>-17</v>
       </c>
       <c r="AD10" t="n">
-        <v>2223.0</v>
+        <v>2223</v>
       </c>
       <c r="AE10" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AF10" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AG10" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AH10" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AI10" t="n">
-        <v>27.0</v>
+        <v>27</v>
       </c>
       <c r="AJ10" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AK10" t="n">
-        <v>1240.0</v>
+        <v>1240</v>
       </c>
       <c r="AL10" t="n">
-        <v>4421.0</v>
+        <v>4421</v>
       </c>
       <c r="AM10" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AN10" t="n">
-        <v>1609.0</v>
+        <v>1609</v>
       </c>
       <c r="AO10" t="n">
-        <v>71781.0</v>
+        <v>71781</v>
       </c>
       <c r="AP10" t="n">
-        <v>22101.0</v>
+        <v>22101</v>
       </c>
       <c r="AQ10" t="n">
-        <v>59361.0</v>
+        <v>59361</v>
       </c>
       <c r="AR10" t="n">
-        <v>24009.0</v>
+        <v>24009</v>
       </c>
       <c r="AS10" t="n">
-        <v>439.0</v>
+        <v>439</v>
       </c>
       <c r="AT10" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AU10" t="n">
-        <v>1240.0</v>
+        <v>1240</v>
       </c>
       <c r="AV10" t="n">
-        <v>1136.0</v>
+        <v>1136</v>
       </c>
       <c r="AW10" t="n">
-        <v>42744.0</v>
+        <v>42744</v>
       </c>
       <c r="AX10" t="n">
-        <v>205.0</v>
+        <v>205</v>
       </c>
       <c r="AY10" t="n">
-        <v>852.0</v>
+        <v>852</v>
       </c>
       <c r="AZ10" t="n">
-        <v>255.0</v>
+        <v>255</v>
       </c>
       <c r="BA10" t="n">
-        <v>7896.0</v>
+        <v>7896</v>
       </c>
       <c r="BB10" t="n">
-        <v>2138.0</v>
+        <v>2138</v>
       </c>
       <c r="BC10" t="n">
-        <v>4129.0</v>
+        <v>4129</v>
       </c>
       <c r="BD10" t="n">
-        <v>34577.0</v>
+        <v>34577</v>
       </c>
       <c r="BE10" t="n">
-        <v>9013.0</v>
+        <v>9013</v>
       </c>
       <c r="BF10" t="n">
-        <v>5925.0</v>
+        <v>5925</v>
       </c>
       <c r="BG10" t="n">
-        <v>661.0</v>
+        <v>661</v>
       </c>
       <c r="BH10" t="n">
-        <v>6557.0</v>
+        <v>6557</v>
       </c>
       <c r="BI10" t="n">
-        <v>1230.0</v>
+        <v>1230</v>
       </c>
       <c r="BJ10" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="BK10" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="BL10" t="n">
-        <v>5702.0</v>
+        <v>5702</v>
       </c>
       <c r="BM10" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="BN10" t="n">
-        <v>38460.0</v>
+        <v>38460</v>
       </c>
       <c r="BO10" t="n">
-        <v>5863.0</v>
+        <v>5863</v>
       </c>
       <c r="BP10" t="n">
-        <v>28035.0</v>
+        <v>28035</v>
       </c>
       <c r="BQ10" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B11" t="n">
-        <v>80618.0</v>
+        <v>80618</v>
       </c>
       <c r="C11" t="n">
-        <v>11695.0</v>
+        <v>11695</v>
       </c>
       <c r="D11" t="n">
-        <v>12734.0</v>
+        <v>12734</v>
       </c>
       <c r="E11" t="n">
-        <v>3249.0</v>
+        <v>3249</v>
       </c>
       <c r="F11" t="n">
-        <v>22399.0</v>
+        <v>22399</v>
       </c>
       <c r="G11" t="n">
-        <v>33159.0</v>
+        <v>33159</v>
       </c>
       <c r="H11" t="n">
-        <v>2367.0</v>
+        <v>2367</v>
       </c>
       <c r="I11" t="n">
-        <v>14569.0</v>
+        <v>14569</v>
       </c>
       <c r="J11" t="n">
-        <v>2579.0</v>
+        <v>2579</v>
       </c>
       <c r="K11" t="n">
-        <v>23555.0</v>
+        <v>23555</v>
       </c>
       <c r="L11" t="n">
-        <v>10052.0</v>
+        <v>10052</v>
       </c>
       <c r="M11" t="n">
-        <v>1394.0</v>
+        <v>1394</v>
       </c>
       <c r="N11" t="n">
-        <v>2903.0</v>
+        <v>2903</v>
       </c>
       <c r="O11" t="n">
-        <v>2256.0</v>
+        <v>2256</v>
       </c>
       <c r="P11" t="n">
-        <v>3368.0</v>
+        <v>3368</v>
       </c>
       <c r="Q11" t="n">
-        <v>2586.0</v>
+        <v>2586</v>
       </c>
       <c r="R11" t="n">
-        <v>12652.0</v>
+        <v>12652</v>
       </c>
       <c r="S11" t="n">
-        <v>1624.0</v>
+        <v>1624</v>
       </c>
       <c r="T11" t="n">
-        <v>47753.0</v>
+        <v>47753</v>
       </c>
       <c r="U11" t="n">
-        <v>3081.0</v>
+        <v>3081</v>
       </c>
       <c r="V11" t="n">
-        <v>13279.0</v>
+        <v>13279</v>
       </c>
       <c r="W11" t="n">
-        <v>8878.0</v>
+        <v>8878</v>
       </c>
       <c r="X11" t="n">
-        <v>4415.0</v>
+        <v>4415</v>
       </c>
       <c r="Y11" t="n">
-        <v>18391.0</v>
+        <v>18391</v>
       </c>
       <c r="Z11" t="n">
-        <v>6895.0</v>
+        <v>6895</v>
       </c>
       <c r="AA11" t="n">
-        <v>1505.0</v>
+        <v>1505</v>
       </c>
       <c r="AB11" t="n">
-        <v>5914.0</v>
+        <v>5914</v>
       </c>
       <c r="AC11" t="n">
-        <v>6068.0</v>
+        <v>6068</v>
       </c>
       <c r="AD11" t="n">
-        <v>6792.0</v>
+        <v>6792</v>
       </c>
       <c r="AE11" t="n">
-        <v>6693.0</v>
+        <v>6693</v>
       </c>
       <c r="AF11" t="n">
-        <v>1281.0</v>
+        <v>1281</v>
       </c>
       <c r="AG11" t="n">
-        <v>9916.0</v>
+        <v>9916</v>
       </c>
       <c r="AH11" t="n">
-        <v>-710.0</v>
+        <v>-710</v>
       </c>
       <c r="AI11" t="n">
-        <v>2887.0</v>
+        <v>2887</v>
       </c>
       <c r="AJ11" t="n">
-        <v>4016.0</v>
+        <v>4016</v>
       </c>
       <c r="AK11" t="n">
-        <v>13447.0</v>
+        <v>13447</v>
       </c>
       <c r="AL11" t="n">
-        <v>9219.0</v>
+        <v>9219</v>
       </c>
       <c r="AM11" t="n">
-        <v>89108.0</v>
+        <v>89108</v>
       </c>
       <c r="AN11" t="n">
-        <v>21499.0</v>
+        <v>21499</v>
       </c>
       <c r="AO11" t="n">
-        <v>66166.0</v>
+        <v>66166</v>
       </c>
       <c r="AP11" t="n">
-        <v>25105.0</v>
+        <v>25105</v>
       </c>
       <c r="AQ11" t="n">
-        <v>244905.0</v>
+        <v>244905</v>
       </c>
       <c r="AR11" t="n">
-        <v>42117.0</v>
+        <v>42117</v>
       </c>
       <c r="AS11" t="n">
-        <v>3226.0</v>
+        <v>3226</v>
       </c>
       <c r="AT11" t="n">
-        <v>3092.0</v>
+        <v>3092</v>
       </c>
       <c r="AU11" t="n">
-        <v>24990.0</v>
+        <v>24990</v>
       </c>
       <c r="AV11" t="n">
-        <v>947.0</v>
+        <v>947</v>
       </c>
       <c r="AW11" t="n">
-        <v>25325.0</v>
+        <v>25325</v>
       </c>
       <c r="AX11" t="n">
-        <v>1321.0</v>
+        <v>1321</v>
       </c>
       <c r="AY11" t="n">
-        <v>4742.0</v>
+        <v>4742</v>
       </c>
       <c r="AZ11" t="n">
-        <v>46094.0</v>
+        <v>46094</v>
       </c>
       <c r="BA11" t="n">
-        <v>36011.0</v>
+        <v>36011</v>
       </c>
       <c r="BB11" t="n">
-        <v>256737.0</v>
+        <v>256737</v>
       </c>
       <c r="BC11" t="n">
-        <v>545285.0</v>
+        <v>545285</v>
       </c>
       <c r="BD11" t="n">
-        <v>50211.0</v>
+        <v>50211</v>
       </c>
       <c r="BE11" t="n">
-        <v>5594.0</v>
+        <v>5594</v>
       </c>
       <c r="BF11" t="n">
-        <v>14685.0</v>
+        <v>14685</v>
       </c>
       <c r="BG11" t="n">
-        <v>15862.0</v>
+        <v>15862</v>
       </c>
       <c r="BH11" t="n">
-        <v>45635.0</v>
+        <v>45635</v>
       </c>
       <c r="BI11" t="n">
-        <v>1698.0</v>
+        <v>1698</v>
       </c>
       <c r="BJ11" t="n">
-        <v>84162.0</v>
+        <v>84162</v>
       </c>
       <c r="BK11" t="n">
-        <v>12697.0</v>
+        <v>12697</v>
       </c>
       <c r="BL11" t="n">
-        <v>5071.0</v>
+        <v>5071</v>
       </c>
       <c r="BM11" t="n">
-        <v>6270.0</v>
+        <v>6270</v>
       </c>
       <c r="BN11" t="n">
-        <v>30207.0</v>
+        <v>30207</v>
       </c>
       <c r="BO11" t="n">
-        <v>2507.0</v>
+        <v>2507</v>
       </c>
       <c r="BP11" t="n">
-        <v>7540.0</v>
+        <v>7540</v>
       </c>
       <c r="BQ11" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B12" t="n">
-        <v>1686.0</v>
+        <v>1686</v>
       </c>
       <c r="C12" t="n">
-        <v>638.0</v>
+        <v>638</v>
       </c>
       <c r="D12" t="n">
-        <v>145.0</v>
+        <v>145</v>
       </c>
       <c r="E12" t="n">
-        <v>195.0</v>
+        <v>195</v>
       </c>
       <c r="F12" t="n">
-        <v>1140.0</v>
+        <v>1140</v>
       </c>
       <c r="G12" t="n">
-        <v>473.0</v>
+        <v>473</v>
       </c>
       <c r="H12" t="n">
-        <v>156.0</v>
+        <v>156</v>
       </c>
       <c r="I12" t="n">
-        <v>2278.0</v>
+        <v>2278</v>
       </c>
       <c r="J12" t="n">
-        <v>797.0</v>
+        <v>797</v>
       </c>
       <c r="K12" t="n">
-        <v>2710.0</v>
+        <v>2710</v>
       </c>
       <c r="L12" t="n">
-        <v>857.0</v>
+        <v>857</v>
       </c>
       <c r="M12" t="n">
-        <v>121.0</v>
+        <v>121</v>
       </c>
       <c r="N12" t="n">
-        <v>501.0</v>
+        <v>501</v>
       </c>
       <c r="O12" t="n">
-        <v>635.0</v>
+        <v>635</v>
       </c>
       <c r="P12" t="n">
-        <v>482.0</v>
+        <v>482</v>
       </c>
       <c r="Q12" t="n">
-        <v>326.0</v>
+        <v>326</v>
       </c>
       <c r="R12" t="n">
-        <v>820.0</v>
+        <v>820</v>
       </c>
       <c r="S12" t="n">
-        <v>260.0</v>
+        <v>260</v>
       </c>
       <c r="T12" t="n">
-        <v>1075.0</v>
+        <v>1075</v>
       </c>
       <c r="U12" t="n">
-        <v>446.0</v>
+        <v>446</v>
       </c>
       <c r="V12" t="n">
-        <v>1154.0</v>
+        <v>1154</v>
       </c>
       <c r="W12" t="n">
-        <v>641.0</v>
+        <v>641</v>
       </c>
       <c r="X12" t="n">
-        <v>421.0</v>
+        <v>421</v>
       </c>
       <c r="Y12" t="n">
-        <v>623.0</v>
+        <v>623</v>
       </c>
       <c r="Z12" t="n">
-        <v>1075.0</v>
+        <v>1075</v>
       </c>
       <c r="AA12" t="n">
-        <v>839.0</v>
+        <v>839</v>
       </c>
       <c r="AB12" t="n">
-        <v>899.0</v>
+        <v>899</v>
       </c>
       <c r="AC12" t="n">
-        <v>460.0</v>
+        <v>460</v>
       </c>
       <c r="AD12" t="n">
-        <v>985.0</v>
+        <v>985</v>
       </c>
       <c r="AE12" t="n">
-        <v>926.0</v>
+        <v>926</v>
       </c>
       <c r="AF12" t="n">
-        <v>722.0</v>
+        <v>722</v>
       </c>
       <c r="AG12" t="n">
-        <v>1250.0</v>
+        <v>1250</v>
       </c>
       <c r="AH12" t="n">
-        <v>1344.0</v>
+        <v>1344</v>
       </c>
       <c r="AI12" t="n">
-        <v>990.0</v>
+        <v>990</v>
       </c>
       <c r="AJ12" t="n">
-        <v>426.0</v>
+        <v>426</v>
       </c>
       <c r="AK12" t="n">
-        <v>686.0</v>
+        <v>686</v>
       </c>
       <c r="AL12" t="n">
-        <v>440.0</v>
+        <v>440</v>
       </c>
       <c r="AM12" t="n">
-        <v>2624.0</v>
+        <v>2624</v>
       </c>
       <c r="AN12" t="n">
-        <v>865.0</v>
+        <v>865</v>
       </c>
       <c r="AO12" t="n">
-        <v>3357.0</v>
+        <v>3357</v>
       </c>
       <c r="AP12" t="n">
-        <v>1367.0</v>
+        <v>1367</v>
       </c>
       <c r="AQ12" t="n">
-        <v>11684.0</v>
+        <v>11684</v>
       </c>
       <c r="AR12" t="n">
-        <v>3428.0</v>
+        <v>3428</v>
       </c>
       <c r="AS12" t="n">
-        <v>400.0</v>
+        <v>400</v>
       </c>
       <c r="AT12" t="n">
-        <v>617.0</v>
+        <v>617</v>
       </c>
       <c r="AU12" t="n">
-        <v>1669.0</v>
+        <v>1669</v>
       </c>
       <c r="AV12" t="n">
-        <v>371.0</v>
+        <v>371</v>
       </c>
       <c r="AW12" t="n">
-        <v>1602.0</v>
+        <v>1602</v>
       </c>
       <c r="AX12" t="n">
-        <v>223.0</v>
+        <v>223</v>
       </c>
       <c r="AY12" t="n">
-        <v>1018.0</v>
+        <v>1018</v>
       </c>
       <c r="AZ12" t="n">
-        <v>4427.0</v>
+        <v>4427</v>
       </c>
       <c r="BA12" t="n">
-        <v>1890.0</v>
+        <v>1890</v>
       </c>
       <c r="BB12" t="n">
-        <v>7841.0</v>
+        <v>7841</v>
       </c>
       <c r="BC12" t="n">
-        <v>454.0</v>
+        <v>454</v>
       </c>
       <c r="BD12" t="n">
-        <v>2458.0</v>
+        <v>2458</v>
       </c>
       <c r="BE12" t="n">
-        <v>617.0</v>
+        <v>617</v>
       </c>
       <c r="BF12" t="n">
-        <v>462.0</v>
+        <v>462</v>
       </c>
       <c r="BG12" t="n">
-        <v>484.0</v>
+        <v>484</v>
       </c>
       <c r="BH12" t="n">
-        <v>3145.0</v>
+        <v>3145</v>
       </c>
       <c r="BI12" t="n">
-        <v>984.0</v>
+        <v>984</v>
       </c>
       <c r="BJ12" t="n">
-        <v>169.0</v>
+        <v>169</v>
       </c>
       <c r="BK12" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="BL12" t="n">
-        <v>2544.0</v>
+        <v>2544</v>
       </c>
       <c r="BM12" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="BN12" t="n">
-        <v>2716.0</v>
+        <v>2716</v>
       </c>
       <c r="BO12" t="n">
-        <v>288.0</v>
+        <v>288</v>
       </c>
       <c r="BP12" t="n">
-        <v>1098.0</v>
+        <v>1098</v>
       </c>
       <c r="BQ12" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B13" t="n">
-        <v>-10258.0</v>
+        <v>-10258</v>
       </c>
       <c r="C13" t="n">
-        <v>-162.0</v>
+        <v>-162</v>
       </c>
       <c r="D13" t="n">
-        <v>-40.0</v>
+        <v>-40</v>
       </c>
       <c r="E13" t="n">
-        <v>-87.0</v>
+        <v>-87</v>
       </c>
       <c r="F13" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>-35.0</v>
+        <v>-35</v>
       </c>
       <c r="H13" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>-117.0</v>
+        <v>-117</v>
       </c>
       <c r="J13" t="n">
-        <v>-164.0</v>
+        <v>-164</v>
       </c>
       <c r="K13" t="n">
-        <v>-150.0</v>
+        <v>-150</v>
       </c>
       <c r="L13" t="n">
-        <v>-45.0</v>
+        <v>-45</v>
       </c>
       <c r="M13" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>-30.0</v>
+        <v>-30</v>
       </c>
       <c r="O13" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>-45.0</v>
+        <v>-45</v>
       </c>
       <c r="R13" t="n">
-        <v>-114.0</v>
+        <v>-114</v>
       </c>
       <c r="S13" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>-215.0</v>
+        <v>-215</v>
       </c>
       <c r="U13" t="n">
-        <v>-183.0</v>
+        <v>-183</v>
       </c>
       <c r="V13" t="n">
-        <v>-43.0</v>
+        <v>-43</v>
       </c>
       <c r="W13" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>-30.0</v>
+        <v>-30</v>
       </c>
       <c r="Z13" t="n">
-        <v>-171.0</v>
+        <v>-171</v>
       </c>
       <c r="AA13" t="n">
-        <v>-140.0</v>
+        <v>-140</v>
       </c>
       <c r="AB13" t="n">
-        <v>-76.0</v>
+        <v>-76</v>
       </c>
       <c r="AC13" t="n">
-        <v>-39.0</v>
+        <v>-39</v>
       </c>
       <c r="AD13" t="n">
-        <v>-95.0</v>
+        <v>-95</v>
       </c>
       <c r="AE13" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AF13" t="n">
-        <v>-106.0</v>
+        <v>-106</v>
       </c>
       <c r="AG13" t="n">
-        <v>-279.0</v>
+        <v>-279</v>
       </c>
       <c r="AH13" t="n">
-        <v>-313.0</v>
+        <v>-313</v>
       </c>
       <c r="AI13" t="n">
-        <v>-257.0</v>
+        <v>-257</v>
       </c>
       <c r="AJ13" t="n">
-        <v>-72.0</v>
+        <v>-72</v>
       </c>
       <c r="AK13" t="n">
-        <v>-40.0</v>
+        <v>-40</v>
       </c>
       <c r="AL13" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AM13" t="n">
-        <v>-170.0</v>
+        <v>-170</v>
       </c>
       <c r="AN13" t="n">
-        <v>-44.0</v>
+        <v>-44</v>
       </c>
       <c r="AO13" t="n">
-        <v>-521.0</v>
+        <v>-521</v>
       </c>
       <c r="AP13" t="n">
-        <v>-41.0</v>
+        <v>-41</v>
       </c>
       <c r="AQ13" t="n">
-        <v>-884.0</v>
+        <v>-884</v>
       </c>
       <c r="AR13" t="n">
-        <v>-2333.0</v>
+        <v>-2333</v>
       </c>
       <c r="AS13" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AT13" t="n">
-        <v>-36.0</v>
+        <v>-36</v>
       </c>
       <c r="AU13" t="n">
-        <v>-70.0</v>
+        <v>-70</v>
       </c>
       <c r="AV13" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AW13" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AX13" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AY13" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AZ13" t="n">
-        <v>-91.0</v>
+        <v>-91</v>
       </c>
       <c r="BA13" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="BB13" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="BC13" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="BD13" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="BE13" t="n">
-        <v>-651.0</v>
+        <v>-651</v>
       </c>
       <c r="BF13" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="BG13" t="n">
-        <v>-221.0</v>
+        <v>-221</v>
       </c>
       <c r="BH13" t="n">
-        <v>-70.0</v>
+        <v>-70</v>
       </c>
       <c r="BI13" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="BJ13" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="BK13" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="BL13" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="BM13" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="BN13" t="n">
-        <v>-150.0</v>
+        <v>-150</v>
       </c>
       <c r="BO13" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="BP13" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="BQ13" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B14" t="n">
-        <v>356847.0</v>
+        <v>356847</v>
       </c>
       <c r="C14" t="n">
-        <v>147583.0</v>
+        <v>147583</v>
       </c>
       <c r="D14" t="n">
-        <v>36146.0</v>
+        <v>36146</v>
       </c>
       <c r="E14" t="n">
-        <v>18832.0</v>
+        <v>18832</v>
       </c>
       <c r="F14" t="n">
-        <v>146194.0</v>
+        <v>146194</v>
       </c>
       <c r="G14" t="n">
-        <v>71590.0</v>
+        <v>71590</v>
       </c>
       <c r="H14" t="n">
-        <v>16673.0</v>
+        <v>16673</v>
       </c>
       <c r="I14" t="n">
-        <v>272342.0</v>
+        <v>272342</v>
       </c>
       <c r="J14" t="n">
-        <v>62659.0</v>
+        <v>62659</v>
       </c>
       <c r="K14" t="n">
-        <v>290387.0</v>
+        <v>290387</v>
       </c>
       <c r="L14" t="n">
-        <v>74872.0</v>
+        <v>74872</v>
       </c>
       <c r="M14" t="n">
-        <v>14953.0</v>
+        <v>14953</v>
       </c>
       <c r="N14" t="n">
-        <v>50830.0</v>
+        <v>50830</v>
       </c>
       <c r="O14" t="n">
-        <v>64164.0</v>
+        <v>64164</v>
       </c>
       <c r="P14" t="n">
-        <v>43823.0</v>
+        <v>43823</v>
       </c>
       <c r="Q14" t="n">
-        <v>28782.0</v>
+        <v>28782</v>
       </c>
       <c r="R14" t="n">
-        <v>91125.0</v>
+        <v>91125</v>
       </c>
       <c r="S14" t="n">
-        <v>18878.0</v>
+        <v>18878</v>
       </c>
       <c r="T14" t="n">
-        <v>373762.0</v>
+        <v>373762</v>
       </c>
       <c r="U14" t="n">
-        <v>48234.0</v>
+        <v>48234</v>
       </c>
       <c r="V14" t="n">
-        <v>153653.0</v>
+        <v>153653</v>
       </c>
       <c r="W14" t="n">
-        <v>78228.0</v>
+        <v>78228</v>
       </c>
       <c r="X14" t="n">
-        <v>45560.0</v>
+        <v>45560</v>
       </c>
       <c r="Y14" t="n">
-        <v>64543.0</v>
+        <v>64543</v>
       </c>
       <c r="Z14" t="n">
-        <v>107136.0</v>
+        <v>107136</v>
       </c>
       <c r="AA14" t="n">
-        <v>76997.0</v>
+        <v>76997</v>
       </c>
       <c r="AB14" t="n">
-        <v>111188.0</v>
+        <v>111188</v>
       </c>
       <c r="AC14" t="n">
-        <v>58123.0</v>
+        <v>58123</v>
       </c>
       <c r="AD14" t="n">
-        <v>91128.0</v>
+        <v>91128</v>
       </c>
       <c r="AE14" t="n">
-        <v>90442.0</v>
+        <v>90442</v>
       </c>
       <c r="AF14" t="n">
-        <v>70805.0</v>
+        <v>70805</v>
       </c>
       <c r="AG14" t="n">
-        <v>115357.0</v>
+        <v>115357</v>
       </c>
       <c r="AH14" t="n">
-        <v>160371.0</v>
+        <v>160371</v>
       </c>
       <c r="AI14" t="n">
-        <v>89075.0</v>
+        <v>89075</v>
       </c>
       <c r="AJ14" t="n">
-        <v>42196.0</v>
+        <v>42196</v>
       </c>
       <c r="AK14" t="n">
-        <v>71038.0</v>
+        <v>71038</v>
       </c>
       <c r="AL14" t="n">
-        <v>71614.0</v>
+        <v>71614</v>
       </c>
       <c r="AM14" t="n">
-        <v>292501.0</v>
+        <v>292501</v>
       </c>
       <c r="AN14" t="n">
-        <v>75152.0</v>
+        <v>75152</v>
       </c>
       <c r="AO14" t="n">
-        <v>545839.0</v>
+        <v>545839</v>
       </c>
       <c r="AP14" t="n">
-        <v>164008.0</v>
+        <v>164008</v>
       </c>
       <c r="AQ14" t="n">
-        <v>1048649.0</v>
+        <v>1048649</v>
       </c>
       <c r="AR14" t="n">
-        <v>364931.0</v>
+        <v>364931</v>
       </c>
       <c r="AS14" t="n">
-        <v>22058.0</v>
+        <v>22058</v>
       </c>
       <c r="AT14" t="n">
-        <v>40508.0</v>
+        <v>40508</v>
       </c>
       <c r="AU14" t="n">
-        <v>124316.0</v>
+        <v>124316</v>
       </c>
       <c r="AV14" t="n">
-        <v>25389.0</v>
+        <v>25389</v>
       </c>
       <c r="AW14" t="n">
-        <v>258532.0</v>
+        <v>258532</v>
       </c>
       <c r="AX14" t="n">
-        <v>17858.0</v>
+        <v>17858</v>
       </c>
       <c r="AY14" t="n">
-        <v>42978.0</v>
+        <v>42978</v>
       </c>
       <c r="AZ14" t="n">
-        <v>164602.0</v>
+        <v>164602</v>
       </c>
       <c r="BA14" t="n">
-        <v>148747.0</v>
+        <v>148747</v>
       </c>
       <c r="BB14" t="n">
-        <v>647163.0</v>
+        <v>647163</v>
       </c>
       <c r="BC14" t="n">
-        <v>609858.0</v>
+        <v>609858</v>
       </c>
       <c r="BD14" t="n">
-        <v>214447.0</v>
+        <v>214447</v>
       </c>
       <c r="BE14" t="n">
-        <v>57402.0</v>
+        <v>57402</v>
       </c>
       <c r="BF14" t="n">
-        <v>97139.0</v>
+        <v>97139</v>
       </c>
       <c r="BG14" t="n">
-        <v>43511.0</v>
+        <v>43511</v>
       </c>
       <c r="BH14" t="n">
-        <v>241402.0</v>
+        <v>241402</v>
       </c>
       <c r="BI14" t="n">
-        <v>41802.0</v>
+        <v>41802</v>
       </c>
       <c r="BJ14" t="n">
-        <v>812212.0</v>
+        <v>812212</v>
       </c>
       <c r="BK14" t="n">
-        <v>336651.0</v>
+        <v>336651</v>
       </c>
       <c r="BL14" t="n">
-        <v>133534.0</v>
+        <v>133534</v>
       </c>
       <c r="BM14" t="n">
-        <v>193090.0</v>
+        <v>193090</v>
       </c>
       <c r="BN14" t="n">
-        <v>264751.0</v>
+        <v>264751</v>
       </c>
       <c r="BO14" t="n">
-        <v>39310.0</v>
+        <v>39310</v>
       </c>
       <c r="BP14" t="n">
-        <v>152325.0</v>
+        <v>152325</v>
       </c>
       <c r="BQ14" t="n">
-        <v>71458.0</v>
+        <v>71458</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B15" t="n">
-        <v>6281108.0</v>
+        <v>6281108</v>
       </c>
       <c r="C15" t="n">
-        <v>5958292.0</v>
+        <v>5958292</v>
       </c>
       <c r="D15" t="n">
-        <v>837997.0</v>
+        <v>837997</v>
       </c>
       <c r="E15" t="n">
-        <v>115052.0</v>
+        <v>115052</v>
       </c>
       <c r="F15" t="n">
-        <v>54197.0</v>
+        <v>54197</v>
       </c>
       <c r="G15" t="n">
-        <v>34073.0</v>
+        <v>34073</v>
       </c>
       <c r="H15" t="n">
-        <v>29973.0</v>
+        <v>29973</v>
       </c>
       <c r="I15" t="n">
-        <v>747518.0</v>
+        <v>747518</v>
       </c>
       <c r="J15" t="n">
-        <v>161476.0</v>
+        <v>161476</v>
       </c>
       <c r="K15" t="n">
-        <v>1252977.0</v>
+        <v>1252977</v>
       </c>
       <c r="L15" t="n">
-        <v>180561.0</v>
+        <v>180561</v>
       </c>
       <c r="M15" t="n">
-        <v>18336.0</v>
+        <v>18336</v>
       </c>
       <c r="N15" t="n">
-        <v>617616.0</v>
+        <v>617616</v>
       </c>
       <c r="O15" t="n">
-        <v>1643543.0</v>
+        <v>1643543</v>
       </c>
       <c r="P15" t="n">
-        <v>469625.0</v>
+        <v>469625</v>
       </c>
       <c r="Q15" t="n">
-        <v>371415.0</v>
+        <v>371415</v>
       </c>
       <c r="R15" t="n">
-        <v>200606.0</v>
+        <v>200606</v>
       </c>
       <c r="S15" t="n">
-        <v>183273.0</v>
+        <v>183273</v>
       </c>
       <c r="T15" t="n">
-        <v>21522.0</v>
+        <v>21522</v>
       </c>
       <c r="U15" t="n">
-        <v>95360.0</v>
+        <v>95360</v>
       </c>
       <c r="V15" t="n">
-        <v>97839.0</v>
+        <v>97839</v>
       </c>
       <c r="W15" t="n">
-        <v>93614.0</v>
+        <v>93614</v>
       </c>
       <c r="X15" t="n">
-        <v>135255.0</v>
+        <v>135255</v>
       </c>
       <c r="Y15" t="n">
-        <v>98626.0</v>
+        <v>98626</v>
       </c>
       <c r="Z15" t="n">
-        <v>420120.0</v>
+        <v>420120</v>
       </c>
       <c r="AA15" t="n">
-        <v>589354.0</v>
+        <v>589354</v>
       </c>
       <c r="AB15" t="n">
-        <v>114848.0</v>
+        <v>114848</v>
       </c>
       <c r="AC15" t="n">
-        <v>98521.0</v>
+        <v>98521</v>
       </c>
       <c r="AD15" t="n">
-        <v>663203.0</v>
+        <v>663203</v>
       </c>
       <c r="AE15" t="n">
-        <v>126998.0</v>
+        <v>126998</v>
       </c>
       <c r="AF15" t="n">
-        <v>204637.0</v>
+        <v>204637</v>
       </c>
       <c r="AG15" t="n">
-        <v>357731.0</v>
+        <v>357731</v>
       </c>
       <c r="AH15" t="n">
-        <v>154793.0</v>
+        <v>154793</v>
       </c>
       <c r="AI15" t="n">
-        <v>295656.0</v>
+        <v>295656</v>
       </c>
       <c r="AJ15" t="n">
-        <v>91216.0</v>
+        <v>91216</v>
       </c>
       <c r="AK15" t="n">
-        <v>735684.0</v>
+        <v>735684</v>
       </c>
       <c r="AL15" t="n">
-        <v>497328.0</v>
+        <v>497328</v>
       </c>
       <c r="AM15" t="n">
-        <v>156189.0</v>
+        <v>156189</v>
       </c>
       <c r="AN15" t="n">
-        <v>534083.0</v>
+        <v>534083</v>
       </c>
       <c r="AO15" t="n">
-        <v>7692147.0</v>
+        <v>7692147</v>
       </c>
       <c r="AP15" t="n">
-        <v>2931921.0</v>
+        <v>2931921</v>
       </c>
       <c r="AQ15" t="n">
-        <v>1.592688E7</v>
+        <v>15926880</v>
       </c>
       <c r="AR15" t="n">
-        <v>4011194.0</v>
+        <v>4011194</v>
       </c>
       <c r="AS15" t="n">
-        <v>56977.0</v>
+        <v>56977</v>
       </c>
       <c r="AT15" t="n">
-        <v>60873.0</v>
+        <v>60873</v>
       </c>
       <c r="AU15" t="n">
-        <v>792190.0</v>
+        <v>792190</v>
       </c>
       <c r="AV15" t="n">
-        <v>436693.0</v>
+        <v>436693</v>
       </c>
       <c r="AW15" t="n">
-        <v>5238878.0</v>
+        <v>5238878</v>
       </c>
       <c r="AX15" t="n">
-        <v>143165.0</v>
+        <v>143165</v>
       </c>
       <c r="AY15" t="n">
-        <v>164908.0</v>
+        <v>164908</v>
       </c>
       <c r="AZ15" t="n">
-        <v>237623.0</v>
+        <v>237623</v>
       </c>
       <c r="BA15" t="n">
-        <v>749559.0</v>
+        <v>749559</v>
       </c>
       <c r="BB15" t="n">
-        <v>1195944.0</v>
+        <v>1195944</v>
       </c>
       <c r="BC15" t="n">
-        <v>438257.0</v>
+        <v>438257</v>
       </c>
       <c r="BD15" t="n">
-        <v>1843447.0</v>
+        <v>1843447</v>
       </c>
       <c r="BE15" t="n">
-        <v>588343.0</v>
+        <v>588343</v>
       </c>
       <c r="BF15" t="n">
-        <v>553614.0</v>
+        <v>553614</v>
       </c>
       <c r="BG15" t="n">
-        <v>303515.0</v>
+        <v>303515</v>
       </c>
       <c r="BH15" t="n">
-        <v>4041460.0</v>
+        <v>4041460</v>
       </c>
       <c r="BI15" t="n">
-        <v>805062.0</v>
+        <v>805062</v>
       </c>
       <c r="BJ15" t="n">
-        <v>4819505.0</v>
+        <v>4819505</v>
       </c>
       <c r="BK15" t="n">
-        <v>4084380.0</v>
+        <v>4084380</v>
       </c>
       <c r="BL15" t="n">
-        <v>2597443.0</v>
+        <v>2597443</v>
       </c>
       <c r="BM15" t="n">
-        <v>2147269.0</v>
+        <v>2147269</v>
       </c>
       <c r="BN15" t="n">
-        <v>3192028.0</v>
+        <v>3192028</v>
       </c>
       <c r="BO15" t="n">
-        <v>1072410.0</v>
+        <v>1072410</v>
       </c>
       <c r="BP15" t="n">
-        <v>4267479.0</v>
+        <v>4267479</v>
       </c>
       <c r="BQ15" t="n">
-        <v>6483638.0</v>
+        <v>6483638</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
 </worksheet>
 </file>
--- a/Topicos Fundamentais/Top5/TRU/TRU_VA_corrente_2017.xlsx
+++ b/Topicos Fundamentais/Top5/TRU/TRU_VA_corrente_2017.xlsx
@@ -658,7 +658,7 @@
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="1"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
@@ -883,175 +883,175 @@
         <v>27482</v>
       </c>
       <c r="E2" t="n">
-        <v>7793</v>
+        <v>7798</v>
       </c>
       <c r="F2" t="n">
-        <v>41203</v>
+        <v>41283</v>
       </c>
       <c r="G2" t="n">
-        <v>36606</v>
+        <v>36632</v>
       </c>
       <c r="H2" t="n">
-        <v>4975</v>
+        <v>4983</v>
       </c>
       <c r="I2" t="n">
-        <v>45519</v>
+        <v>45566</v>
       </c>
       <c r="J2" t="n">
-        <v>12726</v>
+        <v>12744</v>
       </c>
       <c r="K2" t="n">
-        <v>64350</v>
+        <v>64386</v>
       </c>
       <c r="L2" t="n">
-        <v>20133</v>
+        <v>20153</v>
       </c>
       <c r="M2" t="n">
-        <v>3159</v>
+        <v>3161</v>
       </c>
       <c r="N2" t="n">
-        <v>15548</v>
+        <v>15550</v>
       </c>
       <c r="O2" t="n">
-        <v>27318</v>
+        <v>27324</v>
       </c>
       <c r="P2" t="n">
-        <v>15296</v>
+        <v>15301</v>
       </c>
       <c r="Q2" t="n">
-        <v>10978</v>
+        <v>10980</v>
       </c>
       <c r="R2" t="n">
-        <v>27370</v>
+        <v>27402</v>
       </c>
       <c r="S2" t="n">
-        <v>8095</v>
+        <v>8099</v>
       </c>
       <c r="T2" t="n">
-        <v>56277</v>
+        <v>56287</v>
       </c>
       <c r="U2" t="n">
-        <v>9990</v>
+        <v>10000</v>
       </c>
       <c r="V2" t="n">
-        <v>26864</v>
+        <v>26888</v>
       </c>
       <c r="W2" t="n">
-        <v>18757</v>
+        <v>18771</v>
       </c>
       <c r="X2" t="n">
-        <v>11398</v>
+        <v>11407</v>
       </c>
       <c r="Y2" t="n">
-        <v>30399</v>
+        <v>30419</v>
       </c>
       <c r="Z2" t="n">
-        <v>29234</v>
+        <v>29255</v>
       </c>
       <c r="AA2" t="n">
-        <v>22664</v>
+        <v>22685</v>
       </c>
       <c r="AB2" t="n">
-        <v>19294</v>
+        <v>19345</v>
       </c>
       <c r="AC2" t="n">
-        <v>12414</v>
+        <v>12432</v>
       </c>
       <c r="AD2" t="n">
-        <v>32059</v>
+        <v>32074</v>
       </c>
       <c r="AE2" t="n">
-        <v>16999</v>
+        <v>17030</v>
       </c>
       <c r="AF2" t="n">
-        <v>16434</v>
+        <v>16444</v>
       </c>
       <c r="AG2" t="n">
-        <v>37561</v>
+        <v>37584</v>
       </c>
       <c r="AH2" t="n">
-        <v>20032</v>
+        <v>20072</v>
       </c>
       <c r="AI2" t="n">
-        <v>23900</v>
+        <v>23921</v>
       </c>
       <c r="AJ2" t="n">
-        <v>12849</v>
+        <v>12852</v>
       </c>
       <c r="AK2" t="n">
-        <v>31360</v>
+        <v>31368</v>
       </c>
       <c r="AL2" t="n">
-        <v>26556</v>
+        <v>26562</v>
       </c>
       <c r="AM2" t="n">
-        <v>110371</v>
+        <v>110467</v>
       </c>
       <c r="AN2" t="n">
-        <v>45739</v>
+        <v>45775</v>
       </c>
       <c r="AO2" t="n">
-        <v>244711</v>
+        <v>244800</v>
       </c>
       <c r="AP2" t="n">
-        <v>94794</v>
+        <v>94825</v>
       </c>
       <c r="AQ2" t="n">
-        <v>651003</v>
+        <v>651334</v>
       </c>
       <c r="AR2" t="n">
-        <v>154160</v>
+        <v>154293</v>
       </c>
       <c r="AS2" t="n">
-        <v>9431</v>
+        <v>9444</v>
       </c>
       <c r="AT2" t="n">
-        <v>10042</v>
+        <v>10059</v>
       </c>
       <c r="AU2" t="n">
-        <v>71898</v>
+        <v>72279</v>
       </c>
       <c r="AV2" t="n">
-        <v>13326</v>
+        <v>13331</v>
       </c>
       <c r="AW2" t="n">
-        <v>124201</v>
+        <v>124223</v>
       </c>
       <c r="AX2" t="n">
-        <v>8301</v>
+        <v>8306</v>
       </c>
       <c r="AY2" t="n">
-        <v>17635</v>
+        <v>17648</v>
       </c>
       <c r="AZ2" t="n">
-        <v>69191</v>
+        <v>69261</v>
       </c>
       <c r="BA2" t="n">
-        <v>99247</v>
+        <v>99294</v>
       </c>
       <c r="BB2" t="n">
         <v>429463</v>
       </c>
       <c r="BC2" t="n">
-        <v>558042</v>
+        <v>558054</v>
       </c>
       <c r="BD2" t="n">
-        <v>146107</v>
+        <v>146164</v>
       </c>
       <c r="BE2" t="n">
-        <v>34316</v>
+        <v>34340</v>
       </c>
       <c r="BF2" t="n">
-        <v>34966</v>
+        <v>34977</v>
       </c>
       <c r="BG2" t="n">
-        <v>27797</v>
+        <v>27812</v>
       </c>
       <c r="BH2" t="n">
-        <v>165500</v>
+        <v>165530</v>
       </c>
       <c r="BI2" t="n">
-        <v>34328</v>
+        <v>34332</v>
       </c>
       <c r="BJ2" t="n">
         <v>587600</v>
@@ -1060,19 +1060,19 @@
         <v>283544</v>
       </c>
       <c r="BL2" t="n">
-        <v>93778</v>
+        <v>93823</v>
       </c>
       <c r="BM2" t="n">
         <v>129831</v>
       </c>
       <c r="BN2" t="n">
-        <v>150658</v>
+        <v>150676</v>
       </c>
       <c r="BO2" t="n">
-        <v>21426</v>
+        <v>21429</v>
       </c>
       <c r="BP2" t="n">
-        <v>77821</v>
+        <v>77825</v>
       </c>
       <c r="BQ2" t="n">
         <v>71458</v>
@@ -1218,7 +1218,7 @@
         <v>6369</v>
       </c>
       <c r="AU3" t="n">
-        <v>44069</v>
+        <v>44134</v>
       </c>
       <c r="AV3" t="n">
         <v>10872</v>
@@ -1427,7 +1427,7 @@
         <v>5281</v>
       </c>
       <c r="AU4" t="n">
-        <v>34063</v>
+        <v>34128</v>
       </c>
       <c r="AV4" t="n">
         <v>9119</v>
@@ -2346,175 +2346,175 @@
         <v>25027</v>
       </c>
       <c r="E9" t="n">
-        <v>3483</v>
+        <v>3488</v>
       </c>
       <c r="F9" t="n">
-        <v>22399</v>
+        <v>22479</v>
       </c>
       <c r="G9" t="n">
-        <v>33159</v>
+        <v>33185</v>
       </c>
       <c r="H9" t="n">
-        <v>2367</v>
+        <v>2375</v>
       </c>
       <c r="I9" t="n">
-        <v>14905</v>
+        <v>14952</v>
       </c>
       <c r="J9" t="n">
-        <v>2579</v>
+        <v>2597</v>
       </c>
       <c r="K9" t="n">
-        <v>27414</v>
+        <v>27450</v>
       </c>
       <c r="L9" t="n">
-        <v>10073</v>
+        <v>10093</v>
       </c>
       <c r="M9" t="n">
-        <v>1394</v>
+        <v>1396</v>
       </c>
       <c r="N9" t="n">
-        <v>4085</v>
+        <v>4087</v>
       </c>
       <c r="O9" t="n">
-        <v>8258</v>
+        <v>8264</v>
       </c>
       <c r="P9" t="n">
-        <v>3948</v>
+        <v>3953</v>
       </c>
       <c r="Q9" t="n">
-        <v>4102</v>
+        <v>4104</v>
       </c>
       <c r="R9" t="n">
-        <v>12926</v>
+        <v>12958</v>
       </c>
       <c r="S9" t="n">
-        <v>2062</v>
+        <v>2066</v>
       </c>
       <c r="T9" t="n">
-        <v>47753</v>
+        <v>47763</v>
       </c>
       <c r="U9" t="n">
-        <v>3081</v>
+        <v>3091</v>
       </c>
       <c r="V9" t="n">
-        <v>13279</v>
+        <v>13303</v>
       </c>
       <c r="W9" t="n">
-        <v>8878</v>
+        <v>8892</v>
       </c>
       <c r="X9" t="n">
-        <v>4962</v>
+        <v>4971</v>
       </c>
       <c r="Y9" t="n">
-        <v>18391</v>
+        <v>18411</v>
       </c>
       <c r="Z9" t="n">
-        <v>7237</v>
+        <v>7258</v>
       </c>
       <c r="AA9" t="n">
-        <v>2250</v>
+        <v>2271</v>
       </c>
       <c r="AB9" t="n">
-        <v>5914</v>
+        <v>5965</v>
       </c>
       <c r="AC9" t="n">
-        <v>6051</v>
+        <v>6069</v>
       </c>
       <c r="AD9" t="n">
-        <v>9015</v>
+        <v>9030</v>
       </c>
       <c r="AE9" t="n">
-        <v>6693</v>
+        <v>6724</v>
       </c>
       <c r="AF9" t="n">
-        <v>1281</v>
+        <v>1291</v>
       </c>
       <c r="AG9" t="n">
-        <v>9916</v>
+        <v>9939</v>
       </c>
       <c r="AH9" t="n">
-        <v>-710</v>
+        <v>-670</v>
       </c>
       <c r="AI9" t="n">
-        <v>2914</v>
+        <v>2935</v>
       </c>
       <c r="AJ9" t="n">
-        <v>4016</v>
+        <v>4019</v>
       </c>
       <c r="AK9" t="n">
-        <v>14687</v>
+        <v>14695</v>
       </c>
       <c r="AL9" t="n">
-        <v>13640</v>
+        <v>13646</v>
       </c>
       <c r="AM9" t="n">
-        <v>89108</v>
+        <v>89204</v>
       </c>
       <c r="AN9" t="n">
-        <v>23108</v>
+        <v>23144</v>
       </c>
       <c r="AO9" t="n">
-        <v>137947</v>
+        <v>138036</v>
       </c>
       <c r="AP9" t="n">
-        <v>47206</v>
+        <v>47237</v>
       </c>
       <c r="AQ9" t="n">
-        <v>304266</v>
+        <v>304597</v>
       </c>
       <c r="AR9" t="n">
-        <v>66126</v>
+        <v>66259</v>
       </c>
       <c r="AS9" t="n">
-        <v>3665</v>
+        <v>3678</v>
       </c>
       <c r="AT9" t="n">
-        <v>3092</v>
+        <v>3109</v>
       </c>
       <c r="AU9" t="n">
-        <v>26230</v>
+        <v>26546</v>
       </c>
       <c r="AV9" t="n">
-        <v>2083</v>
+        <v>2088</v>
       </c>
       <c r="AW9" t="n">
-        <v>68069</v>
+        <v>68091</v>
       </c>
       <c r="AX9" t="n">
-        <v>1526</v>
+        <v>1531</v>
       </c>
       <c r="AY9" t="n">
-        <v>5594</v>
+        <v>5607</v>
       </c>
       <c r="AZ9" t="n">
-        <v>46349</v>
+        <v>46419</v>
       </c>
       <c r="BA9" t="n">
-        <v>43907</v>
+        <v>43954</v>
       </c>
       <c r="BB9" t="n">
         <v>258875</v>
       </c>
       <c r="BC9" t="n">
-        <v>549414</v>
+        <v>549426</v>
       </c>
       <c r="BD9" t="n">
-        <v>84788</v>
+        <v>84845</v>
       </c>
       <c r="BE9" t="n">
-        <v>14607</v>
+        <v>14631</v>
       </c>
       <c r="BF9" t="n">
-        <v>20610</v>
+        <v>20621</v>
       </c>
       <c r="BG9" t="n">
-        <v>16523</v>
+        <v>16538</v>
       </c>
       <c r="BH9" t="n">
-        <v>52192</v>
+        <v>52222</v>
       </c>
       <c r="BI9" t="n">
-        <v>2928</v>
+        <v>2932</v>
       </c>
       <c r="BJ9" t="n">
         <v>84162</v>
@@ -2523,19 +2523,19 @@
         <v>12697</v>
       </c>
       <c r="BL9" t="n">
-        <v>10773</v>
+        <v>10818</v>
       </c>
       <c r="BM9" t="n">
         <v>6270</v>
       </c>
       <c r="BN9" t="n">
-        <v>68667</v>
+        <v>68685</v>
       </c>
       <c r="BO9" t="n">
-        <v>8370</v>
+        <v>8373</v>
       </c>
       <c r="BP9" t="n">
-        <v>35575</v>
+        <v>35579</v>
       </c>
       <c r="BQ9" t="n">
         <v>0</v>
@@ -2764,175 +2764,175 @@
         <v>12734</v>
       </c>
       <c r="E11" t="n">
-        <v>3249</v>
+        <v>3254</v>
       </c>
       <c r="F11" t="n">
-        <v>22399</v>
+        <v>22479</v>
       </c>
       <c r="G11" t="n">
-        <v>33159</v>
+        <v>33185</v>
       </c>
       <c r="H11" t="n">
-        <v>2367</v>
+        <v>2375</v>
       </c>
       <c r="I11" t="n">
-        <v>14569</v>
+        <v>14616</v>
       </c>
       <c r="J11" t="n">
-        <v>2579</v>
+        <v>2597</v>
       </c>
       <c r="K11" t="n">
-        <v>23555</v>
+        <v>23591</v>
       </c>
       <c r="L11" t="n">
-        <v>10052</v>
+        <v>10072</v>
       </c>
       <c r="M11" t="n">
-        <v>1394</v>
+        <v>1396</v>
       </c>
       <c r="N11" t="n">
-        <v>2903</v>
+        <v>2905</v>
       </c>
       <c r="O11" t="n">
-        <v>2256</v>
+        <v>2262</v>
       </c>
       <c r="P11" t="n">
-        <v>3368</v>
+        <v>3373</v>
       </c>
       <c r="Q11" t="n">
-        <v>2586</v>
+        <v>2588</v>
       </c>
       <c r="R11" t="n">
-        <v>12652</v>
+        <v>12684</v>
       </c>
       <c r="S11" t="n">
-        <v>1624</v>
+        <v>1628</v>
       </c>
       <c r="T11" t="n">
-        <v>47753</v>
+        <v>47763</v>
       </c>
       <c r="U11" t="n">
-        <v>3081</v>
+        <v>3091</v>
       </c>
       <c r="V11" t="n">
-        <v>13279</v>
+        <v>13303</v>
       </c>
       <c r="W11" t="n">
-        <v>8878</v>
+        <v>8892</v>
       </c>
       <c r="X11" t="n">
-        <v>4415</v>
+        <v>4424</v>
       </c>
       <c r="Y11" t="n">
-        <v>18391</v>
+        <v>18411</v>
       </c>
       <c r="Z11" t="n">
-        <v>6895</v>
+        <v>6916</v>
       </c>
       <c r="AA11" t="n">
-        <v>1505</v>
+        <v>1526</v>
       </c>
       <c r="AB11" t="n">
-        <v>5914</v>
+        <v>5965</v>
       </c>
       <c r="AC11" t="n">
-        <v>6068</v>
+        <v>6086</v>
       </c>
       <c r="AD11" t="n">
-        <v>6792</v>
+        <v>6807</v>
       </c>
       <c r="AE11" t="n">
-        <v>6693</v>
+        <v>6724</v>
       </c>
       <c r="AF11" t="n">
-        <v>1281</v>
+        <v>1291</v>
       </c>
       <c r="AG11" t="n">
-        <v>9916</v>
+        <v>9939</v>
       </c>
       <c r="AH11" t="n">
-        <v>-710</v>
+        <v>-670</v>
       </c>
       <c r="AI11" t="n">
-        <v>2887</v>
+        <v>2908</v>
       </c>
       <c r="AJ11" t="n">
-        <v>4016</v>
+        <v>4019</v>
       </c>
       <c r="AK11" t="n">
-        <v>13447</v>
+        <v>13455</v>
       </c>
       <c r="AL11" t="n">
-        <v>9219</v>
+        <v>9225</v>
       </c>
       <c r="AM11" t="n">
-        <v>89108</v>
+        <v>89204</v>
       </c>
       <c r="AN11" t="n">
-        <v>21499</v>
+        <v>21535</v>
       </c>
       <c r="AO11" t="n">
-        <v>66166</v>
+        <v>66255</v>
       </c>
       <c r="AP11" t="n">
-        <v>25105</v>
+        <v>25136</v>
       </c>
       <c r="AQ11" t="n">
-        <v>244905</v>
+        <v>245236</v>
       </c>
       <c r="AR11" t="n">
-        <v>42117</v>
+        <v>42250</v>
       </c>
       <c r="AS11" t="n">
-        <v>3226</v>
+        <v>3239</v>
       </c>
       <c r="AT11" t="n">
-        <v>3092</v>
+        <v>3109</v>
       </c>
       <c r="AU11" t="n">
-        <v>24990</v>
+        <v>25306</v>
       </c>
       <c r="AV11" t="n">
-        <v>947</v>
+        <v>952</v>
       </c>
       <c r="AW11" t="n">
-        <v>25325</v>
+        <v>25347</v>
       </c>
       <c r="AX11" t="n">
-        <v>1321</v>
+        <v>1326</v>
       </c>
       <c r="AY11" t="n">
-        <v>4742</v>
+        <v>4755</v>
       </c>
       <c r="AZ11" t="n">
-        <v>46094</v>
+        <v>46164</v>
       </c>
       <c r="BA11" t="n">
-        <v>36011</v>
+        <v>36058</v>
       </c>
       <c r="BB11" t="n">
         <v>256737</v>
       </c>
       <c r="BC11" t="n">
-        <v>545285</v>
+        <v>545297</v>
       </c>
       <c r="BD11" t="n">
-        <v>50211</v>
+        <v>50268</v>
       </c>
       <c r="BE11" t="n">
-        <v>5594</v>
+        <v>5618</v>
       </c>
       <c r="BF11" t="n">
-        <v>14685</v>
+        <v>14696</v>
       </c>
       <c r="BG11" t="n">
-        <v>15862</v>
+        <v>15877</v>
       </c>
       <c r="BH11" t="n">
-        <v>45635</v>
+        <v>45665</v>
       </c>
       <c r="BI11" t="n">
-        <v>1698</v>
+        <v>1702</v>
       </c>
       <c r="BJ11" t="n">
         <v>84162</v>
@@ -2941,19 +2941,19 @@
         <v>12697</v>
       </c>
       <c r="BL11" t="n">
-        <v>5071</v>
+        <v>5116</v>
       </c>
       <c r="BM11" t="n">
         <v>6270</v>
       </c>
       <c r="BN11" t="n">
-        <v>30207</v>
+        <v>30225</v>
       </c>
       <c r="BO11" t="n">
-        <v>2507</v>
+        <v>2510</v>
       </c>
       <c r="BP11" t="n">
-        <v>7540</v>
+        <v>7544</v>
       </c>
       <c r="BQ11" t="n">
         <v>0</v>
@@ -3517,7 +3517,7 @@
         <v>40508</v>
       </c>
       <c r="AU14" t="n">
-        <v>124316</v>
+        <v>126476</v>
       </c>
       <c r="AV14" t="n">
         <v>25389</v>
@@ -3726,7 +3726,7 @@
         <v>60873</v>
       </c>
       <c r="AU15" t="n">
-        <v>792190</v>
+        <v>793127</v>
       </c>
       <c r="AV15" t="n">
         <v>436693</v>

--- a/Topicos Fundamentais/Top5/TRU/TRU_VA_corrente_2017.xlsx
+++ b/Topicos Fundamentais/Top5/TRU/TRU_VA_corrente_2017.xlsx
@@ -3,343 +3,340 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <workbookPr date1904="false"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="0" activeTab="0"/>
+    <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet 1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" r:id="rId3" sheetId="1"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="83">
-  <si>
-    <t xml:space="preserve"/>
-  </si>
-  <si>
-    <t xml:space="preserve">0191
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="82">
+  <si>
+    <t>0191
 Agricultura, inclusive o apoio à agricultura e a pós-colheita</t>
   </si>
   <si>
-    <t xml:space="preserve">0192
+    <t>0192
 Pecuária, inclusive o apoio à pecuária</t>
   </si>
   <si>
-    <t xml:space="preserve">0280
+    <t>0280
 Produção florestal; pesca e aquicultura</t>
   </si>
   <si>
-    <t xml:space="preserve">0580
+    <t>0580
 Extração de carvão mineral e de minerais não-metálicos</t>
   </si>
   <si>
-    <t xml:space="preserve">0680
+    <t>0680
 Extração de petróleo e gás, inclusive as atividades de apoio</t>
   </si>
   <si>
-    <t xml:space="preserve">0791
+    <t>0791
 Extração de minério de ferro, inclusive beneficiamentos e a aglomeração</t>
   </si>
   <si>
-    <t xml:space="preserve">0792
+    <t>0792
 Extração de minerais metálicos não-ferrosos, inclusive beneficiamentos</t>
   </si>
   <si>
-    <t xml:space="preserve">1091
+    <t>1091
 Abate e produtos de carne, inclusive os produtos do laticínio e da pesca</t>
   </si>
   <si>
-    <t xml:space="preserve">1092
+    <t>1092
 Fabricação e refino de açúcar</t>
   </si>
   <si>
-    <t xml:space="preserve">1093
+    <t>1093
 Outros produtos alimentares</t>
   </si>
   <si>
-    <t xml:space="preserve">1100
+    <t>1100
 Fabricação de bebidas</t>
   </si>
   <si>
-    <t xml:space="preserve">1200
+    <t>1200
 Fabricação de produtos do fumo</t>
   </si>
   <si>
-    <t xml:space="preserve">1300
+    <t>1300
 Fabricação de produtos têxteis</t>
   </si>
   <si>
-    <t xml:space="preserve">1400
+    <t>1400
 Confecção de artefatos do vestuário e acessórios</t>
   </si>
   <si>
-    <t xml:space="preserve">1500
+    <t>1500
 Fabricação de calçados e de artefatos de couro</t>
   </si>
   <si>
-    <t xml:space="preserve">1600
+    <t>1600
 Fabricação de produtos da madeira</t>
   </si>
   <si>
-    <t xml:space="preserve">1700
+    <t>1700
 Fabricação de celulose, papel e produtos de papel</t>
   </si>
   <si>
-    <t xml:space="preserve">1800
+    <t>1800
 Impressão e reprodução de gravações</t>
   </si>
   <si>
-    <t xml:space="preserve">1991
+    <t>1991
 Refino de petróleo e coquerias</t>
   </si>
   <si>
-    <t xml:space="preserve">1992
+    <t>1992
 Fabricação de biocombustíveis</t>
   </si>
   <si>
-    <t xml:space="preserve">2091
+    <t>2091
 Fabricação de químicos orgânicos e inorgânicos, resinas e elastômeros</t>
   </si>
   <si>
-    <t xml:space="preserve">2092
+    <t>2092
 Fabricação de defensivos, desinfestantes, tintas e químicos diversos</t>
   </si>
   <si>
-    <t xml:space="preserve">2093
+    <t>2093
 Fabricação de produtos de limpeza, cosméticos/perfumaria e higiene pessoal</t>
   </si>
   <si>
-    <t xml:space="preserve">2100
+    <t>2100
 Fabricação de produtos farmoquímicos e farmacêuticos</t>
   </si>
   <si>
-    <t xml:space="preserve">2200
+    <t>2200
 Fabricação de produtos de borracha e de material plástico</t>
   </si>
   <si>
-    <t xml:space="preserve">2300
+    <t>2300
 Fabricação de produtos de minerais não-metálicos</t>
   </si>
   <si>
-    <t xml:space="preserve">2491
+    <t>2491
 Produção de ferro-gusa/ferroligas, siderurgia e tubos de aço sem costura</t>
   </si>
   <si>
-    <t xml:space="preserve">2492
+    <t>2492
 Metalurgia de metais não-ferrosos e a fundição de metais</t>
   </si>
   <si>
-    <t xml:space="preserve">2500
+    <t>2500
 Fabricação de produtos de metal, exceto máquinas e equipamentos</t>
   </si>
   <si>
-    <t xml:space="preserve">2600
+    <t>2600
 Fabricação de equipamentos de informática, produtos eletrônicos e ópticos</t>
   </si>
   <si>
-    <t xml:space="preserve">2700
+    <t>2700
 Fabricação de máquinas e equipamentos elétricos</t>
   </si>
   <si>
-    <t xml:space="preserve">2800
+    <t>2800
 Fabricação de máquinas e equipamentos mecânicos</t>
   </si>
   <si>
-    <t xml:space="preserve">2991
+    <t>2991
 Fabricação de automóveis, caminhões e ônibus, exceto peças</t>
   </si>
   <si>
-    <t xml:space="preserve">2992
+    <t>2992
 Fabricação de peças e acessórios para veículos automotores</t>
   </si>
   <si>
-    <t xml:space="preserve">3000
+    <t>3000
 Fabricação de outros equipamentos de transporte, exceto veículos automotores</t>
   </si>
   <si>
-    <t xml:space="preserve">3180
+    <t>3180
 Fabricação de móveis e de produtos de indústrias diversas</t>
   </si>
   <si>
-    <t xml:space="preserve">3300
+    <t>3300
 Manutenção, reparação e instalação de máquinas e equipamentos</t>
   </si>
   <si>
-    <t xml:space="preserve">3500
+    <t>3500
 Energia elétrica, gás natural e outras utilidades</t>
   </si>
   <si>
-    <t xml:space="preserve">3680
+    <t>3680
 Água, esgoto e gestão de resíduos</t>
   </si>
   <si>
-    <t xml:space="preserve">4180
+    <t>4180
 Construção</t>
   </si>
   <si>
-    <t xml:space="preserve">4500
+    <t>4500
 Comércio e reparação de veículos automotores e motocicletas</t>
   </si>
   <si>
-    <t xml:space="preserve">4680
+    <t>4680
 Comércio por atacado e a varejo, exceto veículos automotores</t>
   </si>
   <si>
-    <t xml:space="preserve">4900
+    <t>4900
 Transporte terrestre</t>
   </si>
   <si>
-    <t xml:space="preserve">5000
+    <t>5000
 Transporte aquaviário</t>
   </si>
   <si>
-    <t xml:space="preserve">5100
+    <t>5100
 Transporte aéreo</t>
   </si>
   <si>
-    <t xml:space="preserve">5280
+    <t>5280
 Armazenamento, atividades auxiliares dos transportes e correio</t>
   </si>
   <si>
-    <t xml:space="preserve">5500
+    <t>5500
 Alojamento</t>
   </si>
   <si>
-    <t xml:space="preserve">5600
+    <t>5600
 Alimentação</t>
   </si>
   <si>
-    <t xml:space="preserve">5800
+    <t>5800
 Edição e edição integrada à impressão</t>
   </si>
   <si>
-    <t xml:space="preserve">5980
+    <t>5980
 Atividades de televisão, rádio, cinema e  gravação/edição de som e imagem</t>
   </si>
   <si>
-    <t xml:space="preserve">6100
+    <t>6100
 Telecomunicações</t>
   </si>
   <si>
-    <t xml:space="preserve">6280
+    <t>6280
 Desenvolvimento de sistemas e outros serviços de informação</t>
   </si>
   <si>
-    <t xml:space="preserve">6480
+    <t>6480
 Intermediação financeira, seguros e previdência complementar</t>
   </si>
   <si>
-    <t xml:space="preserve">6800
+    <t>6800
 Atividades imobiliárias</t>
   </si>
   <si>
-    <t xml:space="preserve">6980
+    <t>6980
 Atividades jurídicas, contábeis, consultoria e sedes de empresas</t>
   </si>
   <si>
-    <t xml:space="preserve">7180
+    <t>7180
 Serviços de arquitetura, engenharia, testes/análises técnicas e P &amp; D</t>
   </si>
   <si>
-    <t xml:space="preserve">7380
+    <t>7380
 Outras atividades profissionais, científicas e técnicas</t>
   </si>
   <si>
-    <t xml:space="preserve">7700
+    <t>7700
 Aluguéis não-imobiliários e gestão de ativos de propriedade intelectual</t>
   </si>
   <si>
-    <t xml:space="preserve">7880
+    <t>7880
 Outras atividades administrativas e serviços complementares</t>
   </si>
   <si>
-    <t xml:space="preserve">8000
+    <t>8000
 Atividades de vigilância, segurança e investigação</t>
   </si>
   <si>
-    <t xml:space="preserve">8400
+    <t>8400
 Administração pública, defesa e seguridade social</t>
   </si>
   <si>
-    <t xml:space="preserve">8591
+    <t>8591
 Educação pública</t>
   </si>
   <si>
-    <t xml:space="preserve">8592
+    <t>8592
 Educação privada</t>
   </si>
   <si>
-    <t xml:space="preserve">8691
+    <t>8691
 Saúde pública</t>
   </si>
   <si>
-    <t xml:space="preserve">8692
+    <t>8692
 Saúde privada</t>
   </si>
   <si>
-    <t xml:space="preserve">9080
+    <t>9080
 Atividades artísticas, criativas e de espetáculos</t>
   </si>
   <si>
-    <t xml:space="preserve">9480
+    <t>9480
 Organizações associativas e outros serviços pessoais</t>
   </si>
   <si>
-    <t xml:space="preserve">9700
+    <t>9700
 Serviços domésticos</t>
   </si>
   <si>
-    <t xml:space="preserve">Valor adicionado bruto ( PIB )</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Remunerações</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Salários</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Contribuições sociais efetivas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Previdência oficial /FGTS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Previdência privada</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Contribuições sociais imputadas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Excedente operacional bruto e rendimento misto bruto</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rendimento misto bruto</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Excedente operacional bruto (EOB)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Outros impostos sobre a produção</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Outros subsídios à produção</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Valor da produção</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fator trabalho (ocupações)</t>
+    <t>Valor adicionado bruto ( PIB )</t>
+  </si>
+  <si>
+    <t>Remunerações</t>
+  </si>
+  <si>
+    <t>Salários</t>
+  </si>
+  <si>
+    <t>Contribuições sociais efetivas</t>
+  </si>
+  <si>
+    <t>Previdência oficial /FGTS</t>
+  </si>
+  <si>
+    <t>Previdência privada</t>
+  </si>
+  <si>
+    <t>Contribuições sociais imputadas</t>
+  </si>
+  <si>
+    <t>Excedente operacional bruto e rendimento misto bruto</t>
+  </si>
+  <si>
+    <t>Rendimento misto bruto</t>
+  </si>
+  <si>
+    <t>Excedente operacional bruto (EOB)</t>
+  </si>
+  <si>
+    <t>Outros impostos sobre a produção</t>
+  </si>
+  <si>
+    <t>Outros subsídios à produção</t>
+  </si>
+  <si>
+    <t>Valor da produção</t>
+  </si>
+  <si>
+    <t>Fator trabalho (ocupações)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
   <fonts count="1">
     <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -350,7 +347,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="gray125"/>
+      <patternFill patternType="darkGray"/>
     </fill>
   </fills>
   <borders count="1">
@@ -368,3435 +365,3151 @@
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-  </cellStyles>
-  <dxfs count="0"/>
 </styleSheet>
 </file>
 
-<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
-  <a:themeElements>
-    <a:clrScheme name="Office">
-      <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
-      </a:dk1>
-      <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
-      </a:lt1>
-      <a:dk2>
-        <a:srgbClr val="1F497D"/>
-      </a:dk2>
-      <a:lt2>
-        <a:srgbClr val="EEECE1"/>
-      </a:lt2>
-      <a:accent1>
-        <a:srgbClr val="4F81BD"/>
-      </a:accent1>
-      <a:accent2>
-        <a:srgbClr val="C0504D"/>
-      </a:accent2>
-      <a:accent3>
-        <a:srgbClr val="9BBB59"/>
-      </a:accent3>
-      <a:accent4>
-        <a:srgbClr val="8064A2"/>
-      </a:accent4>
-      <a:accent5>
-        <a:srgbClr val="4BACC6"/>
-      </a:accent5>
-      <a:accent6>
-        <a:srgbClr val="F79646"/>
-      </a:accent6>
-      <a:hlink>
-        <a:srgbClr val="0000FF"/>
-      </a:hlink>
-      <a:folHlink>
-        <a:srgbClr val="800080"/>
-      </a:folHlink>
-    </a:clrScheme>
-    <a:fontScheme name="Office">
-      <a:majorFont>
-        <a:latin typeface="Cambria"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-      </a:majorFont>
-      <a:minorFont>
-        <a:latin typeface="Calibri"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-      </a:minorFont>
-    </a:fontScheme>
-    <a:fmtScheme name="Office">
-      <a:fillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="50000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="35000">
-              <a:schemeClr val="phClr">
-                <a:tint val="37000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:tint val="15000"/>
-                <a:satMod val="350000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:shade val="51000"/>
-                <a:satMod val="130000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="80000">
-              <a:schemeClr val="phClr">
-                <a:shade val="93000"/>
-                <a:satMod val="130000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="94000"/>
-                <a:satMod val="135000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="16200000" scaled="0"/>
-        </a:gradFill>
-      </a:fillStyleLst>
-      <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr">
-              <a:shade val="95000"/>
-              <a:satMod val="105000"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-      </a:lnStyleLst>
-      <a:effectStyleLst>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="38000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-          <a:scene3d>
-            <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
-            </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
-            </a:lightRig>
-          </a:scene3d>
-          <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
-          </a:sp3d>
-        </a:effectStyle>
-      </a:effectStyleLst>
-      <a:bgFillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="40000"/>
-                <a:satMod val="350000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="40000">
-              <a:schemeClr val="phClr">
-                <a:tint val="45000"/>
-                <a:shade val="99000"/>
-                <a:satMod val="350000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="20000"/>
-                <a:satMod val="255000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
-          </a:path>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="80000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="30000"/>
-                <a:satMod val="200000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-          </a:path>
-        </a:gradFill>
-      </a:bgFillStyleLst>
-    </a:fmtScheme>
-  </a:themeElements>
-  <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-</a:theme>
-</file>
-
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="1"/>
+    <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s">
+      <c r="A1"/>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>18</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>19</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>20</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>21</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>22</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AB1" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AC1" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AD1" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AE1" t="s">
         <v>29</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AF1" t="s">
         <v>30</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AG1" t="s">
         <v>31</v>
       </c>
-      <c r="AG1" t="s">
+      <c r="AH1" t="s">
         <v>32</v>
       </c>
-      <c r="AH1" t="s">
+      <c r="AI1" t="s">
         <v>33</v>
       </c>
-      <c r="AI1" t="s">
+      <c r="AJ1" t="s">
         <v>34</v>
       </c>
-      <c r="AJ1" t="s">
+      <c r="AK1" t="s">
         <v>35</v>
       </c>
-      <c r="AK1" t="s">
+      <c r="AL1" t="s">
         <v>36</v>
       </c>
-      <c r="AL1" t="s">
+      <c r="AM1" t="s">
         <v>37</v>
       </c>
-      <c r="AM1" t="s">
+      <c r="AN1" t="s">
         <v>38</v>
       </c>
-      <c r="AN1" t="s">
+      <c r="AO1" t="s">
         <v>39</v>
       </c>
-      <c r="AO1" t="s">
+      <c r="AP1" t="s">
         <v>40</v>
       </c>
-      <c r="AP1" t="s">
+      <c r="AQ1" t="s">
         <v>41</v>
       </c>
-      <c r="AQ1" t="s">
+      <c r="AR1" t="s">
         <v>42</v>
       </c>
-      <c r="AR1" t="s">
+      <c r="AS1" t="s">
         <v>43</v>
       </c>
-      <c r="AS1" t="s">
+      <c r="AT1" t="s">
         <v>44</v>
       </c>
-      <c r="AT1" t="s">
+      <c r="AU1" t="s">
         <v>45</v>
       </c>
-      <c r="AU1" t="s">
+      <c r="AV1" t="s">
         <v>46</v>
       </c>
-      <c r="AV1" t="s">
+      <c r="AW1" t="s">
         <v>47</v>
       </c>
-      <c r="AW1" t="s">
+      <c r="AX1" t="s">
         <v>48</v>
       </c>
-      <c r="AX1" t="s">
+      <c r="AY1" t="s">
         <v>49</v>
       </c>
-      <c r="AY1" t="s">
+      <c r="AZ1" t="s">
         <v>50</v>
       </c>
-      <c r="AZ1" t="s">
+      <c r="BA1" t="s">
         <v>51</v>
       </c>
-      <c r="BA1" t="s">
+      <c r="BB1" t="s">
         <v>52</v>
       </c>
-      <c r="BB1" t="s">
+      <c r="BC1" t="s">
         <v>53</v>
       </c>
-      <c r="BC1" t="s">
+      <c r="BD1" t="s">
         <v>54</v>
       </c>
-      <c r="BD1" t="s">
+      <c r="BE1" t="s">
         <v>55</v>
       </c>
-      <c r="BE1" t="s">
+      <c r="BF1" t="s">
         <v>56</v>
       </c>
-      <c r="BF1" t="s">
+      <c r="BG1" t="s">
         <v>57</v>
       </c>
-      <c r="BG1" t="s">
+      <c r="BH1" t="s">
         <v>58</v>
       </c>
-      <c r="BH1" t="s">
+      <c r="BI1" t="s">
         <v>59</v>
       </c>
-      <c r="BI1" t="s">
+      <c r="BJ1" t="s">
         <v>60</v>
       </c>
-      <c r="BJ1" t="s">
+      <c r="BK1" t="s">
         <v>61</v>
       </c>
-      <c r="BK1" t="s">
+      <c r="BL1" t="s">
         <v>62</v>
       </c>
-      <c r="BL1" t="s">
+      <c r="BM1" t="s">
         <v>63</v>
       </c>
-      <c r="BM1" t="s">
+      <c r="BN1" t="s">
         <v>64</v>
       </c>
-      <c r="BN1" t="s">
+      <c r="BO1" t="s">
         <v>65</v>
       </c>
-      <c r="BO1" t="s">
+      <c r="BP1" t="s">
         <v>66</v>
       </c>
-      <c r="BP1" t="s">
+      <c r="BQ1" t="s">
         <v>67</v>
-      </c>
-      <c r="BQ1" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B2" t="n">
-        <v>200103</v>
+        <v>200103.0</v>
       </c>
       <c r="C2" t="n">
-        <v>75386</v>
+        <v>75386.0</v>
       </c>
       <c r="D2" t="n">
-        <v>27482</v>
+        <v>27482.0</v>
       </c>
       <c r="E2" t="n">
-        <v>7798</v>
+        <v>7798.0</v>
       </c>
       <c r="F2" t="n">
-        <v>41283</v>
+        <v>41283.0</v>
       </c>
       <c r="G2" t="n">
-        <v>36632</v>
+        <v>36632.0</v>
       </c>
       <c r="H2" t="n">
-        <v>4983</v>
+        <v>4983.0</v>
       </c>
       <c r="I2" t="n">
-        <v>45566</v>
+        <v>45566.0</v>
       </c>
       <c r="J2" t="n">
-        <v>12744</v>
+        <v>12744.0</v>
       </c>
       <c r="K2" t="n">
-        <v>64386</v>
+        <v>64386.0</v>
       </c>
       <c r="L2" t="n">
-        <v>20153</v>
+        <v>20153.0</v>
       </c>
       <c r="M2" t="n">
-        <v>3161</v>
+        <v>3161.0</v>
       </c>
       <c r="N2" t="n">
-        <v>15550</v>
+        <v>15550.0</v>
       </c>
       <c r="O2" t="n">
-        <v>27324</v>
+        <v>27324.0</v>
       </c>
       <c r="P2" t="n">
-        <v>15301</v>
+        <v>15301.0</v>
       </c>
       <c r="Q2" t="n">
-        <v>10980</v>
+        <v>10980.0</v>
       </c>
       <c r="R2" t="n">
-        <v>27402</v>
+        <v>27402.0</v>
       </c>
       <c r="S2" t="n">
-        <v>8099</v>
+        <v>8099.0</v>
       </c>
       <c r="T2" t="n">
-        <v>56287</v>
+        <v>56287.0</v>
       </c>
       <c r="U2" t="n">
-        <v>10000</v>
+        <v>10000.0</v>
       </c>
       <c r="V2" t="n">
-        <v>26888</v>
+        <v>26888.0</v>
       </c>
       <c r="W2" t="n">
-        <v>18771</v>
+        <v>18771.0</v>
       </c>
       <c r="X2" t="n">
-        <v>11407</v>
+        <v>11407.0</v>
       </c>
       <c r="Y2" t="n">
-        <v>30419</v>
+        <v>30419.0</v>
       </c>
       <c r="Z2" t="n">
-        <v>29255</v>
+        <v>29255.0</v>
       </c>
       <c r="AA2" t="n">
-        <v>22685</v>
+        <v>22685.0</v>
       </c>
       <c r="AB2" t="n">
-        <v>19345</v>
+        <v>19345.0</v>
       </c>
       <c r="AC2" t="n">
-        <v>12432</v>
+        <v>12432.0</v>
       </c>
       <c r="AD2" t="n">
-        <v>32074</v>
+        <v>32074.0</v>
       </c>
       <c r="AE2" t="n">
-        <v>17030</v>
+        <v>17030.0</v>
       </c>
       <c r="AF2" t="n">
-        <v>16444</v>
+        <v>16444.0</v>
       </c>
       <c r="AG2" t="n">
-        <v>37584</v>
+        <v>37584.0</v>
       </c>
       <c r="AH2" t="n">
-        <v>20072</v>
+        <v>20072.0</v>
       </c>
       <c r="AI2" t="n">
-        <v>23921</v>
+        <v>23921.0</v>
       </c>
       <c r="AJ2" t="n">
-        <v>12852</v>
+        <v>12852.0</v>
       </c>
       <c r="AK2" t="n">
-        <v>31368</v>
+        <v>31368.0</v>
       </c>
       <c r="AL2" t="n">
-        <v>26562</v>
+        <v>26562.0</v>
       </c>
       <c r="AM2" t="n">
-        <v>110467</v>
+        <v>110467.0</v>
       </c>
       <c r="AN2" t="n">
-        <v>45775</v>
+        <v>45775.0</v>
       </c>
       <c r="AO2" t="n">
-        <v>244800</v>
+        <v>244800.0</v>
       </c>
       <c r="AP2" t="n">
-        <v>94825</v>
+        <v>94825.0</v>
       </c>
       <c r="AQ2" t="n">
-        <v>651334</v>
+        <v>651334.0</v>
       </c>
       <c r="AR2" t="n">
-        <v>154293</v>
+        <v>154293.0</v>
       </c>
       <c r="AS2" t="n">
-        <v>9444</v>
+        <v>9444.0</v>
       </c>
       <c r="AT2" t="n">
-        <v>10059</v>
+        <v>10059.0</v>
       </c>
       <c r="AU2" t="n">
-        <v>72279</v>
+        <v>72279.0</v>
       </c>
       <c r="AV2" t="n">
-        <v>13331</v>
+        <v>13331.0</v>
       </c>
       <c r="AW2" t="n">
-        <v>124223</v>
+        <v>124223.0</v>
       </c>
       <c r="AX2" t="n">
-        <v>8306</v>
+        <v>8306.0</v>
       </c>
       <c r="AY2" t="n">
-        <v>17648</v>
+        <v>17648.0</v>
       </c>
       <c r="AZ2" t="n">
-        <v>69261</v>
+        <v>69261.0</v>
       </c>
       <c r="BA2" t="n">
-        <v>99294</v>
+        <v>99294.0</v>
       </c>
       <c r="BB2" t="n">
-        <v>429463</v>
+        <v>429463.0</v>
       </c>
       <c r="BC2" t="n">
-        <v>558054</v>
+        <v>558054.0</v>
       </c>
       <c r="BD2" t="n">
-        <v>146164</v>
+        <v>146164.0</v>
       </c>
       <c r="BE2" t="n">
-        <v>34340</v>
+        <v>34340.0</v>
       </c>
       <c r="BF2" t="n">
-        <v>34977</v>
+        <v>34977.0</v>
       </c>
       <c r="BG2" t="n">
-        <v>27812</v>
+        <v>27812.0</v>
       </c>
       <c r="BH2" t="n">
-        <v>165530</v>
+        <v>165530.0</v>
       </c>
       <c r="BI2" t="n">
-        <v>34332</v>
+        <v>34332.0</v>
       </c>
       <c r="BJ2" t="n">
-        <v>587600</v>
+        <v>587600.0</v>
       </c>
       <c r="BK2" t="n">
-        <v>283544</v>
+        <v>283544.0</v>
       </c>
       <c r="BL2" t="n">
-        <v>93823</v>
+        <v>93823.0</v>
       </c>
       <c r="BM2" t="n">
-        <v>129831</v>
+        <v>129831.0</v>
       </c>
       <c r="BN2" t="n">
-        <v>150676</v>
+        <v>150676.0</v>
       </c>
       <c r="BO2" t="n">
-        <v>21429</v>
+        <v>21429.0</v>
       </c>
       <c r="BP2" t="n">
-        <v>77825</v>
+        <v>77825.0</v>
       </c>
       <c r="BQ2" t="n">
-        <v>71458</v>
+        <v>71458.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B3" t="n">
-        <v>32555</v>
+        <v>32555.0</v>
       </c>
       <c r="C3" t="n">
-        <v>23728</v>
+        <v>23728.0</v>
       </c>
       <c r="D3" t="n">
-        <v>2350</v>
+        <v>2350.0</v>
       </c>
       <c r="E3" t="n">
-        <v>4202</v>
+        <v>4202.0</v>
       </c>
       <c r="F3" t="n">
-        <v>17664</v>
+        <v>17664.0</v>
       </c>
       <c r="G3" t="n">
-        <v>3009</v>
+        <v>3009.0</v>
       </c>
       <c r="H3" t="n">
-        <v>2452</v>
+        <v>2452.0</v>
       </c>
       <c r="I3" t="n">
-        <v>28453</v>
+        <v>28453.0</v>
       </c>
       <c r="J3" t="n">
-        <v>9514</v>
+        <v>9514.0</v>
       </c>
       <c r="K3" t="n">
-        <v>34376</v>
+        <v>34376.0</v>
       </c>
       <c r="L3" t="n">
-        <v>9248</v>
+        <v>9248.0</v>
       </c>
       <c r="M3" t="n">
-        <v>1644</v>
+        <v>1644.0</v>
       </c>
       <c r="N3" t="n">
-        <v>10992</v>
+        <v>10992.0</v>
       </c>
       <c r="O3" t="n">
-        <v>18425</v>
+        <v>18425.0</v>
       </c>
       <c r="P3" t="n">
-        <v>10866</v>
+        <v>10866.0</v>
       </c>
       <c r="Q3" t="n">
-        <v>6595</v>
+        <v>6595.0</v>
       </c>
       <c r="R3" t="n">
-        <v>13738</v>
+        <v>13738.0</v>
       </c>
       <c r="S3" t="n">
-        <v>5773</v>
+        <v>5773.0</v>
       </c>
       <c r="T3" t="n">
-        <v>7664</v>
+        <v>7664.0</v>
       </c>
       <c r="U3" t="n">
-        <v>6646</v>
+        <v>6646.0</v>
       </c>
       <c r="V3" t="n">
-        <v>12474</v>
+        <v>12474.0</v>
       </c>
       <c r="W3" t="n">
-        <v>9238</v>
+        <v>9238.0</v>
       </c>
       <c r="X3" t="n">
-        <v>6015</v>
+        <v>6015.0</v>
       </c>
       <c r="Y3" t="n">
-        <v>11415</v>
+        <v>11415.0</v>
       </c>
       <c r="Z3" t="n">
-        <v>21093</v>
+        <v>21093.0</v>
       </c>
       <c r="AA3" t="n">
-        <v>19715</v>
+        <v>19715.0</v>
       </c>
       <c r="AB3" t="n">
-        <v>12557</v>
+        <v>12557.0</v>
       </c>
       <c r="AC3" t="n">
-        <v>5942</v>
+        <v>5942.0</v>
       </c>
       <c r="AD3" t="n">
-        <v>22154</v>
+        <v>22154.0</v>
       </c>
       <c r="AE3" t="n">
-        <v>9380</v>
+        <v>9380.0</v>
       </c>
       <c r="AF3" t="n">
-        <v>14537</v>
+        <v>14537.0</v>
       </c>
       <c r="AG3" t="n">
-        <v>26674</v>
+        <v>26674.0</v>
       </c>
       <c r="AH3" t="n">
-        <v>19711</v>
+        <v>19711.0</v>
       </c>
       <c r="AI3" t="n">
-        <v>20253</v>
+        <v>20253.0</v>
       </c>
       <c r="AJ3" t="n">
-        <v>8479</v>
+        <v>8479.0</v>
       </c>
       <c r="AK3" t="n">
-        <v>16027</v>
+        <v>16027.0</v>
       </c>
       <c r="AL3" t="n">
-        <v>12476</v>
+        <v>12476.0</v>
       </c>
       <c r="AM3" t="n">
-        <v>18809</v>
+        <v>18809.0</v>
       </c>
       <c r="AN3" t="n">
-        <v>21810</v>
+        <v>21810.0</v>
       </c>
       <c r="AO3" t="n">
-        <v>103928</v>
+        <v>103928.0</v>
       </c>
       <c r="AP3" t="n">
-        <v>46262</v>
+        <v>46262.0</v>
       </c>
       <c r="AQ3" t="n">
-        <v>335937</v>
+        <v>335937.0</v>
       </c>
       <c r="AR3" t="n">
-        <v>86939</v>
+        <v>86939.0</v>
       </c>
       <c r="AS3" t="n">
-        <v>5366</v>
+        <v>5366.0</v>
       </c>
       <c r="AT3" t="n">
-        <v>6369</v>
+        <v>6369.0</v>
       </c>
       <c r="AU3" t="n">
-        <v>44134</v>
+        <v>44134.0</v>
       </c>
       <c r="AV3" t="n">
-        <v>10872</v>
+        <v>10872.0</v>
       </c>
       <c r="AW3" t="n">
-        <v>54530</v>
+        <v>54530.0</v>
       </c>
       <c r="AX3" t="n">
-        <v>6552</v>
+        <v>6552.0</v>
       </c>
       <c r="AY3" t="n">
-        <v>11023</v>
+        <v>11023.0</v>
       </c>
       <c r="AZ3" t="n">
-        <v>18506</v>
+        <v>18506.0</v>
       </c>
       <c r="BA3" t="n">
-        <v>53450</v>
+        <v>53450.0</v>
       </c>
       <c r="BB3" t="n">
-        <v>162747</v>
+        <v>162747.0</v>
       </c>
       <c r="BC3" t="n">
-        <v>8174</v>
+        <v>8174.0</v>
       </c>
       <c r="BD3" t="n">
-        <v>58861</v>
+        <v>58861.0</v>
       </c>
       <c r="BE3" t="n">
-        <v>19743</v>
+        <v>19743.0</v>
       </c>
       <c r="BF3" t="n">
-        <v>13894</v>
+        <v>13894.0</v>
       </c>
       <c r="BG3" t="n">
-        <v>11011</v>
+        <v>11011.0</v>
       </c>
       <c r="BH3" t="n">
-        <v>110233</v>
+        <v>110233.0</v>
       </c>
       <c r="BI3" t="n">
-        <v>30416</v>
+        <v>30416.0</v>
       </c>
       <c r="BJ3" t="n">
-        <v>503269</v>
+        <v>503269.0</v>
       </c>
       <c r="BK3" t="n">
-        <v>270847</v>
+        <v>270847.0</v>
       </c>
       <c r="BL3" t="n">
-        <v>80461</v>
+        <v>80461.0</v>
       </c>
       <c r="BM3" t="n">
-        <v>123561</v>
+        <v>123561.0</v>
       </c>
       <c r="BN3" t="n">
-        <v>79425</v>
+        <v>79425.0</v>
       </c>
       <c r="BO3" t="n">
-        <v>12768</v>
+        <v>12768.0</v>
       </c>
       <c r="BP3" t="n">
-        <v>41148</v>
+        <v>41148.0</v>
       </c>
       <c r="BQ3" t="n">
-        <v>71458</v>
+        <v>71458.0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B4" t="n">
-        <v>27345</v>
+        <v>27345.0</v>
       </c>
       <c r="C4" t="n">
-        <v>20805</v>
+        <v>20805.0</v>
       </c>
       <c r="D4" t="n">
-        <v>2056</v>
+        <v>2056.0</v>
       </c>
       <c r="E4" t="n">
-        <v>3351</v>
+        <v>3351.0</v>
       </c>
       <c r="F4" t="n">
-        <v>12851</v>
+        <v>12851.0</v>
       </c>
       <c r="G4" t="n">
-        <v>2393</v>
+        <v>2393.0</v>
       </c>
       <c r="H4" t="n">
-        <v>1886</v>
+        <v>1886.0</v>
       </c>
       <c r="I4" t="n">
-        <v>22131</v>
+        <v>22131.0</v>
       </c>
       <c r="J4" t="n">
-        <v>6725</v>
+        <v>6725.0</v>
       </c>
       <c r="K4" t="n">
-        <v>27078</v>
+        <v>27078.0</v>
       </c>
       <c r="L4" t="n">
-        <v>7168</v>
+        <v>7168.0</v>
       </c>
       <c r="M4" t="n">
-        <v>1257</v>
+        <v>1257.0</v>
       </c>
       <c r="N4" t="n">
-        <v>8993</v>
+        <v>8993.0</v>
       </c>
       <c r="O4" t="n">
-        <v>14576</v>
+        <v>14576.0</v>
       </c>
       <c r="P4" t="n">
-        <v>8958</v>
+        <v>8958.0</v>
       </c>
       <c r="Q4" t="n">
-        <v>5304</v>
+        <v>5304.0</v>
       </c>
       <c r="R4" t="n">
-        <v>10824</v>
+        <v>10824.0</v>
       </c>
       <c r="S4" t="n">
-        <v>4678</v>
+        <v>4678.0</v>
       </c>
       <c r="T4" t="n">
-        <v>5367</v>
+        <v>5367.0</v>
       </c>
       <c r="U4" t="n">
-        <v>5354</v>
+        <v>5354.0</v>
       </c>
       <c r="V4" t="n">
-        <v>9475</v>
+        <v>9475.0</v>
       </c>
       <c r="W4" t="n">
-        <v>7112</v>
+        <v>7112.0</v>
       </c>
       <c r="X4" t="n">
-        <v>4738</v>
+        <v>4738.0</v>
       </c>
       <c r="Y4" t="n">
-        <v>8719</v>
+        <v>8719.0</v>
       </c>
       <c r="Z4" t="n">
-        <v>16427</v>
+        <v>16427.0</v>
       </c>
       <c r="AA4" t="n">
-        <v>15952</v>
+        <v>15952.0</v>
       </c>
       <c r="AB4" t="n">
-        <v>9757</v>
+        <v>9757.0</v>
       </c>
       <c r="AC4" t="n">
-        <v>4768</v>
+        <v>4768.0</v>
       </c>
       <c r="AD4" t="n">
-        <v>17478</v>
+        <v>17478.0</v>
       </c>
       <c r="AE4" t="n">
-        <v>7415</v>
+        <v>7415.0</v>
       </c>
       <c r="AF4" t="n">
-        <v>11394</v>
+        <v>11394.0</v>
       </c>
       <c r="AG4" t="n">
-        <v>21155</v>
+        <v>21155.0</v>
       </c>
       <c r="AH4" t="n">
-        <v>15215</v>
+        <v>15215.0</v>
       </c>
       <c r="AI4" t="n">
-        <v>16962</v>
+        <v>16962.0</v>
       </c>
       <c r="AJ4" t="n">
-        <v>6844</v>
+        <v>6844.0</v>
       </c>
       <c r="AK4" t="n">
-        <v>13117</v>
+        <v>13117.0</v>
       </c>
       <c r="AL4" t="n">
-        <v>10131</v>
+        <v>10131.0</v>
       </c>
       <c r="AM4" t="n">
-        <v>13471</v>
+        <v>13471.0</v>
       </c>
       <c r="AN4" t="n">
-        <v>16348</v>
+        <v>16348.0</v>
       </c>
       <c r="AO4" t="n">
-        <v>85100</v>
+        <v>85100.0</v>
       </c>
       <c r="AP4" t="n">
-        <v>37643</v>
+        <v>37643.0</v>
       </c>
       <c r="AQ4" t="n">
-        <v>266664</v>
+        <v>266664.0</v>
       </c>
       <c r="AR4" t="n">
-        <v>70673</v>
+        <v>70673.0</v>
       </c>
       <c r="AS4" t="n">
-        <v>4392</v>
+        <v>4392.0</v>
       </c>
       <c r="AT4" t="n">
-        <v>5281</v>
+        <v>5281.0</v>
       </c>
       <c r="AU4" t="n">
-        <v>34128</v>
+        <v>34128.0</v>
       </c>
       <c r="AV4" t="n">
-        <v>9119</v>
+        <v>9119.0</v>
       </c>
       <c r="AW4" t="n">
-        <v>45842</v>
+        <v>45842.0</v>
       </c>
       <c r="AX4" t="n">
-        <v>5315</v>
+        <v>5315.0</v>
       </c>
       <c r="AY4" t="n">
-        <v>9260</v>
+        <v>9260.0</v>
       </c>
       <c r="AZ4" t="n">
-        <v>13793</v>
+        <v>13793.0</v>
       </c>
       <c r="BA4" t="n">
-        <v>42364</v>
+        <v>42364.0</v>
       </c>
       <c r="BB4" t="n">
-        <v>125207</v>
+        <v>125207.0</v>
       </c>
       <c r="BC4" t="n">
-        <v>6441</v>
+        <v>6441.0</v>
       </c>
       <c r="BD4" t="n">
-        <v>47987</v>
+        <v>47987.0</v>
       </c>
       <c r="BE4" t="n">
-        <v>15877</v>
+        <v>15877.0</v>
       </c>
       <c r="BF4" t="n">
-        <v>11047</v>
+        <v>11047.0</v>
       </c>
       <c r="BG4" t="n">
-        <v>8732</v>
+        <v>8732.0</v>
       </c>
       <c r="BH4" t="n">
-        <v>88474</v>
+        <v>88474.0</v>
       </c>
       <c r="BI4" t="n">
-        <v>23819</v>
+        <v>23819.0</v>
       </c>
       <c r="BJ4" t="n">
-        <v>359725</v>
+        <v>359725.0</v>
       </c>
       <c r="BK4" t="n">
-        <v>223078</v>
+        <v>223078.0</v>
       </c>
       <c r="BL4" t="n">
-        <v>66635</v>
+        <v>66635.0</v>
       </c>
       <c r="BM4" t="n">
-        <v>99114</v>
+        <v>99114.0</v>
       </c>
       <c r="BN4" t="n">
-        <v>67938</v>
+        <v>67938.0</v>
       </c>
       <c r="BO4" t="n">
-        <v>10922</v>
+        <v>10922.0</v>
       </c>
       <c r="BP4" t="n">
-        <v>34723</v>
+        <v>34723.0</v>
       </c>
       <c r="BQ4" t="n">
-        <v>67484</v>
+        <v>67484.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B5" t="n">
-        <v>5210</v>
+        <v>5210.0</v>
       </c>
       <c r="C5" t="n">
-        <v>2923</v>
+        <v>2923.0</v>
       </c>
       <c r="D5" t="n">
-        <v>294</v>
+        <v>294.0</v>
       </c>
       <c r="E5" t="n">
-        <v>851</v>
+        <v>851.0</v>
       </c>
       <c r="F5" t="n">
-        <v>4813</v>
+        <v>4813.0</v>
       </c>
       <c r="G5" t="n">
-        <v>616</v>
+        <v>616.0</v>
       </c>
       <c r="H5" t="n">
-        <v>566</v>
+        <v>566.0</v>
       </c>
       <c r="I5" t="n">
-        <v>6322</v>
+        <v>6322.0</v>
       </c>
       <c r="J5" t="n">
-        <v>2789</v>
+        <v>2789.0</v>
       </c>
       <c r="K5" t="n">
-        <v>7298</v>
+        <v>7298.0</v>
       </c>
       <c r="L5" t="n">
-        <v>2080</v>
+        <v>2080.0</v>
       </c>
       <c r="M5" t="n">
-        <v>387</v>
+        <v>387.0</v>
       </c>
       <c r="N5" t="n">
-        <v>1999</v>
+        <v>1999.0</v>
       </c>
       <c r="O5" t="n">
-        <v>3849</v>
+        <v>3849.0</v>
       </c>
       <c r="P5" t="n">
-        <v>1908</v>
+        <v>1908.0</v>
       </c>
       <c r="Q5" t="n">
-        <v>1291</v>
+        <v>1291.0</v>
       </c>
       <c r="R5" t="n">
-        <v>2914</v>
+        <v>2914.0</v>
       </c>
       <c r="S5" t="n">
-        <v>1095</v>
+        <v>1095.0</v>
       </c>
       <c r="T5" t="n">
-        <v>2297</v>
+        <v>2297.0</v>
       </c>
       <c r="U5" t="n">
-        <v>1292</v>
+        <v>1292.0</v>
       </c>
       <c r="V5" t="n">
-        <v>2999</v>
+        <v>2999.0</v>
       </c>
       <c r="W5" t="n">
-        <v>2126</v>
+        <v>2126.0</v>
       </c>
       <c r="X5" t="n">
-        <v>1277</v>
+        <v>1277.0</v>
       </c>
       <c r="Y5" t="n">
-        <v>2696</v>
+        <v>2696.0</v>
       </c>
       <c r="Z5" t="n">
-        <v>4666</v>
+        <v>4666.0</v>
       </c>
       <c r="AA5" t="n">
-        <v>3763</v>
+        <v>3763.0</v>
       </c>
       <c r="AB5" t="n">
-        <v>2800</v>
+        <v>2800.0</v>
       </c>
       <c r="AC5" t="n">
-        <v>1174</v>
+        <v>1174.0</v>
       </c>
       <c r="AD5" t="n">
-        <v>4676</v>
+        <v>4676.0</v>
       </c>
       <c r="AE5" t="n">
-        <v>1965</v>
+        <v>1965.0</v>
       </c>
       <c r="AF5" t="n">
-        <v>3143</v>
+        <v>3143.0</v>
       </c>
       <c r="AG5" t="n">
-        <v>5519</v>
+        <v>5519.0</v>
       </c>
       <c r="AH5" t="n">
-        <v>4496</v>
+        <v>4496.0</v>
       </c>
       <c r="AI5" t="n">
-        <v>3291</v>
+        <v>3291.0</v>
       </c>
       <c r="AJ5" t="n">
-        <v>1635</v>
+        <v>1635.0</v>
       </c>
       <c r="AK5" t="n">
-        <v>2910</v>
+        <v>2910.0</v>
       </c>
       <c r="AL5" t="n">
-        <v>2345</v>
+        <v>2345.0</v>
       </c>
       <c r="AM5" t="n">
-        <v>5338</v>
+        <v>5338.0</v>
       </c>
       <c r="AN5" t="n">
-        <v>5462</v>
+        <v>5462.0</v>
       </c>
       <c r="AO5" t="n">
-        <v>18828</v>
+        <v>18828.0</v>
       </c>
       <c r="AP5" t="n">
-        <v>8619</v>
+        <v>8619.0</v>
       </c>
       <c r="AQ5" t="n">
-        <v>69273</v>
+        <v>69273.0</v>
       </c>
       <c r="AR5" t="n">
-        <v>16266</v>
+        <v>16266.0</v>
       </c>
       <c r="AS5" t="n">
-        <v>974</v>
+        <v>974.0</v>
       </c>
       <c r="AT5" t="n">
-        <v>1088</v>
+        <v>1088.0</v>
       </c>
       <c r="AU5" t="n">
-        <v>10006</v>
+        <v>10006.0</v>
       </c>
       <c r="AV5" t="n">
-        <v>1753</v>
+        <v>1753.0</v>
       </c>
       <c r="AW5" t="n">
-        <v>8688</v>
+        <v>8688.0</v>
       </c>
       <c r="AX5" t="n">
-        <v>1237</v>
+        <v>1237.0</v>
       </c>
       <c r="AY5" t="n">
-        <v>1763</v>
+        <v>1763.0</v>
       </c>
       <c r="AZ5" t="n">
-        <v>4713</v>
+        <v>4713.0</v>
       </c>
       <c r="BA5" t="n">
-        <v>11086</v>
+        <v>11086.0</v>
       </c>
       <c r="BB5" t="n">
-        <v>37540</v>
+        <v>37540.0</v>
       </c>
       <c r="BC5" t="n">
-        <v>1733</v>
+        <v>1733.0</v>
       </c>
       <c r="BD5" t="n">
-        <v>10874</v>
+        <v>10874.0</v>
       </c>
       <c r="BE5" t="n">
-        <v>3866</v>
+        <v>3866.0</v>
       </c>
       <c r="BF5" t="n">
-        <v>2847</v>
+        <v>2847.0</v>
       </c>
       <c r="BG5" t="n">
-        <v>2279</v>
+        <v>2279.0</v>
       </c>
       <c r="BH5" t="n">
-        <v>21759</v>
+        <v>21759.0</v>
       </c>
       <c r="BI5" t="n">
-        <v>6597</v>
+        <v>6597.0</v>
       </c>
       <c r="BJ5" t="n">
-        <v>64999</v>
+        <v>64999.0</v>
       </c>
       <c r="BK5" t="n">
-        <v>43815</v>
+        <v>43815.0</v>
       </c>
       <c r="BL5" t="n">
-        <v>13826</v>
+        <v>13826.0</v>
       </c>
       <c r="BM5" t="n">
-        <v>17614</v>
+        <v>17614.0</v>
       </c>
       <c r="BN5" t="n">
-        <v>11487</v>
+        <v>11487.0</v>
       </c>
       <c r="BO5" t="n">
-        <v>1846</v>
+        <v>1846.0</v>
       </c>
       <c r="BP5" t="n">
-        <v>6425</v>
+        <v>6425.0</v>
       </c>
       <c r="BQ5" t="n">
-        <v>3974</v>
+        <v>3974.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B6" t="n">
-        <v>5209</v>
+        <v>5209.0</v>
       </c>
       <c r="C6" t="n">
-        <v>2922</v>
+        <v>2922.0</v>
       </c>
       <c r="D6" t="n">
-        <v>293</v>
+        <v>293.0</v>
       </c>
       <c r="E6" t="n">
-        <v>841</v>
+        <v>841.0</v>
       </c>
       <c r="F6" t="n">
-        <v>3774</v>
+        <v>3774.0</v>
       </c>
       <c r="G6" t="n">
-        <v>595</v>
+        <v>595.0</v>
       </c>
       <c r="H6" t="n">
-        <v>541</v>
+        <v>541.0</v>
       </c>
       <c r="I6" t="n">
-        <v>6193</v>
+        <v>6193.0</v>
       </c>
       <c r="J6" t="n">
-        <v>2755</v>
+        <v>2755.0</v>
       </c>
       <c r="K6" t="n">
-        <v>7109</v>
+        <v>7109.0</v>
       </c>
       <c r="L6" t="n">
-        <v>2010</v>
+        <v>2010.0</v>
       </c>
       <c r="M6" t="n">
-        <v>355</v>
+        <v>355.0</v>
       </c>
       <c r="N6" t="n">
-        <v>1969</v>
+        <v>1969.0</v>
       </c>
       <c r="O6" t="n">
-        <v>3802</v>
+        <v>3802.0</v>
       </c>
       <c r="P6" t="n">
-        <v>1881</v>
+        <v>1881.0</v>
       </c>
       <c r="Q6" t="n">
-        <v>1232</v>
+        <v>1232.0</v>
       </c>
       <c r="R6" t="n">
-        <v>2654</v>
+        <v>2654.0</v>
       </c>
       <c r="S6" t="n">
-        <v>1061</v>
+        <v>1061.0</v>
       </c>
       <c r="T6" t="n">
-        <v>1642</v>
+        <v>1642.0</v>
       </c>
       <c r="U6" t="n">
-        <v>1264</v>
+        <v>1264.0</v>
       </c>
       <c r="V6" t="n">
-        <v>2752</v>
+        <v>2752.0</v>
       </c>
       <c r="W6" t="n">
-        <v>1969</v>
+        <v>1969.0</v>
       </c>
       <c r="X6" t="n">
-        <v>1247</v>
+        <v>1247.0</v>
       </c>
       <c r="Y6" t="n">
-        <v>2548</v>
+        <v>2548.0</v>
       </c>
       <c r="Z6" t="n">
-        <v>4553</v>
+        <v>4553.0</v>
       </c>
       <c r="AA6" t="n">
-        <v>3626</v>
+        <v>3626.0</v>
       </c>
       <c r="AB6" t="n">
-        <v>2570</v>
+        <v>2570.0</v>
       </c>
       <c r="AC6" t="n">
-        <v>1120</v>
+        <v>1120.0</v>
       </c>
       <c r="AD6" t="n">
-        <v>4583</v>
+        <v>4583.0</v>
       </c>
       <c r="AE6" t="n">
-        <v>1916</v>
+        <v>1916.0</v>
       </c>
       <c r="AF6" t="n">
-        <v>3043</v>
+        <v>3043.0</v>
       </c>
       <c r="AG6" t="n">
-        <v>5307</v>
+        <v>5307.0</v>
       </c>
       <c r="AH6" t="n">
-        <v>4311</v>
+        <v>4311.0</v>
       </c>
       <c r="AI6" t="n">
-        <v>3189</v>
+        <v>3189.0</v>
       </c>
       <c r="AJ6" t="n">
-        <v>1523</v>
+        <v>1523.0</v>
       </c>
       <c r="AK6" t="n">
-        <v>2848</v>
+        <v>2848.0</v>
       </c>
       <c r="AL6" t="n">
-        <v>2268</v>
+        <v>2268.0</v>
       </c>
       <c r="AM6" t="n">
-        <v>4131</v>
+        <v>4131.0</v>
       </c>
       <c r="AN6" t="n">
-        <v>4949</v>
+        <v>4949.0</v>
       </c>
       <c r="AO6" t="n">
-        <v>18476</v>
+        <v>18476.0</v>
       </c>
       <c r="AP6" t="n">
-        <v>8556</v>
+        <v>8556.0</v>
       </c>
       <c r="AQ6" t="n">
-        <v>68387</v>
+        <v>68387.0</v>
       </c>
       <c r="AR6" t="n">
-        <v>15751</v>
+        <v>15751.0</v>
       </c>
       <c r="AS6" t="n">
-        <v>940</v>
+        <v>940.0</v>
       </c>
       <c r="AT6" t="n">
-        <v>1065</v>
+        <v>1065.0</v>
       </c>
       <c r="AU6" t="n">
-        <v>8918</v>
+        <v>8918.0</v>
       </c>
       <c r="AV6" t="n">
-        <v>1716</v>
+        <v>1716.0</v>
       </c>
       <c r="AW6" t="n">
-        <v>8618</v>
+        <v>8618.0</v>
       </c>
       <c r="AX6" t="n">
-        <v>1207</v>
+        <v>1207.0</v>
       </c>
       <c r="AY6" t="n">
-        <v>1706</v>
+        <v>1706.0</v>
       </c>
       <c r="AZ6" t="n">
-        <v>3886</v>
+        <v>3886.0</v>
       </c>
       <c r="BA6" t="n">
-        <v>10482</v>
+        <v>10482.0</v>
       </c>
       <c r="BB6" t="n">
-        <v>31924</v>
+        <v>31924.0</v>
       </c>
       <c r="BC6" t="n">
-        <v>1685</v>
+        <v>1685.0</v>
       </c>
       <c r="BD6" t="n">
-        <v>9884</v>
+        <v>9884.0</v>
       </c>
       <c r="BE6" t="n">
-        <v>3746</v>
+        <v>3746.0</v>
       </c>
       <c r="BF6" t="n">
-        <v>2813</v>
+        <v>2813.0</v>
       </c>
       <c r="BG6" t="n">
-        <v>2239</v>
+        <v>2239.0</v>
       </c>
       <c r="BH6" t="n">
-        <v>21511</v>
+        <v>21511.0</v>
       </c>
       <c r="BI6" t="n">
-        <v>6536</v>
+        <v>6536.0</v>
       </c>
       <c r="BJ6" t="n">
-        <v>64415</v>
+        <v>64415.0</v>
       </c>
       <c r="BK6" t="n">
-        <v>43648</v>
+        <v>43648.0</v>
       </c>
       <c r="BL6" t="n">
-        <v>13804</v>
+        <v>13804.0</v>
       </c>
       <c r="BM6" t="n">
-        <v>17594</v>
+        <v>17594.0</v>
       </c>
       <c r="BN6" t="n">
-        <v>11425</v>
+        <v>11425.0</v>
       </c>
       <c r="BO6" t="n">
-        <v>1807</v>
+        <v>1807.0</v>
       </c>
       <c r="BP6" t="n">
-        <v>6329</v>
+        <v>6329.0</v>
       </c>
       <c r="BQ6" t="n">
-        <v>3974</v>
+        <v>3974.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B7" t="n">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="C7" t="n">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="D7" t="n">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="E7" t="n">
-        <v>10</v>
+        <v>10.0</v>
       </c>
       <c r="F7" t="n">
-        <v>1039</v>
+        <v>1039.0</v>
       </c>
       <c r="G7" t="n">
-        <v>21</v>
+        <v>21.0</v>
       </c>
       <c r="H7" t="n">
-        <v>25</v>
+        <v>25.0</v>
       </c>
       <c r="I7" t="n">
-        <v>129</v>
+        <v>129.0</v>
       </c>
       <c r="J7" t="n">
-        <v>34</v>
+        <v>34.0</v>
       </c>
       <c r="K7" t="n">
-        <v>189</v>
+        <v>189.0</v>
       </c>
       <c r="L7" t="n">
-        <v>70</v>
+        <v>70.0</v>
       </c>
       <c r="M7" t="n">
-        <v>32</v>
+        <v>32.0</v>
       </c>
       <c r="N7" t="n">
-        <v>30</v>
+        <v>30.0</v>
       </c>
       <c r="O7" t="n">
-        <v>47</v>
+        <v>47.0</v>
       </c>
       <c r="P7" t="n">
-        <v>27</v>
+        <v>27.0</v>
       </c>
       <c r="Q7" t="n">
-        <v>59</v>
+        <v>59.0</v>
       </c>
       <c r="R7" t="n">
-        <v>260</v>
+        <v>260.0</v>
       </c>
       <c r="S7" t="n">
-        <v>34</v>
+        <v>34.0</v>
       </c>
       <c r="T7" t="n">
-        <v>655</v>
+        <v>655.0</v>
       </c>
       <c r="U7" t="n">
-        <v>28</v>
+        <v>28.0</v>
       </c>
       <c r="V7" t="n">
-        <v>247</v>
+        <v>247.0</v>
       </c>
       <c r="W7" t="n">
-        <v>157</v>
+        <v>157.0</v>
       </c>
       <c r="X7" t="n">
-        <v>30</v>
+        <v>30.0</v>
       </c>
       <c r="Y7" t="n">
-        <v>148</v>
+        <v>148.0</v>
       </c>
       <c r="Z7" t="n">
-        <v>113</v>
+        <v>113.0</v>
       </c>
       <c r="AA7" t="n">
-        <v>137</v>
+        <v>137.0</v>
       </c>
       <c r="AB7" t="n">
-        <v>230</v>
+        <v>230.0</v>
       </c>
       <c r="AC7" t="n">
-        <v>54</v>
+        <v>54.0</v>
       </c>
       <c r="AD7" t="n">
-        <v>93</v>
+        <v>93.0</v>
       </c>
       <c r="AE7" t="n">
-        <v>49</v>
+        <v>49.0</v>
       </c>
       <c r="AF7" t="n">
-        <v>100</v>
+        <v>100.0</v>
       </c>
       <c r="AG7" t="n">
-        <v>212</v>
+        <v>212.0</v>
       </c>
       <c r="AH7" t="n">
-        <v>185</v>
+        <v>185.0</v>
       </c>
       <c r="AI7" t="n">
-        <v>102</v>
+        <v>102.0</v>
       </c>
       <c r="AJ7" t="n">
-        <v>112</v>
+        <v>112.0</v>
       </c>
       <c r="AK7" t="n">
-        <v>62</v>
+        <v>62.0</v>
       </c>
       <c r="AL7" t="n">
-        <v>77</v>
+        <v>77.0</v>
       </c>
       <c r="AM7" t="n">
-        <v>1207</v>
+        <v>1207.0</v>
       </c>
       <c r="AN7" t="n">
-        <v>513</v>
+        <v>513.0</v>
       </c>
       <c r="AO7" t="n">
-        <v>352</v>
+        <v>352.0</v>
       </c>
       <c r="AP7" t="n">
-        <v>63</v>
+        <v>63.0</v>
       </c>
       <c r="AQ7" t="n">
-        <v>886</v>
+        <v>886.0</v>
       </c>
       <c r="AR7" t="n">
-        <v>515</v>
+        <v>515.0</v>
       </c>
       <c r="AS7" t="n">
-        <v>34</v>
+        <v>34.0</v>
       </c>
       <c r="AT7" t="n">
-        <v>23</v>
+        <v>23.0</v>
       </c>
       <c r="AU7" t="n">
-        <v>1088</v>
+        <v>1088.0</v>
       </c>
       <c r="AV7" t="n">
-        <v>37</v>
+        <v>37.0</v>
       </c>
       <c r="AW7" t="n">
-        <v>70</v>
+        <v>70.0</v>
       </c>
       <c r="AX7" t="n">
-        <v>30</v>
+        <v>30.0</v>
       </c>
       <c r="AY7" t="n">
-        <v>57</v>
+        <v>57.0</v>
       </c>
       <c r="AZ7" t="n">
-        <v>827</v>
+        <v>827.0</v>
       </c>
       <c r="BA7" t="n">
-        <v>604</v>
+        <v>604.0</v>
       </c>
       <c r="BB7" t="n">
-        <v>5616</v>
+        <v>5616.0</v>
       </c>
       <c r="BC7" t="n">
-        <v>48</v>
+        <v>48.0</v>
       </c>
       <c r="BD7" t="n">
-        <v>990</v>
+        <v>990.0</v>
       </c>
       <c r="BE7" t="n">
-        <v>120</v>
+        <v>120.0</v>
       </c>
       <c r="BF7" t="n">
-        <v>34</v>
+        <v>34.0</v>
       </c>
       <c r="BG7" t="n">
-        <v>40</v>
+        <v>40.0</v>
       </c>
       <c r="BH7" t="n">
-        <v>248</v>
+        <v>248.0</v>
       </c>
       <c r="BI7" t="n">
-        <v>61</v>
+        <v>61.0</v>
       </c>
       <c r="BJ7" t="n">
-        <v>584</v>
+        <v>584.0</v>
       </c>
       <c r="BK7" t="n">
-        <v>167</v>
+        <v>167.0</v>
       </c>
       <c r="BL7" t="n">
-        <v>22</v>
+        <v>22.0</v>
       </c>
       <c r="BM7" t="n">
-        <v>20</v>
+        <v>20.0</v>
       </c>
       <c r="BN7" t="n">
-        <v>62</v>
+        <v>62.0</v>
       </c>
       <c r="BO7" t="n">
-        <v>39</v>
+        <v>39.0</v>
       </c>
       <c r="BP7" t="n">
-        <v>96</v>
+        <v>96.0</v>
       </c>
       <c r="BQ7" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="Z8" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AA8" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB8" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC8" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD8" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AE8" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AF8" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AG8" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AH8" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AI8" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AJ8" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AK8" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AL8" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AM8" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AN8" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AO8" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AP8" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AQ8" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AR8" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AS8" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AT8" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AU8" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AV8" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AW8" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AX8" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AY8" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AZ8" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="BA8" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="BB8" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="BC8" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="BD8" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="BE8" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="BF8" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="BG8" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="BH8" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="BI8" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="BJ8" t="n">
-        <v>78545</v>
+        <v>78545.0</v>
       </c>
       <c r="BK8" t="n">
-        <v>3954</v>
+        <v>3954.0</v>
       </c>
       <c r="BL8" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="BM8" t="n">
-        <v>6833</v>
+        <v>6833.0</v>
       </c>
       <c r="BN8" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="BO8" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="BP8" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="BQ8" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B9" t="n">
-        <v>176120</v>
+        <v>176120.0</v>
       </c>
       <c r="C9" t="n">
-        <v>51182</v>
+        <v>51182.0</v>
       </c>
       <c r="D9" t="n">
-        <v>25027</v>
+        <v>25027.0</v>
       </c>
       <c r="E9" t="n">
-        <v>3488</v>
+        <v>3488.0</v>
       </c>
       <c r="F9" t="n">
-        <v>22479</v>
+        <v>22479.0</v>
       </c>
       <c r="G9" t="n">
-        <v>33185</v>
+        <v>33185.0</v>
       </c>
       <c r="H9" t="n">
-        <v>2375</v>
+        <v>2375.0</v>
       </c>
       <c r="I9" t="n">
-        <v>14952</v>
+        <v>14952.0</v>
       </c>
       <c r="J9" t="n">
-        <v>2597</v>
+        <v>2597.0</v>
       </c>
       <c r="K9" t="n">
-        <v>27450</v>
+        <v>27450.0</v>
       </c>
       <c r="L9" t="n">
-        <v>10093</v>
+        <v>10093.0</v>
       </c>
       <c r="M9" t="n">
-        <v>1396</v>
+        <v>1396.0</v>
       </c>
       <c r="N9" t="n">
-        <v>4087</v>
+        <v>4087.0</v>
       </c>
       <c r="O9" t="n">
-        <v>8264</v>
+        <v>8264.0</v>
       </c>
       <c r="P9" t="n">
-        <v>3953</v>
+        <v>3953.0</v>
       </c>
       <c r="Q9" t="n">
-        <v>4104</v>
+        <v>4104.0</v>
       </c>
       <c r="R9" t="n">
-        <v>12958</v>
+        <v>12958.0</v>
       </c>
       <c r="S9" t="n">
-        <v>2066</v>
+        <v>2066.0</v>
       </c>
       <c r="T9" t="n">
-        <v>47763</v>
+        <v>47763.0</v>
       </c>
       <c r="U9" t="n">
-        <v>3091</v>
+        <v>3091.0</v>
       </c>
       <c r="V9" t="n">
-        <v>13303</v>
+        <v>13303.0</v>
       </c>
       <c r="W9" t="n">
-        <v>8892</v>
+        <v>8892.0</v>
       </c>
       <c r="X9" t="n">
-        <v>4971</v>
+        <v>4971.0</v>
       </c>
       <c r="Y9" t="n">
-        <v>18411</v>
+        <v>18411.0</v>
       </c>
       <c r="Z9" t="n">
-        <v>7258</v>
+        <v>7258.0</v>
       </c>
       <c r="AA9" t="n">
-        <v>2271</v>
+        <v>2271.0</v>
       </c>
       <c r="AB9" t="n">
-        <v>5965</v>
+        <v>5965.0</v>
       </c>
       <c r="AC9" t="n">
-        <v>6069</v>
+        <v>6069.0</v>
       </c>
       <c r="AD9" t="n">
-        <v>9030</v>
+        <v>9030.0</v>
       </c>
       <c r="AE9" t="n">
-        <v>6724</v>
+        <v>6724.0</v>
       </c>
       <c r="AF9" t="n">
-        <v>1291</v>
+        <v>1291.0</v>
       </c>
       <c r="AG9" t="n">
-        <v>9939</v>
+        <v>9939.0</v>
       </c>
       <c r="AH9" t="n">
-        <v>-670</v>
+        <v>-670.0</v>
       </c>
       <c r="AI9" t="n">
-        <v>2935</v>
+        <v>2935.0</v>
       </c>
       <c r="AJ9" t="n">
-        <v>4019</v>
+        <v>4019.0</v>
       </c>
       <c r="AK9" t="n">
-        <v>14695</v>
+        <v>14695.0</v>
       </c>
       <c r="AL9" t="n">
-        <v>13646</v>
+        <v>13646.0</v>
       </c>
       <c r="AM9" t="n">
-        <v>89204</v>
+        <v>89204.0</v>
       </c>
       <c r="AN9" t="n">
-        <v>23144</v>
+        <v>23144.0</v>
       </c>
       <c r="AO9" t="n">
-        <v>138036</v>
+        <v>138036.0</v>
       </c>
       <c r="AP9" t="n">
-        <v>47237</v>
+        <v>47237.0</v>
       </c>
       <c r="AQ9" t="n">
-        <v>304597</v>
+        <v>304597.0</v>
       </c>
       <c r="AR9" t="n">
-        <v>66259</v>
+        <v>66259.0</v>
       </c>
       <c r="AS9" t="n">
-        <v>3678</v>
+        <v>3678.0</v>
       </c>
       <c r="AT9" t="n">
-        <v>3109</v>
+        <v>3109.0</v>
       </c>
       <c r="AU9" t="n">
-        <v>26546</v>
+        <v>26546.0</v>
       </c>
       <c r="AV9" t="n">
-        <v>2088</v>
+        <v>2088.0</v>
       </c>
       <c r="AW9" t="n">
-        <v>68091</v>
+        <v>68091.0</v>
       </c>
       <c r="AX9" t="n">
-        <v>1531</v>
+        <v>1531.0</v>
       </c>
       <c r="AY9" t="n">
-        <v>5607</v>
+        <v>5607.0</v>
       </c>
       <c r="AZ9" t="n">
-        <v>46419</v>
+        <v>46419.0</v>
       </c>
       <c r="BA9" t="n">
-        <v>43954</v>
+        <v>43954.0</v>
       </c>
       <c r="BB9" t="n">
-        <v>258875</v>
+        <v>258875.0</v>
       </c>
       <c r="BC9" t="n">
-        <v>549426</v>
+        <v>549426.0</v>
       </c>
       <c r="BD9" t="n">
-        <v>84845</v>
+        <v>84845.0</v>
       </c>
       <c r="BE9" t="n">
-        <v>14631</v>
+        <v>14631.0</v>
       </c>
       <c r="BF9" t="n">
-        <v>20621</v>
+        <v>20621.0</v>
       </c>
       <c r="BG9" t="n">
-        <v>16538</v>
+        <v>16538.0</v>
       </c>
       <c r="BH9" t="n">
-        <v>52222</v>
+        <v>52222.0</v>
       </c>
       <c r="BI9" t="n">
-        <v>2932</v>
+        <v>2932.0</v>
       </c>
       <c r="BJ9" t="n">
-        <v>84162</v>
+        <v>84162.0</v>
       </c>
       <c r="BK9" t="n">
-        <v>12697</v>
+        <v>12697.0</v>
       </c>
       <c r="BL9" t="n">
-        <v>10818</v>
+        <v>10818.0</v>
       </c>
       <c r="BM9" t="n">
-        <v>6270</v>
+        <v>6270.0</v>
       </c>
       <c r="BN9" t="n">
-        <v>68685</v>
+        <v>68685.0</v>
       </c>
       <c r="BO9" t="n">
-        <v>8373</v>
+        <v>8373.0</v>
       </c>
       <c r="BP9" t="n">
-        <v>35579</v>
+        <v>35579.0</v>
       </c>
       <c r="BQ9" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B10" t="n">
-        <v>95502</v>
+        <v>95502.0</v>
       </c>
       <c r="C10" t="n">
-        <v>39487</v>
+        <v>39487.0</v>
       </c>
       <c r="D10" t="n">
-        <v>12293</v>
+        <v>12293.0</v>
       </c>
       <c r="E10" t="n">
-        <v>234</v>
+        <v>234.0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="I10" t="n">
-        <v>336</v>
+        <v>336.0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="K10" t="n">
-        <v>3859</v>
+        <v>3859.0</v>
       </c>
       <c r="L10" t="n">
-        <v>21</v>
+        <v>21.0</v>
       </c>
       <c r="M10" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="N10" t="n">
-        <v>1182</v>
+        <v>1182.0</v>
       </c>
       <c r="O10" t="n">
-        <v>6002</v>
+        <v>6002.0</v>
       </c>
       <c r="P10" t="n">
-        <v>580</v>
+        <v>580.0</v>
       </c>
       <c r="Q10" t="n">
-        <v>1516</v>
+        <v>1516.0</v>
       </c>
       <c r="R10" t="n">
-        <v>274</v>
+        <v>274.0</v>
       </c>
       <c r="S10" t="n">
-        <v>438</v>
+        <v>438.0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="X10" t="n">
-        <v>547</v>
+        <v>547.0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="Z10" t="n">
-        <v>342</v>
+        <v>342.0</v>
       </c>
       <c r="AA10" t="n">
-        <v>745</v>
+        <v>745.0</v>
       </c>
       <c r="AB10" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC10" t="n">
-        <v>-17</v>
+        <v>-17.0</v>
       </c>
       <c r="AD10" t="n">
-        <v>2223</v>
+        <v>2223.0</v>
       </c>
       <c r="AE10" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AF10" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AG10" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AH10" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AI10" t="n">
-        <v>27</v>
+        <v>27.0</v>
       </c>
       <c r="AJ10" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AK10" t="n">
-        <v>1240</v>
+        <v>1240.0</v>
       </c>
       <c r="AL10" t="n">
-        <v>4421</v>
+        <v>4421.0</v>
       </c>
       <c r="AM10" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AN10" t="n">
-        <v>1609</v>
+        <v>1609.0</v>
       </c>
       <c r="AO10" t="n">
-        <v>71781</v>
+        <v>71781.0</v>
       </c>
       <c r="AP10" t="n">
-        <v>22101</v>
+        <v>22101.0</v>
       </c>
       <c r="AQ10" t="n">
-        <v>59361</v>
+        <v>59361.0</v>
       </c>
       <c r="AR10" t="n">
-        <v>24009</v>
+        <v>24009.0</v>
       </c>
       <c r="AS10" t="n">
-        <v>439</v>
+        <v>439.0</v>
       </c>
       <c r="AT10" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AU10" t="n">
-        <v>1240</v>
+        <v>1240.0</v>
       </c>
       <c r="AV10" t="n">
-        <v>1136</v>
+        <v>1136.0</v>
       </c>
       <c r="AW10" t="n">
-        <v>42744</v>
+        <v>42744.0</v>
       </c>
       <c r="AX10" t="n">
-        <v>205</v>
+        <v>205.0</v>
       </c>
       <c r="AY10" t="n">
-        <v>852</v>
+        <v>852.0</v>
       </c>
       <c r="AZ10" t="n">
-        <v>255</v>
+        <v>255.0</v>
       </c>
       <c r="BA10" t="n">
-        <v>7896</v>
+        <v>7896.0</v>
       </c>
       <c r="BB10" t="n">
-        <v>2138</v>
+        <v>2138.0</v>
       </c>
       <c r="BC10" t="n">
-        <v>4129</v>
+        <v>4129.0</v>
       </c>
       <c r="BD10" t="n">
-        <v>34577</v>
+        <v>34577.0</v>
       </c>
       <c r="BE10" t="n">
-        <v>9013</v>
+        <v>9013.0</v>
       </c>
       <c r="BF10" t="n">
-        <v>5925</v>
+        <v>5925.0</v>
       </c>
       <c r="BG10" t="n">
-        <v>661</v>
+        <v>661.0</v>
       </c>
       <c r="BH10" t="n">
-        <v>6557</v>
+        <v>6557.0</v>
       </c>
       <c r="BI10" t="n">
-        <v>1230</v>
+        <v>1230.0</v>
       </c>
       <c r="BJ10" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="BK10" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="BL10" t="n">
-        <v>5702</v>
+        <v>5702.0</v>
       </c>
       <c r="BM10" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="BN10" t="n">
-        <v>38460</v>
+        <v>38460.0</v>
       </c>
       <c r="BO10" t="n">
-        <v>5863</v>
+        <v>5863.0</v>
       </c>
       <c r="BP10" t="n">
-        <v>28035</v>
+        <v>28035.0</v>
       </c>
       <c r="BQ10" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B11" t="n">
-        <v>80618</v>
+        <v>80618.0</v>
       </c>
       <c r="C11" t="n">
-        <v>11695</v>
+        <v>11695.0</v>
       </c>
       <c r="D11" t="n">
-        <v>12734</v>
+        <v>12734.0</v>
       </c>
       <c r="E11" t="n">
-        <v>3254</v>
+        <v>3254.0</v>
       </c>
       <c r="F11" t="n">
-        <v>22479</v>
+        <v>22479.0</v>
       </c>
       <c r="G11" t="n">
-        <v>33185</v>
+        <v>33185.0</v>
       </c>
       <c r="H11" t="n">
-        <v>2375</v>
+        <v>2375.0</v>
       </c>
       <c r="I11" t="n">
-        <v>14616</v>
+        <v>14616.0</v>
       </c>
       <c r="J11" t="n">
-        <v>2597</v>
+        <v>2597.0</v>
       </c>
       <c r="K11" t="n">
-        <v>23591</v>
+        <v>23591.0</v>
       </c>
       <c r="L11" t="n">
-        <v>10072</v>
+        <v>10072.0</v>
       </c>
       <c r="M11" t="n">
-        <v>1396</v>
+        <v>1396.0</v>
       </c>
       <c r="N11" t="n">
-        <v>2905</v>
+        <v>2905.0</v>
       </c>
       <c r="O11" t="n">
-        <v>2262</v>
+        <v>2262.0</v>
       </c>
       <c r="P11" t="n">
-        <v>3373</v>
+        <v>3373.0</v>
       </c>
       <c r="Q11" t="n">
-        <v>2588</v>
+        <v>2588.0</v>
       </c>
       <c r="R11" t="n">
-        <v>12684</v>
+        <v>12684.0</v>
       </c>
       <c r="S11" t="n">
-        <v>1628</v>
+        <v>1628.0</v>
       </c>
       <c r="T11" t="n">
-        <v>47763</v>
+        <v>47763.0</v>
       </c>
       <c r="U11" t="n">
-        <v>3091</v>
+        <v>3091.0</v>
       </c>
       <c r="V11" t="n">
-        <v>13303</v>
+        <v>13303.0</v>
       </c>
       <c r="W11" t="n">
-        <v>8892</v>
+        <v>8892.0</v>
       </c>
       <c r="X11" t="n">
-        <v>4424</v>
+        <v>4424.0</v>
       </c>
       <c r="Y11" t="n">
-        <v>18411</v>
+        <v>18411.0</v>
       </c>
       <c r="Z11" t="n">
-        <v>6916</v>
+        <v>6916.0</v>
       </c>
       <c r="AA11" t="n">
-        <v>1526</v>
+        <v>1526.0</v>
       </c>
       <c r="AB11" t="n">
-        <v>5965</v>
+        <v>5965.0</v>
       </c>
       <c r="AC11" t="n">
-        <v>6086</v>
+        <v>6086.0</v>
       </c>
       <c r="AD11" t="n">
-        <v>6807</v>
+        <v>6807.0</v>
       </c>
       <c r="AE11" t="n">
-        <v>6724</v>
+        <v>6724.0</v>
       </c>
       <c r="AF11" t="n">
-        <v>1291</v>
+        <v>1291.0</v>
       </c>
       <c r="AG11" t="n">
-        <v>9939</v>
+        <v>9939.0</v>
       </c>
       <c r="AH11" t="n">
-        <v>-670</v>
+        <v>-670.0</v>
       </c>
       <c r="AI11" t="n">
-        <v>2908</v>
+        <v>2908.0</v>
       </c>
       <c r="AJ11" t="n">
-        <v>4019</v>
+        <v>4019.0</v>
       </c>
       <c r="AK11" t="n">
-        <v>13455</v>
+        <v>13455.0</v>
       </c>
       <c r="AL11" t="n">
-        <v>9225</v>
+        <v>9225.0</v>
       </c>
       <c r="AM11" t="n">
-        <v>89204</v>
+        <v>89204.0</v>
       </c>
       <c r="AN11" t="n">
-        <v>21535</v>
+        <v>21535.0</v>
       </c>
       <c r="AO11" t="n">
-        <v>66255</v>
+        <v>66255.0</v>
       </c>
       <c r="AP11" t="n">
-        <v>25136</v>
+        <v>25136.0</v>
       </c>
       <c r="AQ11" t="n">
-        <v>245236</v>
+        <v>245236.0</v>
       </c>
       <c r="AR11" t="n">
-        <v>42250</v>
+        <v>42250.0</v>
       </c>
       <c r="AS11" t="n">
-        <v>3239</v>
+        <v>3239.0</v>
       </c>
       <c r="AT11" t="n">
-        <v>3109</v>
+        <v>3109.0</v>
       </c>
       <c r="AU11" t="n">
-        <v>25306</v>
+        <v>25306.0</v>
       </c>
       <c r="AV11" t="n">
-        <v>952</v>
+        <v>952.0</v>
       </c>
       <c r="AW11" t="n">
-        <v>25347</v>
+        <v>25347.0</v>
       </c>
       <c r="AX11" t="n">
-        <v>1326</v>
+        <v>1326.0</v>
       </c>
       <c r="AY11" t="n">
-        <v>4755</v>
+        <v>4755.0</v>
       </c>
       <c r="AZ11" t="n">
-        <v>46164</v>
+        <v>46164.0</v>
       </c>
       <c r="BA11" t="n">
-        <v>36058</v>
+        <v>36058.0</v>
       </c>
       <c r="BB11" t="n">
-        <v>256737</v>
+        <v>256737.0</v>
       </c>
       <c r="BC11" t="n">
-        <v>545297</v>
+        <v>545297.0</v>
       </c>
       <c r="BD11" t="n">
-        <v>50268</v>
+        <v>50268.0</v>
       </c>
       <c r="BE11" t="n">
-        <v>5618</v>
+        <v>5618.0</v>
       </c>
       <c r="BF11" t="n">
-        <v>14696</v>
+        <v>14696.0</v>
       </c>
       <c r="BG11" t="n">
-        <v>15877</v>
+        <v>15877.0</v>
       </c>
       <c r="BH11" t="n">
-        <v>45665</v>
+        <v>45665.0</v>
       </c>
       <c r="BI11" t="n">
-        <v>1702</v>
+        <v>1702.0</v>
       </c>
       <c r="BJ11" t="n">
-        <v>84162</v>
+        <v>84162.0</v>
       </c>
       <c r="BK11" t="n">
-        <v>12697</v>
+        <v>12697.0</v>
       </c>
       <c r="BL11" t="n">
-        <v>5116</v>
+        <v>5116.0</v>
       </c>
       <c r="BM11" t="n">
-        <v>6270</v>
+        <v>6270.0</v>
       </c>
       <c r="BN11" t="n">
-        <v>30225</v>
+        <v>30225.0</v>
       </c>
       <c r="BO11" t="n">
-        <v>2510</v>
+        <v>2510.0</v>
       </c>
       <c r="BP11" t="n">
-        <v>7544</v>
+        <v>7544.0</v>
       </c>
       <c r="BQ11" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B12" t="n">
-        <v>1686</v>
+        <v>1686.0</v>
       </c>
       <c r="C12" t="n">
-        <v>638</v>
+        <v>638.0</v>
       </c>
       <c r="D12" t="n">
-        <v>145</v>
+        <v>145.0</v>
       </c>
       <c r="E12" t="n">
-        <v>195</v>
+        <v>195.0</v>
       </c>
       <c r="F12" t="n">
-        <v>1140</v>
+        <v>1140.0</v>
       </c>
       <c r="G12" t="n">
-        <v>473</v>
+        <v>473.0</v>
       </c>
       <c r="H12" t="n">
-        <v>156</v>
+        <v>156.0</v>
       </c>
       <c r="I12" t="n">
-        <v>2278</v>
+        <v>2278.0</v>
       </c>
       <c r="J12" t="n">
-        <v>797</v>
+        <v>797.0</v>
       </c>
       <c r="K12" t="n">
-        <v>2710</v>
+        <v>2710.0</v>
       </c>
       <c r="L12" t="n">
-        <v>857</v>
+        <v>857.0</v>
       </c>
       <c r="M12" t="n">
-        <v>121</v>
+        <v>121.0</v>
       </c>
       <c r="N12" t="n">
-        <v>501</v>
+        <v>501.0</v>
       </c>
       <c r="O12" t="n">
-        <v>635</v>
+        <v>635.0</v>
       </c>
       <c r="P12" t="n">
-        <v>482</v>
+        <v>482.0</v>
       </c>
       <c r="Q12" t="n">
-        <v>326</v>
+        <v>326.0</v>
       </c>
       <c r="R12" t="n">
-        <v>820</v>
+        <v>820.0</v>
       </c>
       <c r="S12" t="n">
-        <v>260</v>
+        <v>260.0</v>
       </c>
       <c r="T12" t="n">
-        <v>1075</v>
+        <v>1075.0</v>
       </c>
       <c r="U12" t="n">
-        <v>446</v>
+        <v>446.0</v>
       </c>
       <c r="V12" t="n">
-        <v>1154</v>
+        <v>1154.0</v>
       </c>
       <c r="W12" t="n">
-        <v>641</v>
+        <v>641.0</v>
       </c>
       <c r="X12" t="n">
-        <v>421</v>
+        <v>421.0</v>
       </c>
       <c r="Y12" t="n">
-        <v>623</v>
+        <v>623.0</v>
       </c>
       <c r="Z12" t="n">
-        <v>1075</v>
+        <v>1075.0</v>
       </c>
       <c r="AA12" t="n">
-        <v>839</v>
+        <v>839.0</v>
       </c>
       <c r="AB12" t="n">
-        <v>899</v>
+        <v>899.0</v>
       </c>
       <c r="AC12" t="n">
-        <v>460</v>
+        <v>460.0</v>
       </c>
       <c r="AD12" t="n">
-        <v>985</v>
+        <v>985.0</v>
       </c>
       <c r="AE12" t="n">
-        <v>926</v>
+        <v>926.0</v>
       </c>
       <c r="AF12" t="n">
-        <v>722</v>
+        <v>722.0</v>
       </c>
       <c r="AG12" t="n">
-        <v>1250</v>
+        <v>1250.0</v>
       </c>
       <c r="AH12" t="n">
-        <v>1344</v>
+        <v>1344.0</v>
       </c>
       <c r="AI12" t="n">
-        <v>990</v>
+        <v>990.0</v>
       </c>
       <c r="AJ12" t="n">
-        <v>426</v>
+        <v>426.0</v>
       </c>
       <c r="AK12" t="n">
-        <v>686</v>
+        <v>686.0</v>
       </c>
       <c r="AL12" t="n">
-        <v>440</v>
+        <v>440.0</v>
       </c>
       <c r="AM12" t="n">
-        <v>2624</v>
+        <v>2624.0</v>
       </c>
       <c r="AN12" t="n">
-        <v>865</v>
+        <v>865.0</v>
       </c>
       <c r="AO12" t="n">
-        <v>3357</v>
+        <v>3357.0</v>
       </c>
       <c r="AP12" t="n">
-        <v>1367</v>
+        <v>1367.0</v>
       </c>
       <c r="AQ12" t="n">
-        <v>11684</v>
+        <v>11684.0</v>
       </c>
       <c r="AR12" t="n">
-        <v>3428</v>
+        <v>3428.0</v>
       </c>
       <c r="AS12" t="n">
-        <v>400</v>
+        <v>400.0</v>
       </c>
       <c r="AT12" t="n">
-        <v>617</v>
+        <v>617.0</v>
       </c>
       <c r="AU12" t="n">
-        <v>1669</v>
+        <v>1669.0</v>
       </c>
       <c r="AV12" t="n">
-        <v>371</v>
+        <v>371.0</v>
       </c>
       <c r="AW12" t="n">
-        <v>1602</v>
+        <v>1602.0</v>
       </c>
       <c r="AX12" t="n">
-        <v>223</v>
+        <v>223.0</v>
       </c>
       <c r="AY12" t="n">
-        <v>1018</v>
+        <v>1018.0</v>
       </c>
       <c r="AZ12" t="n">
-        <v>4427</v>
+        <v>4427.0</v>
       </c>
       <c r="BA12" t="n">
-        <v>1890</v>
+        <v>1890.0</v>
       </c>
       <c r="BB12" t="n">
-        <v>7841</v>
+        <v>7841.0</v>
       </c>
       <c r="BC12" t="n">
-        <v>454</v>
+        <v>454.0</v>
       </c>
       <c r="BD12" t="n">
-        <v>2458</v>
+        <v>2458.0</v>
       </c>
       <c r="BE12" t="n">
-        <v>617</v>
+        <v>617.0</v>
       </c>
       <c r="BF12" t="n">
-        <v>462</v>
+        <v>462.0</v>
       </c>
       <c r="BG12" t="n">
-        <v>484</v>
+        <v>484.0</v>
       </c>
       <c r="BH12" t="n">
-        <v>3145</v>
+        <v>3145.0</v>
       </c>
       <c r="BI12" t="n">
-        <v>984</v>
+        <v>984.0</v>
       </c>
       <c r="BJ12" t="n">
-        <v>169</v>
+        <v>169.0</v>
       </c>
       <c r="BK12" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="BL12" t="n">
-        <v>2544</v>
+        <v>2544.0</v>
       </c>
       <c r="BM12" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="BN12" t="n">
-        <v>2716</v>
+        <v>2716.0</v>
       </c>
       <c r="BO12" t="n">
-        <v>288</v>
+        <v>288.0</v>
       </c>
       <c r="BP12" t="n">
-        <v>1098</v>
+        <v>1098.0</v>
       </c>
       <c r="BQ12" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B13" t="n">
-        <v>-10258</v>
+        <v>-10258.0</v>
       </c>
       <c r="C13" t="n">
-        <v>-162</v>
+        <v>-162.0</v>
       </c>
       <c r="D13" t="n">
-        <v>-40</v>
+        <v>-40.0</v>
       </c>
       <c r="E13" t="n">
-        <v>-87</v>
+        <v>-87.0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="G13" t="n">
-        <v>-35</v>
+        <v>-35.0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="I13" t="n">
-        <v>-117</v>
+        <v>-117.0</v>
       </c>
       <c r="J13" t="n">
-        <v>-164</v>
+        <v>-164.0</v>
       </c>
       <c r="K13" t="n">
-        <v>-150</v>
+        <v>-150.0</v>
       </c>
       <c r="L13" t="n">
-        <v>-45</v>
+        <v>-45.0</v>
       </c>
       <c r="M13" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="N13" t="n">
-        <v>-30</v>
+        <v>-30.0</v>
       </c>
       <c r="O13" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="Q13" t="n">
-        <v>-45</v>
+        <v>-45.0</v>
       </c>
       <c r="R13" t="n">
-        <v>-114</v>
+        <v>-114.0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="T13" t="n">
-        <v>-215</v>
+        <v>-215.0</v>
       </c>
       <c r="U13" t="n">
-        <v>-183</v>
+        <v>-183.0</v>
       </c>
       <c r="V13" t="n">
-        <v>-43</v>
+        <v>-43.0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="Y13" t="n">
-        <v>-30</v>
+        <v>-30.0</v>
       </c>
       <c r="Z13" t="n">
-        <v>-171</v>
+        <v>-171.0</v>
       </c>
       <c r="AA13" t="n">
-        <v>-140</v>
+        <v>-140.0</v>
       </c>
       <c r="AB13" t="n">
-        <v>-76</v>
+        <v>-76.0</v>
       </c>
       <c r="AC13" t="n">
-        <v>-39</v>
+        <v>-39.0</v>
       </c>
       <c r="AD13" t="n">
-        <v>-95</v>
+        <v>-95.0</v>
       </c>
       <c r="AE13" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AF13" t="n">
-        <v>-106</v>
+        <v>-106.0</v>
       </c>
       <c r="AG13" t="n">
-        <v>-279</v>
+        <v>-279.0</v>
       </c>
       <c r="AH13" t="n">
-        <v>-313</v>
+        <v>-313.0</v>
       </c>
       <c r="AI13" t="n">
-        <v>-257</v>
+        <v>-257.0</v>
       </c>
       <c r="AJ13" t="n">
-        <v>-72</v>
+        <v>-72.0</v>
       </c>
       <c r="AK13" t="n">
-        <v>-40</v>
+        <v>-40.0</v>
       </c>
       <c r="AL13" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AM13" t="n">
-        <v>-170</v>
+        <v>-170.0</v>
       </c>
       <c r="AN13" t="n">
-        <v>-44</v>
+        <v>-44.0</v>
       </c>
       <c r="AO13" t="n">
-        <v>-521</v>
+        <v>-521.0</v>
       </c>
       <c r="AP13" t="n">
-        <v>-41</v>
+        <v>-41.0</v>
       </c>
       <c r="AQ13" t="n">
-        <v>-884</v>
+        <v>-884.0</v>
       </c>
       <c r="AR13" t="n">
-        <v>-2333</v>
+        <v>-2333.0</v>
       </c>
       <c r="AS13" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AT13" t="n">
-        <v>-36</v>
+        <v>-36.0</v>
       </c>
       <c r="AU13" t="n">
-        <v>-70</v>
+        <v>-70.0</v>
       </c>
       <c r="AV13" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AW13" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AX13" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AY13" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AZ13" t="n">
-        <v>-91</v>
+        <v>-91.0</v>
       </c>
       <c r="BA13" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="BB13" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="BC13" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="BD13" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="BE13" t="n">
-        <v>-651</v>
+        <v>-651.0</v>
       </c>
       <c r="BF13" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="BG13" t="n">
-        <v>-221</v>
+        <v>-221.0</v>
       </c>
       <c r="BH13" t="n">
-        <v>-70</v>
+        <v>-70.0</v>
       </c>
       <c r="BI13" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="BJ13" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="BK13" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="BL13" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="BM13" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="BN13" t="n">
-        <v>-150</v>
+        <v>-150.0</v>
       </c>
       <c r="BO13" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="BP13" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="BQ13" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B14" t="n">
-        <v>356847</v>
+        <v>356847.0</v>
       </c>
       <c r="C14" t="n">
-        <v>147583</v>
+        <v>147583.0</v>
       </c>
       <c r="D14" t="n">
-        <v>36146</v>
+        <v>36146.0</v>
       </c>
       <c r="E14" t="n">
-        <v>18832</v>
+        <v>18832.0</v>
       </c>
       <c r="F14" t="n">
-        <v>146194</v>
+        <v>146194.0</v>
       </c>
       <c r="G14" t="n">
-        <v>71590</v>
+        <v>71590.0</v>
       </c>
       <c r="H14" t="n">
-        <v>16673</v>
+        <v>16673.0</v>
       </c>
       <c r="I14" t="n">
-        <v>272342</v>
+        <v>272342.0</v>
       </c>
       <c r="J14" t="n">
-        <v>62659</v>
+        <v>62659.0</v>
       </c>
       <c r="K14" t="n">
-        <v>290387</v>
+        <v>290387.0</v>
       </c>
       <c r="L14" t="n">
-        <v>74872</v>
+        <v>74872.0</v>
       </c>
       <c r="M14" t="n">
-        <v>14953</v>
+        <v>14953.0</v>
       </c>
       <c r="N14" t="n">
-        <v>50830</v>
+        <v>50830.0</v>
       </c>
       <c r="O14" t="n">
-        <v>64164</v>
+        <v>64164.0</v>
       </c>
       <c r="P14" t="n">
-        <v>43823</v>
+        <v>43823.0</v>
       </c>
       <c r="Q14" t="n">
-        <v>28782</v>
+        <v>28782.0</v>
       </c>
       <c r="R14" t="n">
-        <v>91125</v>
+        <v>91125.0</v>
       </c>
       <c r="S14" t="n">
-        <v>18878</v>
+        <v>18878.0</v>
       </c>
       <c r="T14" t="n">
-        <v>373762</v>
+        <v>373762.0</v>
       </c>
       <c r="U14" t="n">
-        <v>48234</v>
+        <v>48234.0</v>
       </c>
       <c r="V14" t="n">
-        <v>153653</v>
+        <v>153653.0</v>
       </c>
       <c r="W14" t="n">
-        <v>78228</v>
+        <v>78228.0</v>
       </c>
       <c r="X14" t="n">
-        <v>45560</v>
+        <v>45560.0</v>
       </c>
       <c r="Y14" t="n">
-        <v>64543</v>
+        <v>64543.0</v>
       </c>
       <c r="Z14" t="n">
-        <v>107136</v>
+        <v>107136.0</v>
       </c>
       <c r="AA14" t="n">
-        <v>76997</v>
+        <v>76997.0</v>
       </c>
       <c r="AB14" t="n">
-        <v>111188</v>
+        <v>111188.0</v>
       </c>
       <c r="AC14" t="n">
-        <v>58123</v>
+        <v>58123.0</v>
       </c>
       <c r="AD14" t="n">
-        <v>91128</v>
+        <v>91128.0</v>
       </c>
       <c r="AE14" t="n">
-        <v>90442</v>
+        <v>90442.0</v>
       </c>
       <c r="AF14" t="n">
-        <v>70805</v>
+        <v>70805.0</v>
       </c>
       <c r="AG14" t="n">
-        <v>115357</v>
+        <v>115357.0</v>
       </c>
       <c r="AH14" t="n">
-        <v>160371</v>
+        <v>160371.0</v>
       </c>
       <c r="AI14" t="n">
-        <v>89075</v>
+        <v>89075.0</v>
       </c>
       <c r="AJ14" t="n">
-        <v>42196</v>
+        <v>42196.0</v>
       </c>
       <c r="AK14" t="n">
-        <v>71038</v>
+        <v>71038.0</v>
       </c>
       <c r="AL14" t="n">
-        <v>71614</v>
+        <v>71614.0</v>
       </c>
       <c r="AM14" t="n">
-        <v>292501</v>
+        <v>292501.0</v>
       </c>
       <c r="AN14" t="n">
-        <v>75152</v>
+        <v>75152.0</v>
       </c>
       <c r="AO14" t="n">
-        <v>545839</v>
+        <v>545839.0</v>
       </c>
       <c r="AP14" t="n">
-        <v>164008</v>
+        <v>164008.0</v>
       </c>
       <c r="AQ14" t="n">
-        <v>1048649</v>
+        <v>1048649.0</v>
       </c>
       <c r="AR14" t="n">
-        <v>364931</v>
+        <v>364931.0</v>
       </c>
       <c r="AS14" t="n">
-        <v>22058</v>
+        <v>22058.0</v>
       </c>
       <c r="AT14" t="n">
-        <v>40508</v>
+        <v>40508.0</v>
       </c>
       <c r="AU14" t="n">
-        <v>126476</v>
+        <v>126476.0</v>
       </c>
       <c r="AV14" t="n">
-        <v>25389</v>
+        <v>25389.0</v>
       </c>
       <c r="AW14" t="n">
-        <v>258532</v>
+        <v>258532.0</v>
       </c>
       <c r="AX14" t="n">
-        <v>17858</v>
+        <v>17858.0</v>
       </c>
       <c r="AY14" t="n">
-        <v>42978</v>
+        <v>42978.0</v>
       </c>
       <c r="AZ14" t="n">
-        <v>164602</v>
+        <v>164602.0</v>
       </c>
       <c r="BA14" t="n">
-        <v>148747</v>
+        <v>148747.0</v>
       </c>
       <c r="BB14" t="n">
-        <v>647163</v>
+        <v>647163.0</v>
       </c>
       <c r="BC14" t="n">
-        <v>609858</v>
+        <v>609858.0</v>
       </c>
       <c r="BD14" t="n">
-        <v>214447</v>
+        <v>214447.0</v>
       </c>
       <c r="BE14" t="n">
-        <v>57402</v>
+        <v>57402.0</v>
       </c>
       <c r="BF14" t="n">
-        <v>97139</v>
+        <v>97139.0</v>
       </c>
       <c r="BG14" t="n">
-        <v>43511</v>
+        <v>43511.0</v>
       </c>
       <c r="BH14" t="n">
-        <v>241402</v>
+        <v>241402.0</v>
       </c>
       <c r="BI14" t="n">
-        <v>41802</v>
+        <v>41802.0</v>
       </c>
       <c r="BJ14" t="n">
-        <v>812212</v>
+        <v>812212.0</v>
       </c>
       <c r="BK14" t="n">
-        <v>336651</v>
+        <v>336651.0</v>
       </c>
       <c r="BL14" t="n">
-        <v>133534</v>
+        <v>133534.0</v>
       </c>
       <c r="BM14" t="n">
-        <v>193090</v>
+        <v>193090.0</v>
       </c>
       <c r="BN14" t="n">
-        <v>264751</v>
+        <v>264751.0</v>
       </c>
       <c r="BO14" t="n">
-        <v>39310</v>
+        <v>39310.0</v>
       </c>
       <c r="BP14" t="n">
-        <v>152325</v>
+        <v>152325.0</v>
       </c>
       <c r="BQ14" t="n">
-        <v>71458</v>
+        <v>71458.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B15" t="n">
-        <v>6281108</v>
+        <v>6281108.0</v>
       </c>
       <c r="C15" t="n">
-        <v>5958292</v>
+        <v>5958292.0</v>
       </c>
       <c r="D15" t="n">
-        <v>837997</v>
+        <v>837997.0</v>
       </c>
       <c r="E15" t="n">
-        <v>115052</v>
+        <v>115052.0</v>
       </c>
       <c r="F15" t="n">
-        <v>54197</v>
+        <v>54197.0</v>
       </c>
       <c r="G15" t="n">
-        <v>34073</v>
+        <v>34073.0</v>
       </c>
       <c r="H15" t="n">
-        <v>29973</v>
+        <v>29973.0</v>
       </c>
       <c r="I15" t="n">
-        <v>747518</v>
+        <v>747518.0</v>
       </c>
       <c r="J15" t="n">
-        <v>161476</v>
+        <v>161476.0</v>
       </c>
       <c r="K15" t="n">
-        <v>1252977</v>
+        <v>1252977.0</v>
       </c>
       <c r="L15" t="n">
-        <v>180561</v>
+        <v>180561.0</v>
       </c>
       <c r="M15" t="n">
-        <v>18336</v>
+        <v>18336.0</v>
       </c>
       <c r="N15" t="n">
-        <v>617616</v>
+        <v>617616.0</v>
       </c>
       <c r="O15" t="n">
-        <v>1643543</v>
+        <v>1643543.0</v>
       </c>
       <c r="P15" t="n">
-        <v>469625</v>
+        <v>469625.0</v>
       </c>
       <c r="Q15" t="n">
-        <v>371415</v>
+        <v>371415.0</v>
       </c>
       <c r="R15" t="n">
-        <v>200606</v>
+        <v>200606.0</v>
       </c>
       <c r="S15" t="n">
-        <v>183273</v>
+        <v>183273.0</v>
       </c>
       <c r="T15" t="n">
-        <v>21522</v>
+        <v>21522.0</v>
       </c>
       <c r="U15" t="n">
-        <v>95360</v>
+        <v>95360.0</v>
       </c>
       <c r="V15" t="n">
-        <v>97839</v>
+        <v>97839.0</v>
       </c>
       <c r="W15" t="n">
-        <v>93614</v>
+        <v>93614.0</v>
       </c>
       <c r="X15" t="n">
-        <v>135255</v>
+        <v>135255.0</v>
       </c>
       <c r="Y15" t="n">
-        <v>98626</v>
+        <v>98626.0</v>
       </c>
       <c r="Z15" t="n">
-        <v>420120</v>
+        <v>420120.0</v>
       </c>
       <c r="AA15" t="n">
-        <v>589354</v>
+        <v>589354.0</v>
       </c>
       <c r="AB15" t="n">
-        <v>114848</v>
+        <v>114848.0</v>
       </c>
       <c r="AC15" t="n">
-        <v>98521</v>
+        <v>98521.0</v>
       </c>
       <c r="AD15" t="n">
-        <v>663203</v>
+        <v>663203.0</v>
       </c>
       <c r="AE15" t="n">
-        <v>126998</v>
+        <v>126998.0</v>
       </c>
       <c r="AF15" t="n">
-        <v>204637</v>
+        <v>204637.0</v>
       </c>
       <c r="AG15" t="n">
-        <v>357731</v>
+        <v>357731.0</v>
       </c>
       <c r="AH15" t="n">
-        <v>154793</v>
+        <v>154793.0</v>
       </c>
       <c r="AI15" t="n">
-        <v>295656</v>
+        <v>295656.0</v>
       </c>
       <c r="AJ15" t="n">
-        <v>91216</v>
+        <v>91216.0</v>
       </c>
       <c r="AK15" t="n">
-        <v>735684</v>
+        <v>735684.0</v>
       </c>
       <c r="AL15" t="n">
-        <v>497328</v>
+        <v>497328.0</v>
       </c>
       <c r="AM15" t="n">
-        <v>156189</v>
+        <v>156189.0</v>
       </c>
       <c r="AN15" t="n">
-        <v>534083</v>
+        <v>534083.0</v>
       </c>
       <c r="AO15" t="n">
-        <v>7692147</v>
+        <v>7692147.0</v>
       </c>
       <c r="AP15" t="n">
-        <v>2931921</v>
+        <v>2931921.0</v>
       </c>
       <c r="AQ15" t="n">
-        <v>15926880</v>
+        <v>1.592688E7</v>
       </c>
       <c r="AR15" t="n">
-        <v>4011194</v>
+        <v>4011194.0</v>
       </c>
       <c r="AS15" t="n">
-        <v>56977</v>
+        <v>56977.0</v>
       </c>
       <c r="AT15" t="n">
-        <v>60873</v>
+        <v>60873.0</v>
       </c>
       <c r="AU15" t="n">
-        <v>793127</v>
+        <v>793127.0</v>
       </c>
       <c r="AV15" t="n">
-        <v>436693</v>
+        <v>436693.0</v>
       </c>
       <c r="AW15" t="n">
-        <v>5238878</v>
+        <v>5238878.0</v>
       </c>
       <c r="AX15" t="n">
-        <v>143165</v>
+        <v>143165.0</v>
       </c>
       <c r="AY15" t="n">
-        <v>164908</v>
+        <v>164908.0</v>
       </c>
       <c r="AZ15" t="n">
-        <v>237623</v>
+        <v>237623.0</v>
       </c>
       <c r="BA15" t="n">
-        <v>749559</v>
+        <v>749559.0</v>
       </c>
       <c r="BB15" t="n">
-        <v>1195944</v>
+        <v>1195944.0</v>
       </c>
       <c r="BC15" t="n">
-        <v>438257</v>
+        <v>438257.0</v>
       </c>
       <c r="BD15" t="n">
-        <v>1843447</v>
+        <v>1843447.0</v>
       </c>
       <c r="BE15" t="n">
-        <v>588343</v>
+        <v>588343.0</v>
       </c>
       <c r="BF15" t="n">
-        <v>553614</v>
+        <v>553614.0</v>
       </c>
       <c r="BG15" t="n">
-        <v>303515</v>
+        <v>303515.0</v>
       </c>
       <c r="BH15" t="n">
-        <v>4041460</v>
+        <v>4041460.0</v>
       </c>
       <c r="BI15" t="n">
-        <v>805062</v>
+        <v>805062.0</v>
       </c>
       <c r="BJ15" t="n">
-        <v>4819505</v>
+        <v>4819505.0</v>
       </c>
       <c r="BK15" t="n">
-        <v>4084380</v>
+        <v>4084380.0</v>
       </c>
       <c r="BL15" t="n">
-        <v>2597443</v>
+        <v>2597443.0</v>
       </c>
       <c r="BM15" t="n">
-        <v>2147269</v>
+        <v>2147269.0</v>
       </c>
       <c r="BN15" t="n">
-        <v>3192028</v>
+        <v>3192028.0</v>
       </c>
       <c r="BO15" t="n">
-        <v>1072410</v>
+        <v>1072410.0</v>
       </c>
       <c r="BP15" t="n">
-        <v>4267479</v>
+        <v>4267479.0</v>
       </c>
       <c r="BQ15" t="n">
-        <v>6483638</v>
+        <v>6483638.0</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>